--- a/data/TKF.MI.xlsx
+++ b/data/TKF.MI.xlsx
@@ -17739,6 +17739,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="637">
+      <c r="A637" s="1" t="n">
+        <v>45447.2916666667</v>
+      </c>
+      <c r="B637" t="n">
+        <v>4501</v>
+      </c>
+      <c r="C637" t="n">
+        <v>0.797999978065491</v>
+      </c>
+      <c r="D637" t="n">
+        <v>0.779999971389771</v>
+      </c>
+      <c r="E637" t="n">
+        <v>0.782000005245209</v>
+      </c>
+      <c r="F637" t="n">
+        <v>0.797999978065491</v>
+      </c>
+      <c r="G637" t="s">
+        <v>275</v>
+      </c>
+      <c r="H637" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/TKF.MI.xlsx
+++ b/data/TKF.MI.xlsx
@@ -17765,6 +17765,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="638">
+      <c r="A638" s="1" t="n">
+        <v>45448.6371296296</v>
+      </c>
+      <c r="B638" t="n">
+        <v>16961</v>
+      </c>
+      <c r="C638" t="n">
+        <v>0.800000011920929</v>
+      </c>
+      <c r="D638" t="n">
+        <v>0.783999979496002</v>
+      </c>
+      <c r="E638" t="n">
+        <v>0.796000003814697</v>
+      </c>
+      <c r="F638" t="n">
+        <v>0.797999978065491</v>
+      </c>
+      <c r="G638" t="s">
+        <v>275</v>
+      </c>
+      <c r="H638" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/TKF.MI.xlsx
+++ b/data/TKF.MI.xlsx
@@ -17767,7 +17767,7 @@
     </row>
     <row r="638">
       <c r="A638" s="1" t="n">
-        <v>45448.6371296296</v>
+        <v>45448.2916666667</v>
       </c>
       <c r="B638" t="n">
         <v>16961</v>

--- a/data/TKF.MI.xlsx
+++ b/data/TKF.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="285">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -864,6 +864,9 @@
   </si>
   <si>
     <t xml:space="preserve">0.796000003814697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.805999994277954</t>
   </si>
 </sst>
 </file>
@@ -17791,6 +17794,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="639">
+      <c r="A639" s="1" t="n">
+        <v>45449.2916666667</v>
+      </c>
+      <c r="B639" t="n">
+        <v>23100</v>
+      </c>
+      <c r="C639" t="n">
+        <v>0.810000002384186</v>
+      </c>
+      <c r="D639" t="n">
+        <v>0.790000021457672</v>
+      </c>
+      <c r="E639" t="n">
+        <v>0.797999978065491</v>
+      </c>
+      <c r="F639" t="n">
+        <v>0.805999994277954</v>
+      </c>
+      <c r="G639" t="s">
+        <v>284</v>
+      </c>
+      <c r="H639" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/TKF.MI.xlsx
+++ b/data/TKF.MI.xlsx
@@ -17820,6 +17820,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="640">
+      <c r="A640" s="1" t="n">
+        <v>45450.2916666667</v>
+      </c>
+      <c r="B640" t="n">
+        <v>32600</v>
+      </c>
+      <c r="C640" t="n">
+        <v>0.810000002384186</v>
+      </c>
+      <c r="D640" t="n">
+        <v>0.779999971389771</v>
+      </c>
+      <c r="E640" t="n">
+        <v>0.797999978065491</v>
+      </c>
+      <c r="F640" t="n">
+        <v>0.810000002384186</v>
+      </c>
+      <c r="G640" t="s">
+        <v>263</v>
+      </c>
+      <c r="H640" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/TKF.MI.xlsx
+++ b/data/TKF.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="286">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -867,6 +867,9 @@
   </si>
   <si>
     <t xml:space="preserve">0.805999994277954</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.824000000953674</t>
   </si>
 </sst>
 </file>
@@ -17846,6 +17849,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="641">
+      <c r="A641" s="1" t="n">
+        <v>45453.2916666667</v>
+      </c>
+      <c r="B641" t="n">
+        <v>91599</v>
+      </c>
+      <c r="C641" t="n">
+        <v>0.824000000953674</v>
+      </c>
+      <c r="D641" t="n">
+        <v>0.76800000667572</v>
+      </c>
+      <c r="E641" t="n">
+        <v>0.801999986171722</v>
+      </c>
+      <c r="F641" t="n">
+        <v>0.824000000953674</v>
+      </c>
+      <c r="G641" t="s">
+        <v>285</v>
+      </c>
+      <c r="H641" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/TKF.MI.xlsx
+++ b/data/TKF.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="286">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="288">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -870,6 +870,12 @@
   </si>
   <si>
     <t xml:space="preserve">0.824000000953674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.837999999523163</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.84799998998642</t>
   </si>
 </sst>
 </file>
@@ -17875,6 +17881,58 @@
         <v>9</v>
       </c>
     </row>
+    <row r="642">
+      <c r="A642" s="1" t="n">
+        <v>45454.2916666667</v>
+      </c>
+      <c r="B642" t="n">
+        <v>37027</v>
+      </c>
+      <c r="C642" t="n">
+        <v>0.853999972343445</v>
+      </c>
+      <c r="D642" t="n">
+        <v>0.828000009059906</v>
+      </c>
+      <c r="E642" t="n">
+        <v>0.828000009059906</v>
+      </c>
+      <c r="F642" t="n">
+        <v>0.837999999523163</v>
+      </c>
+      <c r="G642" t="s">
+        <v>286</v>
+      </c>
+      <c r="H642" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="643">
+      <c r="A643" s="1" t="n">
+        <v>45455.512650463</v>
+      </c>
+      <c r="B643" t="n">
+        <v>13899</v>
+      </c>
+      <c r="C643" t="n">
+        <v>0.860000014305115</v>
+      </c>
+      <c r="D643" t="n">
+        <v>0.825999975204468</v>
+      </c>
+      <c r="E643" t="n">
+        <v>0.836000025272369</v>
+      </c>
+      <c r="F643" t="n">
+        <v>0.84799998998642</v>
+      </c>
+      <c r="G643" t="s">
+        <v>287</v>
+      </c>
+      <c r="H643" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/TKF.MI.xlsx
+++ b/data/TKF.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="288">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="289">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -876,6 +876,9 @@
   </si>
   <si>
     <t xml:space="preserve">0.84799998998642</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.822000026702881</t>
   </si>
 </sst>
 </file>
@@ -17909,7 +17912,7 @@
     </row>
     <row r="643">
       <c r="A643" s="1" t="n">
-        <v>45455.512650463</v>
+        <v>45455.2916666667</v>
       </c>
       <c r="B643" t="n">
         <v>13899</v>
@@ -17930,6 +17933,32 @@
         <v>287</v>
       </c>
       <c r="H643" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="644">
+      <c r="A644" s="1" t="n">
+        <v>45456.2916666667</v>
+      </c>
+      <c r="B644" t="n">
+        <v>17149</v>
+      </c>
+      <c r="C644" t="n">
+        <v>0.851999998092651</v>
+      </c>
+      <c r="D644" t="n">
+        <v>0.822000026702881</v>
+      </c>
+      <c r="E644" t="n">
+        <v>0.832000017166138</v>
+      </c>
+      <c r="F644" t="n">
+        <v>0.822000026702881</v>
+      </c>
+      <c r="G644" t="s">
+        <v>288</v>
+      </c>
+      <c r="H644" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/TKF.MI.xlsx
+++ b/data/TKF.MI.xlsx
@@ -17962,6 +17962,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="645">
+      <c r="A645" s="1" t="n">
+        <v>45457.2916666667</v>
+      </c>
+      <c r="B645" t="n">
+        <v>25651</v>
+      </c>
+      <c r="C645" t="n">
+        <v>0.819999992847443</v>
+      </c>
+      <c r="D645" t="n">
+        <v>0.797999978065491</v>
+      </c>
+      <c r="E645" t="n">
+        <v>0.819999992847443</v>
+      </c>
+      <c r="F645" t="n">
+        <v>0.811999976634979</v>
+      </c>
+      <c r="G645" t="s">
+        <v>280</v>
+      </c>
+      <c r="H645" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/TKF.MI.xlsx
+++ b/data/TKF.MI.xlsx
@@ -17988,6 +17988,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="646">
+      <c r="A646" s="1" t="n">
+        <v>45460.2916666667</v>
+      </c>
+      <c r="B646" t="n">
+        <v>16400</v>
+      </c>
+      <c r="C646" t="n">
+        <v>0.846000015735626</v>
+      </c>
+      <c r="D646" t="n">
+        <v>0.804000020027161</v>
+      </c>
+      <c r="E646" t="n">
+        <v>0.811999976634979</v>
+      </c>
+      <c r="F646" t="n">
+        <v>0.808000028133392</v>
+      </c>
+      <c r="G646" t="s">
+        <v>281</v>
+      </c>
+      <c r="H646" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/TKF.MI.xlsx
+++ b/data/TKF.MI.xlsx
@@ -18014,6 +18014,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="647">
+      <c r="A647" s="1" t="n">
+        <v>45461.2916666667</v>
+      </c>
+      <c r="B647" t="n">
+        <v>311032</v>
+      </c>
+      <c r="C647" t="n">
+        <v>0.898000001907349</v>
+      </c>
+      <c r="D647" t="n">
+        <v>0.815999984741211</v>
+      </c>
+      <c r="E647" t="n">
+        <v>0.815999984741211</v>
+      </c>
+      <c r="F647" t="n">
+        <v>0.860000014305115</v>
+      </c>
+      <c r="G647" t="s">
+        <v>253</v>
+      </c>
+      <c r="H647" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/TKF.MI.xlsx
+++ b/data/TKF.MI.xlsx
@@ -18040,6 +18040,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="648">
+      <c r="A648" s="1" t="n">
+        <v>45462.2916666667</v>
+      </c>
+      <c r="B648" t="n">
+        <v>67138</v>
+      </c>
+      <c r="C648" t="n">
+        <v>0.874000012874603</v>
+      </c>
+      <c r="D648" t="n">
+        <v>0.839999973773956</v>
+      </c>
+      <c r="E648" t="n">
+        <v>0.850000023841858</v>
+      </c>
+      <c r="F648" t="n">
+        <v>0.860000014305115</v>
+      </c>
+      <c r="G648" t="s">
+        <v>253</v>
+      </c>
+      <c r="H648" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/TKF.MI.xlsx
+++ b/data/TKF.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="290">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -879,6 +879,9 @@
   </si>
   <si>
     <t xml:space="preserve">0.822000026702881</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.861999988555908</t>
   </si>
 </sst>
 </file>
@@ -18066,6 +18069,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="649">
+      <c r="A649" s="1" t="n">
+        <v>45463.2916666667</v>
+      </c>
+      <c r="B649" t="n">
+        <v>22580</v>
+      </c>
+      <c r="C649" t="n">
+        <v>0.870000004768372</v>
+      </c>
+      <c r="D649" t="n">
+        <v>0.84799998998642</v>
+      </c>
+      <c r="E649" t="n">
+        <v>0.860000014305115</v>
+      </c>
+      <c r="F649" t="n">
+        <v>0.861999988555908</v>
+      </c>
+      <c r="G649" t="s">
+        <v>289</v>
+      </c>
+      <c r="H649" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/TKF.MI.xlsx
+++ b/data/TKF.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="290">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="291">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -882,6 +882,9 @@
   </si>
   <si>
     <t xml:space="preserve">0.861999988555908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.856000006198883</t>
   </si>
 </sst>
 </file>
@@ -18095,6 +18098,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="650">
+      <c r="A650" s="1" t="n">
+        <v>45464.2916666667</v>
+      </c>
+      <c r="B650" t="n">
+        <v>20070</v>
+      </c>
+      <c r="C650" t="n">
+        <v>0.856000006198883</v>
+      </c>
+      <c r="D650" t="n">
+        <v>0.829999983310699</v>
+      </c>
+      <c r="E650" t="n">
+        <v>0.846000015735626</v>
+      </c>
+      <c r="F650" t="n">
+        <v>0.856000006198883</v>
+      </c>
+      <c r="G650" t="s">
+        <v>290</v>
+      </c>
+      <c r="H650" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/TKF.MI.xlsx
+++ b/data/TKF.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="291">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="292">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -885,6 +885,9 @@
   </si>
   <si>
     <t xml:space="preserve">0.856000006198883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.842000007629395</t>
   </si>
 </sst>
 </file>
@@ -18124,6 +18127,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="651">
+      <c r="A651" s="1" t="n">
+        <v>45467.2916666667</v>
+      </c>
+      <c r="B651" t="n">
+        <v>3481</v>
+      </c>
+      <c r="C651" t="n">
+        <v>0.842000007629395</v>
+      </c>
+      <c r="D651" t="n">
+        <v>0.842000007629395</v>
+      </c>
+      <c r="E651" t="n">
+        <v>0.842000007629395</v>
+      </c>
+      <c r="F651" t="n">
+        <v>0.842000007629395</v>
+      </c>
+      <c r="G651" t="s">
+        <v>291</v>
+      </c>
+      <c r="H651" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/TKF.MI.xlsx
+++ b/data/TKF.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="320">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,388 +38,472 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
+    <t xml:space="preserve">4.11571741104126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TKF.MI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.15924072265625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.06841087341309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.09821462631226</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.21033191680908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.09679508209229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.17721700668335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.25763893127441</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.31440782546997</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.29548501968384</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.36644554138184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.35698461532593</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.40902185440063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.35225343704224</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.29075384140015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.24344730377197</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.16302537918091</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.02583456039429</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.04002666473389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.05894947052002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.92175889015198</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.11098718643188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.95960426330566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.92648959159851</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.94541239738464</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.04475784301758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.95487380027771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.93595099449158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.03056526184082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.06368017196655</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.96906614303589</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.97379660606384</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.85079836845398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.73726105690002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.62372398376465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.59533977508545</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.72779989242554</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.81295275688171</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.99271941184998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.00691175460815</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.01164197921753</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.8791823387146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.76564526557922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.78456830978394</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.82714462280273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.53857135772705</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.57641696929932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.47707200050354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.48180294036865</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.37299633026123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.23107528686523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.13646078109741</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.50072574615479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.8082218170166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.8224139213562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.04948806762695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.89810514450073</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.17248630523682</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.39956045150757</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.37117624282837</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.30967664718628</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.43740653991699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.37590742111206</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.57932758331299</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.52255916595459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.61717367172241</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.68340301513672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.92940044403076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.27240037918091</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.04700040817261</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.98820018768311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.6500997543335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.73339986801147</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.88040018081665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.39039993286133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.40999984741211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.4246997833252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.70400047302246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.89510011672974</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.94900035858154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.08620023727417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.0959997177124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.80200004577637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.07639980316162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.7628002166748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.69420003890991</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.5374002456665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.60599994659424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.51780033111572</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.32179975509644</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.3120002746582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.09639978408813</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.90040016174316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.8024001121521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.98370003700256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.81220006942749</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.66519999504089</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.72399997711182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.63580012321472</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.56720018386841</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.48390007019043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.48880004882812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.63089990615845</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.69460010528564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.58680009841919</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.59660005569458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.76320004463196</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.8808000087738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.92000007629395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.99839997291565</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.49370002746582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.62600016593933</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.15030002593994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.12580013275146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.28259992599487</t>
+  </si>
+  <si>
     <t xml:space="preserve">4.26300001144409</t>
   </si>
   <si>
-    <t xml:space="preserve">TKF.MI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.30808019638062</t>
+    <t xml:space="preserve">4.27280044555664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.14540004730225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.2532000541687</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.40019989013672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.3169002532959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.11599969863892</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.12090015411377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.10620021820068</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.2581000328064</t>
   </si>
   <si>
     <t xml:space="preserve">4.21400022506714</t>
   </si>
   <si>
-    <t xml:space="preserve">4.24487018585205</t>
-  </si>
-  <si>
     <t xml:space="preserve">4.36100006103516</t>
   </si>
   <si>
+    <t xml:space="preserve">4.15520000457764</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.22870016098022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.30219984054565</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.23360013961792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.16499996185303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.61579990386963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.45900011062622</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.52759981155396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.45410013198853</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.50799989700317</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.38549995422363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.17969989776611</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.19929981231689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.29730033874512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.18459987640381</t>
+  </si>
+  <si>
     <t xml:space="preserve">4.24340009689331</t>
   </si>
   <si>
+    <t xml:space="preserve">4.28749990463257</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.29240036010742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.13070011138916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.13560009002686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.9494001865387</t>
+  </si>
+  <si>
     <t xml:space="preserve">4.32670021057129</t>
   </si>
   <si>
-    <t xml:space="preserve">4.40999984741211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.46880006790161</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.44920015335083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.52269983291626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.51289987564087</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.56680011749268</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.50799989700317</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.44430017471313</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.39530038833618</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.3120002746582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.16990041732788</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.18459987640381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.20420026779175</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.06209993362427</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.2581000328064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.10130023956299</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.06700038909912</t>
-  </si>
-  <si>
     <t xml:space="preserve">4.0866003036499</t>
   </si>
   <si>
-    <t xml:space="preserve">4.18950033187866</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.09639978408813</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.07679986953735</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.17480039596558</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.20910024642944</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.11110019683838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.11599969863892</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.98860025405884</t>
+    <t xml:space="preserve">3.86120009422302</t>
   </si>
   <si>
     <t xml:space="preserve">3.87100005149841</t>
   </si>
   <si>
+    <t xml:space="preserve">3.85140013694763</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.82200026512146</t>
+  </si>
+  <si>
     <t xml:space="preserve">3.75340008735657</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.72399997711182</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.86120009422302</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.9494001865387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.13560009002686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.15030002593994</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.15520000457764</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.01800012588501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.90040016174316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.92000007629395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.96410012245178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.66519999504089</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.70440006256104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.60150003433228</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.60640025138855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.49370002746582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.34669995307922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.24870014190674</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.62600016593933</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.944500207901</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.95920014381409</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.19440031051636</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.03760004043579</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.32179975509644</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.55700016021729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.52759981155396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.46390008926392</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.59619998931885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.53250026702881</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.74320030212402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.68440008163452</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.78240013122559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.85099983215332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.10580015182495</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.27240037918091</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.04700040817261</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.98820018768311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.6500997543335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.73339986801147</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.88040018081665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.39039993286133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.4246997833252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.70400047302246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.89510011672974</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.94900035858154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.08620023727417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.0959997177124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.80200004577637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.07639980316162</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.7628002166748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.69420003890991</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.5374002456665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.60599994659424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.51780033111572</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.8024001121521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.98370003700256</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.81220006942749</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.63580012321472</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.56720018386841</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.48390007019043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.48880004882812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.63089990615845</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.69460010528564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.58680009841919</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.59660005569458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.76320004463196</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.8808000087738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.99839997291565</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.12580013275146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.28259992599487</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.27280044555664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.14540004730225</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.2532000541687</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.40019989013672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.3169002532959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.12090015411377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.10620021820068</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.22870016098022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.30219984054565</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.23360013961792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.16499996185303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.61579990386963</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.45900011062622</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.45410013198853</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.38549995422363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.17969989776611</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.19929981231689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.29730033874512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.28749990463257</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.29240036010742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.13070011138916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.85140013694763</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.82200026512146</t>
   </si>
   <si>
     <t xml:space="preserve">3.67009997367859</t>
@@ -4289,7 +4373,7 @@
         <v>4.5</v>
       </c>
       <c r="G118" t="s">
-        <v>16</v>
+        <v>84</v>
       </c>
       <c r="H118" t="s">
         <v>9</v>
@@ -4315,7 +4399,7 @@
         <v>4.5149998664856</v>
       </c>
       <c r="G119" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H119" t="s">
         <v>9</v>
@@ -4341,7 +4425,7 @@
         <v>4.80000019073486</v>
       </c>
       <c r="G120" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H120" t="s">
         <v>9</v>
@@ -4367,7 +4451,7 @@
         <v>4.99499988555908</v>
       </c>
       <c r="G121" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H121" t="s">
         <v>9</v>
@@ -4393,7 +4477,7 @@
         <v>4.99499988555908</v>
       </c>
       <c r="G122" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H122" t="s">
         <v>9</v>
@@ -4419,7 +4503,7 @@
         <v>5.05000019073486</v>
       </c>
       <c r="G123" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H123" t="s">
         <v>9</v>
@@ -4445,7 +4529,7 @@
         <v>5.19000005722046</v>
       </c>
       <c r="G124" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H124" t="s">
         <v>9</v>
@@ -4471,7 +4555,7 @@
         <v>5.19999980926514</v>
       </c>
       <c r="G125" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H125" t="s">
         <v>9</v>
@@ -4497,7 +4581,7 @@
         <v>4.90000009536743</v>
       </c>
       <c r="G126" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H126" t="s">
         <v>9</v>
@@ -4523,7 +4607,7 @@
         <v>5.17999982833862</v>
       </c>
       <c r="G127" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H127" t="s">
         <v>9</v>
@@ -4549,7 +4633,7 @@
         <v>4.8600001335144</v>
       </c>
       <c r="G128" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H128" t="s">
         <v>9</v>
@@ -4575,7 +4659,7 @@
         <v>4.78999996185303</v>
       </c>
       <c r="G129" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H129" t="s">
         <v>9</v>
@@ -4601,7 +4685,7 @@
         <v>4.78999996185303</v>
       </c>
       <c r="G130" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H130" t="s">
         <v>9</v>
@@ -4627,7 +4711,7 @@
         <v>4.63000011444092</v>
       </c>
       <c r="G131" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H131" t="s">
         <v>9</v>
@@ -4653,7 +4737,7 @@
         <v>4.69999980926514</v>
       </c>
       <c r="G132" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="H132" t="s">
         <v>9</v>
@@ -4679,7 +4763,7 @@
         <v>4.6100001335144</v>
       </c>
       <c r="G133" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H133" t="s">
         <v>9</v>
@@ -4705,7 +4789,7 @@
         <v>4.40999984741211</v>
       </c>
       <c r="G134" t="s">
-        <v>66</v>
+        <v>98</v>
       </c>
       <c r="H134" t="s">
         <v>9</v>
@@ -4731,7 +4815,7 @@
         <v>4.40000009536743</v>
       </c>
       <c r="G135" t="s">
-        <v>25</v>
+        <v>99</v>
       </c>
       <c r="H135" t="s">
         <v>9</v>
@@ -4757,7 +4841,7 @@
         <v>4.40000009536743</v>
       </c>
       <c r="G136" t="s">
-        <v>25</v>
+        <v>99</v>
       </c>
       <c r="H136" t="s">
         <v>9</v>
@@ -4783,7 +4867,7 @@
         <v>4.17999982833862</v>
       </c>
       <c r="G137" t="s">
-        <v>35</v>
+        <v>100</v>
       </c>
       <c r="H137" t="s">
         <v>9</v>
@@ -4809,7 +4893,7 @@
         <v>3.98000001907349</v>
       </c>
       <c r="G138" t="s">
-        <v>51</v>
+        <v>101</v>
       </c>
       <c r="H138" t="s">
         <v>9</v>
@@ -4835,7 +4919,7 @@
         <v>3.88000011444092</v>
       </c>
       <c r="G139" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="H139" t="s">
         <v>9</v>
@@ -4861,7 +4945,7 @@
         <v>4.06500005722046</v>
       </c>
       <c r="G140" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="H140" t="s">
         <v>9</v>
@@ -4887,7 +4971,7 @@
         <v>3.98000001907349</v>
       </c>
       <c r="G141" t="s">
-        <v>51</v>
+        <v>101</v>
       </c>
       <c r="H141" t="s">
         <v>9</v>
@@ -4913,7 +4997,7 @@
         <v>3.89000010490417</v>
       </c>
       <c r="G142" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="H142" t="s">
         <v>9</v>
@@ -4939,7 +5023,7 @@
         <v>3.89000010490417</v>
       </c>
       <c r="G143" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="H143" t="s">
         <v>9</v>
@@ -4965,7 +5049,7 @@
         <v>3.74000000953674</v>
       </c>
       <c r="G144" t="s">
-        <v>54</v>
+        <v>105</v>
       </c>
       <c r="H144" t="s">
         <v>9</v>
@@ -4991,7 +5075,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G145" t="s">
-        <v>44</v>
+        <v>106</v>
       </c>
       <c r="H145" t="s">
         <v>9</v>
@@ -5017,7 +5101,7 @@
         <v>3.71000003814697</v>
       </c>
       <c r="G146" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="H146" t="s">
         <v>9</v>
@@ -5043,7 +5127,7 @@
         <v>3.64000010490417</v>
       </c>
       <c r="G147" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="H147" t="s">
         <v>9</v>
@@ -5069,7 +5153,7 @@
         <v>3.5550000667572</v>
       </c>
       <c r="G148" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="H148" t="s">
         <v>9</v>
@@ -5095,7 +5179,7 @@
         <v>3.55999994277954</v>
       </c>
       <c r="G149" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="H149" t="s">
         <v>9</v>
@@ -5121,7 +5205,7 @@
         <v>3.70499992370605</v>
       </c>
       <c r="G150" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="H150" t="s">
         <v>9</v>
@@ -5147,7 +5231,7 @@
         <v>3.76999998092651</v>
       </c>
       <c r="G151" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="H151" t="s">
         <v>9</v>
@@ -5173,7 +5257,7 @@
         <v>3.76999998092651</v>
       </c>
       <c r="G152" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="H152" t="s">
         <v>9</v>
@@ -5199,7 +5283,7 @@
         <v>3.64000010490417</v>
       </c>
       <c r="G153" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="H153" t="s">
         <v>9</v>
@@ -5225,7 +5309,7 @@
         <v>3.66000008583069</v>
       </c>
       <c r="G154" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="H154" t="s">
         <v>9</v>
@@ -5251,7 +5335,7 @@
         <v>3.67000007629395</v>
       </c>
       <c r="G155" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="H155" t="s">
         <v>9</v>
@@ -5277,7 +5361,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G156" t="s">
-        <v>44</v>
+        <v>106</v>
       </c>
       <c r="H156" t="s">
         <v>9</v>
@@ -5303,7 +5387,7 @@
         <v>3.83999991416931</v>
       </c>
       <c r="G157" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="H157" t="s">
         <v>9</v>
@@ -5329,7 +5413,7 @@
         <v>3.96000003814697</v>
       </c>
       <c r="G158" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="H158" t="s">
         <v>9</v>
@@ -5355,7 +5439,7 @@
         <v>3.96000003814697</v>
       </c>
       <c r="G159" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="H159" t="s">
         <v>9</v>
@@ -5381,7 +5465,7 @@
         <v>4</v>
       </c>
       <c r="G160" t="s">
-        <v>52</v>
+        <v>117</v>
       </c>
       <c r="H160" t="s">
         <v>9</v>
@@ -5407,7 +5491,7 @@
         <v>4.07999992370605</v>
       </c>
       <c r="G161" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="H161" t="s">
         <v>9</v>
@@ -5433,7 +5517,7 @@
         <v>3.89000010490417</v>
       </c>
       <c r="G162" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="H162" t="s">
         <v>9</v>
@@ -5459,7 +5543,7 @@
         <v>3.83999991416931</v>
       </c>
       <c r="G163" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="H163" t="s">
         <v>9</v>
@@ -5485,7 +5569,7 @@
         <v>3.74000000953674</v>
       </c>
       <c r="G164" t="s">
-        <v>54</v>
+        <v>105</v>
       </c>
       <c r="H164" t="s">
         <v>9</v>
@@ -5511,7 +5595,7 @@
         <v>3.71000003814697</v>
       </c>
       <c r="G165" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="H165" t="s">
         <v>9</v>
@@ -5537,7 +5621,7 @@
         <v>3.56500005722046</v>
       </c>
       <c r="G166" t="s">
-        <v>58</v>
+        <v>119</v>
       </c>
       <c r="H166" t="s">
         <v>9</v>
@@ -5563,7 +5647,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G167" t="s">
-        <v>61</v>
+        <v>120</v>
       </c>
       <c r="H167" t="s">
         <v>9</v>
@@ -5589,7 +5673,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G168" t="s">
-        <v>61</v>
+        <v>120</v>
       </c>
       <c r="H168" t="s">
         <v>9</v>
@@ -5615,7 +5699,7 @@
         <v>3.88000011444092</v>
       </c>
       <c r="G169" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="H169" t="s">
         <v>9</v>
@@ -5641,7 +5725,7 @@
         <v>3.83999991416931</v>
       </c>
       <c r="G170" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="H170" t="s">
         <v>9</v>
@@ -5667,7 +5751,7 @@
         <v>3.83999991416931</v>
       </c>
       <c r="G171" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="H171" t="s">
         <v>9</v>
@@ -5693,7 +5777,7 @@
         <v>3.83999991416931</v>
       </c>
       <c r="G172" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="H172" t="s">
         <v>9</v>
@@ -5719,7 +5803,7 @@
         <v>4.17999982833862</v>
       </c>
       <c r="G173" t="s">
-        <v>35</v>
+        <v>100</v>
       </c>
       <c r="H173" t="s">
         <v>9</v>
@@ -5745,7 +5829,7 @@
         <v>4.2350001335144</v>
       </c>
       <c r="G174" t="s">
-        <v>48</v>
+        <v>121</v>
       </c>
       <c r="H174" t="s">
         <v>9</v>
@@ -5771,7 +5855,7 @@
         <v>4.21000003814697</v>
       </c>
       <c r="G175" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="H175" t="s">
         <v>9</v>
@@ -5797,7 +5881,7 @@
         <v>4.36999988555908</v>
       </c>
       <c r="G176" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="H176" t="s">
         <v>9</v>
@@ -5823,7 +5907,7 @@
         <v>4.34999990463257</v>
       </c>
       <c r="G177" t="s">
-        <v>8</v>
+        <v>124</v>
       </c>
       <c r="H177" t="s">
         <v>9</v>
@@ -5849,7 +5933,7 @@
         <v>4.40000009536743</v>
       </c>
       <c r="G178" t="s">
-        <v>25</v>
+        <v>99</v>
       </c>
       <c r="H178" t="s">
         <v>9</v>
@@ -5875,7 +5959,7 @@
         <v>4.40000009536743</v>
       </c>
       <c r="G179" t="s">
-        <v>25</v>
+        <v>99</v>
       </c>
       <c r="H179" t="s">
         <v>9</v>
@@ -5901,7 +5985,7 @@
         <v>4.40000009536743</v>
       </c>
       <c r="G180" t="s">
-        <v>25</v>
+        <v>99</v>
       </c>
       <c r="H180" t="s">
         <v>9</v>
@@ -5927,7 +6011,7 @@
         <v>4.40000009536743</v>
       </c>
       <c r="G181" t="s">
-        <v>25</v>
+        <v>99</v>
       </c>
       <c r="H181" t="s">
         <v>9</v>
@@ -5953,7 +6037,7 @@
         <v>4.40000009536743</v>
       </c>
       <c r="G182" t="s">
-        <v>25</v>
+        <v>99</v>
       </c>
       <c r="H182" t="s">
         <v>9</v>
@@ -5979,7 +6063,7 @@
         <v>4.40000009536743</v>
       </c>
       <c r="G183" t="s">
-        <v>25</v>
+        <v>99</v>
       </c>
       <c r="H183" t="s">
         <v>9</v>
@@ -6005,7 +6089,7 @@
         <v>4.3600001335144</v>
       </c>
       <c r="G184" t="s">
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="H184" t="s">
         <v>9</v>
@@ -6031,7 +6115,7 @@
         <v>4.3600001335144</v>
       </c>
       <c r="G185" t="s">
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="H185" t="s">
         <v>9</v>
@@ -6057,7 +6141,7 @@
         <v>4.3600001335144</v>
       </c>
       <c r="G186" t="s">
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="H186" t="s">
         <v>9</v>
@@ -6083,7 +6167,7 @@
         <v>4.3600001335144</v>
       </c>
       <c r="G187" t="s">
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="H187" t="s">
         <v>9</v>
@@ -6109,7 +6193,7 @@
         <v>4.23000001907349</v>
       </c>
       <c r="G188" t="s">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="H188" t="s">
         <v>9</v>
@@ -6135,7 +6219,7 @@
         <v>4.40000009536743</v>
       </c>
       <c r="G189" t="s">
-        <v>25</v>
+        <v>99</v>
       </c>
       <c r="H189" t="s">
         <v>9</v>
@@ -6161,7 +6245,7 @@
         <v>4.34000015258789</v>
       </c>
       <c r="G190" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="H190" t="s">
         <v>9</v>
@@ -6187,7 +6271,7 @@
         <v>4.34000015258789</v>
       </c>
       <c r="G191" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="H191" t="s">
         <v>9</v>
@@ -6213,7 +6297,7 @@
         <v>4.34000015258789</v>
       </c>
       <c r="G192" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="H192" t="s">
         <v>9</v>
@@ -6239,7 +6323,7 @@
         <v>4.48999977111816</v>
       </c>
       <c r="G193" t="s">
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="H193" t="s">
         <v>9</v>
@@ -6265,7 +6349,7 @@
         <v>4.48999977111816</v>
       </c>
       <c r="G194" t="s">
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="H194" t="s">
         <v>9</v>
@@ -6291,7 +6375,7 @@
         <v>4.40500020980835</v>
       </c>
       <c r="G195" t="s">
-        <v>117</v>
+        <v>129</v>
       </c>
       <c r="H195" t="s">
         <v>9</v>
@@ -6317,7 +6401,7 @@
         <v>4.40000009536743</v>
       </c>
       <c r="G196" t="s">
-        <v>25</v>
+        <v>99</v>
       </c>
       <c r="H196" t="s">
         <v>9</v>
@@ -6343,7 +6427,7 @@
         <v>4.40000009536743</v>
       </c>
       <c r="G197" t="s">
-        <v>25</v>
+        <v>99</v>
       </c>
       <c r="H197" t="s">
         <v>9</v>
@@ -6369,7 +6453,7 @@
         <v>4.19999980926514</v>
       </c>
       <c r="G198" t="s">
-        <v>40</v>
+        <v>130</v>
       </c>
       <c r="H198" t="s">
         <v>9</v>
@@ -6395,7 +6479,7 @@
         <v>4.17999982833862</v>
       </c>
       <c r="G199" t="s">
-        <v>35</v>
+        <v>100</v>
       </c>
       <c r="H199" t="s">
         <v>9</v>
@@ -6421,7 +6505,7 @@
         <v>4.17999982833862</v>
       </c>
       <c r="G200" t="s">
-        <v>35</v>
+        <v>100</v>
       </c>
       <c r="H200" t="s">
         <v>9</v>
@@ -6447,7 +6531,7 @@
         <v>4.17999982833862</v>
       </c>
       <c r="G201" t="s">
-        <v>35</v>
+        <v>100</v>
       </c>
       <c r="H201" t="s">
         <v>9</v>
@@ -6473,7 +6557,7 @@
         <v>4.23000001907349</v>
       </c>
       <c r="G202" t="s">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="H202" t="s">
         <v>9</v>
@@ -6499,7 +6583,7 @@
         <v>4.40000009536743</v>
       </c>
       <c r="G203" t="s">
-        <v>25</v>
+        <v>99</v>
       </c>
       <c r="H203" t="s">
         <v>9</v>
@@ -6525,7 +6609,7 @@
         <v>4.20499992370605</v>
       </c>
       <c r="G204" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="H204" t="s">
         <v>9</v>
@@ -6551,7 +6635,7 @@
         <v>4.34000015258789</v>
       </c>
       <c r="G205" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="H205" t="s">
         <v>9</v>
@@ -6577,7 +6661,7 @@
         <v>4.34000015258789</v>
       </c>
       <c r="G206" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="H206" t="s">
         <v>9</v>
@@ -6603,7 +6687,7 @@
         <v>4.34000015258789</v>
       </c>
       <c r="G207" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="H207" t="s">
         <v>9</v>
@@ -6629,7 +6713,7 @@
         <v>4.34000015258789</v>
       </c>
       <c r="G208" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="H208" t="s">
         <v>9</v>
@@ -6655,7 +6739,7 @@
         <v>4.19000005722046</v>
       </c>
       <c r="G209" t="s">
-        <v>119</v>
+        <v>132</v>
       </c>
       <c r="H209" t="s">
         <v>9</v>
@@ -6681,7 +6765,7 @@
         <v>4.36999988555908</v>
       </c>
       <c r="G210" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="H210" t="s">
         <v>9</v>
@@ -6707,7 +6791,7 @@
         <v>4.34499979019165</v>
       </c>
       <c r="G211" t="s">
-        <v>30</v>
+        <v>133</v>
       </c>
       <c r="H211" t="s">
         <v>9</v>
@@ -6733,7 +6817,7 @@
         <v>4.30000019073486</v>
       </c>
       <c r="G212" t="s">
-        <v>11</v>
+        <v>134</v>
       </c>
       <c r="H212" t="s">
         <v>9</v>
@@ -6759,7 +6843,7 @@
         <v>4.30000019073486</v>
       </c>
       <c r="G213" t="s">
-        <v>11</v>
+        <v>134</v>
       </c>
       <c r="H213" t="s">
         <v>9</v>
@@ -6785,7 +6869,7 @@
         <v>4.30000019073486</v>
       </c>
       <c r="G214" t="s">
-        <v>11</v>
+        <v>134</v>
       </c>
       <c r="H214" t="s">
         <v>9</v>
@@ -6811,7 +6895,7 @@
         <v>4.30000019073486</v>
       </c>
       <c r="G215" t="s">
-        <v>11</v>
+        <v>134</v>
       </c>
       <c r="H215" t="s">
         <v>9</v>
@@ -6837,7 +6921,7 @@
         <v>4.30000019073486</v>
       </c>
       <c r="G216" t="s">
-        <v>11</v>
+        <v>134</v>
       </c>
       <c r="H216" t="s">
         <v>9</v>
@@ -6863,7 +6947,7 @@
         <v>4.19999980926514</v>
       </c>
       <c r="G217" t="s">
-        <v>40</v>
+        <v>130</v>
       </c>
       <c r="H217" t="s">
         <v>9</v>
@@ -6889,7 +6973,7 @@
         <v>4.5</v>
       </c>
       <c r="G218" t="s">
-        <v>16</v>
+        <v>84</v>
       </c>
       <c r="H218" t="s">
         <v>9</v>
@@ -6915,7 +6999,7 @@
         <v>4.5</v>
       </c>
       <c r="G219" t="s">
-        <v>16</v>
+        <v>84</v>
       </c>
       <c r="H219" t="s">
         <v>9</v>
@@ -6941,7 +7025,7 @@
         <v>4.34499979019165</v>
       </c>
       <c r="G220" t="s">
-        <v>30</v>
+        <v>133</v>
       </c>
       <c r="H220" t="s">
         <v>9</v>
@@ -6967,7 +7051,7 @@
         <v>4.5</v>
       </c>
       <c r="G221" t="s">
-        <v>16</v>
+        <v>84</v>
       </c>
       <c r="H221" t="s">
         <v>9</v>
@@ -6993,7 +7077,7 @@
         <v>4.44999980926514</v>
       </c>
       <c r="G222" t="s">
-        <v>13</v>
+        <v>135</v>
       </c>
       <c r="H222" t="s">
         <v>9</v>
@@ -7019,7 +7103,7 @@
         <v>4.40000009536743</v>
       </c>
       <c r="G223" t="s">
-        <v>25</v>
+        <v>99</v>
       </c>
       <c r="H223" t="s">
         <v>9</v>
@@ -7045,7 +7129,7 @@
         <v>4.34999990463257</v>
       </c>
       <c r="G224" t="s">
-        <v>8</v>
+        <v>124</v>
       </c>
       <c r="H224" t="s">
         <v>9</v>
@@ -7071,7 +7155,7 @@
         <v>4.23999977111816</v>
       </c>
       <c r="G225" t="s">
-        <v>49</v>
+        <v>136</v>
       </c>
       <c r="H225" t="s">
         <v>9</v>
@@ -7097,7 +7181,7 @@
         <v>4.31500005722046</v>
       </c>
       <c r="G226" t="s">
-        <v>120</v>
+        <v>137</v>
       </c>
       <c r="H226" t="s">
         <v>9</v>
@@ -7123,7 +7207,7 @@
         <v>4.34000015258789</v>
       </c>
       <c r="G227" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="H227" t="s">
         <v>9</v>
@@ -7149,7 +7233,7 @@
         <v>4.34000015258789</v>
       </c>
       <c r="G228" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="H228" t="s">
         <v>9</v>
@@ -7175,7 +7259,7 @@
         <v>4.40000009536743</v>
       </c>
       <c r="G229" t="s">
-        <v>25</v>
+        <v>99</v>
       </c>
       <c r="H229" t="s">
         <v>9</v>
@@ -7201,7 +7285,7 @@
         <v>4.40000009536743</v>
       </c>
       <c r="G230" t="s">
-        <v>25</v>
+        <v>99</v>
       </c>
       <c r="H230" t="s">
         <v>9</v>
@@ -7227,7 +7311,7 @@
         <v>4.3899998664856</v>
       </c>
       <c r="G231" t="s">
-        <v>121</v>
+        <v>138</v>
       </c>
       <c r="H231" t="s">
         <v>9</v>
@@ -7253,7 +7337,7 @@
         <v>4.32000017166138</v>
       </c>
       <c r="G232" t="s">
-        <v>122</v>
+        <v>139</v>
       </c>
       <c r="H232" t="s">
         <v>9</v>
@@ -7279,7 +7363,7 @@
         <v>4.25</v>
       </c>
       <c r="G233" t="s">
-        <v>123</v>
+        <v>140</v>
       </c>
       <c r="H233" t="s">
         <v>9</v>
@@ -7305,7 +7389,7 @@
         <v>4.71000003814697</v>
       </c>
       <c r="G234" t="s">
-        <v>124</v>
+        <v>141</v>
       </c>
       <c r="H234" t="s">
         <v>9</v>
@@ -7331,7 +7415,7 @@
         <v>4.69999980926514</v>
       </c>
       <c r="G235" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="H235" t="s">
         <v>9</v>
@@ -7357,7 +7441,7 @@
         <v>4.63000011444092</v>
       </c>
       <c r="G236" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H236" t="s">
         <v>9</v>
@@ -7383,7 +7467,7 @@
         <v>4.55000019073486</v>
       </c>
       <c r="G237" t="s">
-        <v>125</v>
+        <v>142</v>
       </c>
       <c r="H237" t="s">
         <v>9</v>
@@ -7409,7 +7493,7 @@
         <v>4.61999988555908</v>
       </c>
       <c r="G238" t="s">
-        <v>68</v>
+        <v>143</v>
       </c>
       <c r="H238" t="s">
         <v>9</v>
@@ -7435,7 +7519,7 @@
         <v>4.61999988555908</v>
       </c>
       <c r="G239" t="s">
-        <v>68</v>
+        <v>143</v>
       </c>
       <c r="H239" t="s">
         <v>9</v>
@@ -7461,7 +7545,7 @@
         <v>4.61999988555908</v>
       </c>
       <c r="G240" t="s">
-        <v>68</v>
+        <v>143</v>
       </c>
       <c r="H240" t="s">
         <v>9</v>
@@ -7487,7 +7571,7 @@
         <v>4.61999988555908</v>
       </c>
       <c r="G241" t="s">
-        <v>68</v>
+        <v>143</v>
       </c>
       <c r="H241" t="s">
         <v>9</v>
@@ -7539,7 +7623,7 @@
         <v>4.54500007629395</v>
       </c>
       <c r="G243" t="s">
-        <v>126</v>
+        <v>144</v>
       </c>
       <c r="H243" t="s">
         <v>9</v>
@@ -7565,7 +7649,7 @@
         <v>4.59999990463257</v>
       </c>
       <c r="G244" t="s">
-        <v>22</v>
+        <v>145</v>
       </c>
       <c r="H244" t="s">
         <v>9</v>
@@ -7591,7 +7675,7 @@
         <v>4.59999990463257</v>
       </c>
       <c r="G245" t="s">
-        <v>22</v>
+        <v>145</v>
       </c>
       <c r="H245" t="s">
         <v>9</v>
@@ -7617,7 +7701,7 @@
         <v>4.59999990463257</v>
       </c>
       <c r="G246" t="s">
-        <v>22</v>
+        <v>145</v>
       </c>
       <c r="H246" t="s">
         <v>9</v>
@@ -7643,7 +7727,7 @@
         <v>4.59999990463257</v>
       </c>
       <c r="G247" t="s">
-        <v>22</v>
+        <v>145</v>
       </c>
       <c r="H247" t="s">
         <v>9</v>
@@ -7669,7 +7753,7 @@
         <v>4.5</v>
       </c>
       <c r="G248" t="s">
-        <v>16</v>
+        <v>84</v>
       </c>
       <c r="H248" t="s">
         <v>9</v>
@@ -7695,7 +7779,7 @@
         <v>4.5</v>
       </c>
       <c r="G249" t="s">
-        <v>16</v>
+        <v>84</v>
       </c>
       <c r="H249" t="s">
         <v>9</v>
@@ -7721,7 +7805,7 @@
         <v>4.5</v>
       </c>
       <c r="G250" t="s">
-        <v>16</v>
+        <v>84</v>
       </c>
       <c r="H250" t="s">
         <v>9</v>
@@ -7747,7 +7831,7 @@
         <v>4.34999990463257</v>
       </c>
       <c r="G251" t="s">
-        <v>8</v>
+        <v>124</v>
       </c>
       <c r="H251" t="s">
         <v>9</v>
@@ -7773,7 +7857,7 @@
         <v>4.47499990463257</v>
       </c>
       <c r="G252" t="s">
-        <v>127</v>
+        <v>146</v>
       </c>
       <c r="H252" t="s">
         <v>9</v>
@@ -7799,7 +7883,7 @@
         <v>4.44999980926514</v>
       </c>
       <c r="G253" t="s">
-        <v>13</v>
+        <v>135</v>
       </c>
       <c r="H253" t="s">
         <v>9</v>
@@ -7825,7 +7909,7 @@
         <v>4.23000001907349</v>
       </c>
       <c r="G254" t="s">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="H254" t="s">
         <v>9</v>
@@ -7851,7 +7935,7 @@
         <v>4.2649998664856</v>
       </c>
       <c r="G255" t="s">
-        <v>128</v>
+        <v>147</v>
       </c>
       <c r="H255" t="s">
         <v>9</v>
@@ -7877,7 +7961,7 @@
         <v>4.28499984741211</v>
       </c>
       <c r="G256" t="s">
-        <v>129</v>
+        <v>148</v>
       </c>
       <c r="H256" t="s">
         <v>9</v>
@@ -7903,7 +7987,7 @@
         <v>4.28499984741211</v>
       </c>
       <c r="G257" t="s">
-        <v>129</v>
+        <v>148</v>
       </c>
       <c r="H257" t="s">
         <v>9</v>
@@ -7929,7 +8013,7 @@
         <v>4.28499984741211</v>
       </c>
       <c r="G258" t="s">
-        <v>129</v>
+        <v>148</v>
       </c>
       <c r="H258" t="s">
         <v>9</v>
@@ -7955,7 +8039,7 @@
         <v>4.28499984741211</v>
       </c>
       <c r="G259" t="s">
-        <v>129</v>
+        <v>148</v>
       </c>
       <c r="H259" t="s">
         <v>9</v>
@@ -7981,7 +8065,7 @@
         <v>4.38500022888184</v>
       </c>
       <c r="G260" t="s">
-        <v>130</v>
+        <v>149</v>
       </c>
       <c r="H260" t="s">
         <v>9</v>
@@ -8007,7 +8091,7 @@
         <v>4.47499990463257</v>
       </c>
       <c r="G261" t="s">
-        <v>127</v>
+        <v>146</v>
       </c>
       <c r="H261" t="s">
         <v>9</v>
@@ -8033,7 +8117,7 @@
         <v>4.17999982833862</v>
       </c>
       <c r="G262" t="s">
-        <v>35</v>
+        <v>100</v>
       </c>
       <c r="H262" t="s">
         <v>9</v>
@@ -8059,7 +8143,7 @@
         <v>4.17999982833862</v>
       </c>
       <c r="G263" t="s">
-        <v>35</v>
+        <v>100</v>
       </c>
       <c r="H263" t="s">
         <v>9</v>
@@ -8085,7 +8169,7 @@
         <v>4.26999998092651</v>
       </c>
       <c r="G264" t="s">
-        <v>27</v>
+        <v>150</v>
       </c>
       <c r="H264" t="s">
         <v>9</v>
@@ -8111,7 +8195,7 @@
         <v>4.26999998092651</v>
       </c>
       <c r="G265" t="s">
-        <v>27</v>
+        <v>150</v>
       </c>
       <c r="H265" t="s">
         <v>9</v>
@@ -8137,7 +8221,7 @@
         <v>4.26999998092651</v>
       </c>
       <c r="G266" t="s">
-        <v>27</v>
+        <v>150</v>
       </c>
       <c r="H266" t="s">
         <v>9</v>
@@ -8163,7 +8247,7 @@
         <v>4.26999998092651</v>
       </c>
       <c r="G267" t="s">
-        <v>27</v>
+        <v>150</v>
       </c>
       <c r="H267" t="s">
         <v>9</v>
@@ -8189,7 +8273,7 @@
         <v>4.32999992370605</v>
       </c>
       <c r="G268" t="s">
-        <v>14</v>
+        <v>151</v>
       </c>
       <c r="H268" t="s">
         <v>9</v>
@@ -8215,7 +8299,7 @@
         <v>4.40000009536743</v>
       </c>
       <c r="G269" t="s">
-        <v>25</v>
+        <v>99</v>
       </c>
       <c r="H269" t="s">
         <v>9</v>
@@ -8241,7 +8325,7 @@
         <v>4.375</v>
       </c>
       <c r="G270" t="s">
-        <v>131</v>
+        <v>152</v>
       </c>
       <c r="H270" t="s">
         <v>9</v>
@@ -8267,7 +8351,7 @@
         <v>4.40000009536743</v>
       </c>
       <c r="G271" t="s">
-        <v>25</v>
+        <v>99</v>
       </c>
       <c r="H271" t="s">
         <v>9</v>
@@ -8293,7 +8377,7 @@
         <v>4.40000009536743</v>
       </c>
       <c r="G272" t="s">
-        <v>25</v>
+        <v>99</v>
       </c>
       <c r="H272" t="s">
         <v>9</v>
@@ -8319,7 +8403,7 @@
         <v>4.44999980926514</v>
       </c>
       <c r="G273" t="s">
-        <v>13</v>
+        <v>135</v>
       </c>
       <c r="H273" t="s">
         <v>9</v>
@@ -8345,7 +8429,7 @@
         <v>4.40000009536743</v>
       </c>
       <c r="G274" t="s">
-        <v>25</v>
+        <v>99</v>
       </c>
       <c r="H274" t="s">
         <v>9</v>
@@ -8371,7 +8455,7 @@
         <v>4.40000009536743</v>
       </c>
       <c r="G275" t="s">
-        <v>25</v>
+        <v>99</v>
       </c>
       <c r="H275" t="s">
         <v>9</v>
@@ -8397,7 +8481,7 @@
         <v>4.5</v>
       </c>
       <c r="G276" t="s">
-        <v>16</v>
+        <v>84</v>
       </c>
       <c r="H276" t="s">
         <v>9</v>
@@ -8423,7 +8507,7 @@
         <v>4.5</v>
       </c>
       <c r="G277" t="s">
-        <v>16</v>
+        <v>84</v>
       </c>
       <c r="H277" t="s">
         <v>9</v>
@@ -8449,7 +8533,7 @@
         <v>4.5</v>
       </c>
       <c r="G278" t="s">
-        <v>16</v>
+        <v>84</v>
       </c>
       <c r="H278" t="s">
         <v>9</v>
@@ -8475,7 +8559,7 @@
         <v>4.5</v>
       </c>
       <c r="G279" t="s">
-        <v>16</v>
+        <v>84</v>
       </c>
       <c r="H279" t="s">
         <v>9</v>
@@ -8501,7 +8585,7 @@
         <v>4.36999988555908</v>
       </c>
       <c r="G280" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="H280" t="s">
         <v>9</v>
@@ -8527,7 +8611,7 @@
         <v>4.34000015258789</v>
       </c>
       <c r="G281" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="H281" t="s">
         <v>9</v>
@@ -8553,7 +8637,7 @@
         <v>4.38000011444092</v>
       </c>
       <c r="G282" t="s">
-        <v>132</v>
+        <v>153</v>
       </c>
       <c r="H282" t="s">
         <v>9</v>
@@ -8579,7 +8663,7 @@
         <v>4.40000009536743</v>
       </c>
       <c r="G283" t="s">
-        <v>25</v>
+        <v>99</v>
       </c>
       <c r="H283" t="s">
         <v>9</v>
@@ -8605,7 +8689,7 @@
         <v>4.40000009536743</v>
       </c>
       <c r="G284" t="s">
-        <v>25</v>
+        <v>99</v>
       </c>
       <c r="H284" t="s">
         <v>9</v>
@@ -8631,7 +8715,7 @@
         <v>4.40000009536743</v>
       </c>
       <c r="G285" t="s">
-        <v>25</v>
+        <v>99</v>
       </c>
       <c r="H285" t="s">
         <v>9</v>
@@ -8657,7 +8741,7 @@
         <v>4.40000009536743</v>
       </c>
       <c r="G286" t="s">
-        <v>25</v>
+        <v>99</v>
       </c>
       <c r="H286" t="s">
         <v>9</v>
@@ -8683,7 +8767,7 @@
         <v>4.40000009536743</v>
       </c>
       <c r="G287" t="s">
-        <v>25</v>
+        <v>99</v>
       </c>
       <c r="H287" t="s">
         <v>9</v>
@@ -8709,7 +8793,7 @@
         <v>4.40000009536743</v>
       </c>
       <c r="G288" t="s">
-        <v>25</v>
+        <v>99</v>
       </c>
       <c r="H288" t="s">
         <v>9</v>
@@ -8735,7 +8819,7 @@
         <v>4.30000019073486</v>
       </c>
       <c r="G289" t="s">
-        <v>11</v>
+        <v>134</v>
       </c>
       <c r="H289" t="s">
         <v>9</v>
@@ -8761,7 +8845,7 @@
         <v>4.30000019073486</v>
       </c>
       <c r="G290" t="s">
-        <v>11</v>
+        <v>134</v>
       </c>
       <c r="H290" t="s">
         <v>9</v>
@@ -8787,7 +8871,7 @@
         <v>4.3899998664856</v>
       </c>
       <c r="G291" t="s">
-        <v>121</v>
+        <v>138</v>
       </c>
       <c r="H291" t="s">
         <v>9</v>
@@ -8813,7 +8897,7 @@
         <v>4.21500015258789</v>
       </c>
       <c r="G292" t="s">
-        <v>133</v>
+        <v>154</v>
       </c>
       <c r="H292" t="s">
         <v>9</v>
@@ -8839,7 +8923,7 @@
         <v>4.25</v>
       </c>
       <c r="G293" t="s">
-        <v>123</v>
+        <v>140</v>
       </c>
       <c r="H293" t="s">
         <v>9</v>
@@ -8865,7 +8949,7 @@
         <v>4.25</v>
       </c>
       <c r="G294" t="s">
-        <v>123</v>
+        <v>140</v>
       </c>
       <c r="H294" t="s">
         <v>9</v>
@@ -8891,7 +8975,7 @@
         <v>4.19999980926514</v>
       </c>
       <c r="G295" t="s">
-        <v>40</v>
+        <v>130</v>
       </c>
       <c r="H295" t="s">
         <v>9</v>
@@ -8917,7 +9001,7 @@
         <v>4.19999980926514</v>
       </c>
       <c r="G296" t="s">
-        <v>40</v>
+        <v>130</v>
       </c>
       <c r="H296" t="s">
         <v>9</v>
@@ -8943,7 +9027,7 @@
         <v>4.25</v>
       </c>
       <c r="G297" t="s">
-        <v>123</v>
+        <v>140</v>
       </c>
       <c r="H297" t="s">
         <v>9</v>
@@ -8969,7 +9053,7 @@
         <v>4.21999979019165</v>
       </c>
       <c r="G298" t="s">
-        <v>47</v>
+        <v>155</v>
       </c>
       <c r="H298" t="s">
         <v>9</v>
@@ -8995,7 +9079,7 @@
         <v>4.03000020980835</v>
       </c>
       <c r="G299" t="s">
-        <v>46</v>
+        <v>156</v>
       </c>
       <c r="H299" t="s">
         <v>9</v>
@@ -9021,7 +9105,7 @@
         <v>4.21999979019165</v>
       </c>
       <c r="G300" t="s">
-        <v>47</v>
+        <v>155</v>
       </c>
       <c r="H300" t="s">
         <v>9</v>
@@ -9047,7 +9131,7 @@
         <v>4.41499996185303</v>
       </c>
       <c r="G301" t="s">
-        <v>15</v>
+        <v>157</v>
       </c>
       <c r="H301" t="s">
         <v>9</v>
@@ -9073,7 +9157,7 @@
         <v>4.30000019073486</v>
       </c>
       <c r="G302" t="s">
-        <v>11</v>
+        <v>134</v>
       </c>
       <c r="H302" t="s">
         <v>9</v>
@@ -9099,7 +9183,7 @@
         <v>4.30000019073486</v>
       </c>
       <c r="G303" t="s">
-        <v>11</v>
+        <v>134</v>
       </c>
       <c r="H303" t="s">
         <v>9</v>
@@ -9125,7 +9209,7 @@
         <v>4.23999977111816</v>
       </c>
       <c r="G304" t="s">
-        <v>49</v>
+        <v>136</v>
       </c>
       <c r="H304" t="s">
         <v>9</v>
@@ -9151,7 +9235,7 @@
         <v>4.23999977111816</v>
       </c>
       <c r="G305" t="s">
-        <v>49</v>
+        <v>136</v>
       </c>
       <c r="H305" t="s">
         <v>9</v>
@@ -9177,7 +9261,7 @@
         <v>4.23999977111816</v>
       </c>
       <c r="G306" t="s">
-        <v>49</v>
+        <v>136</v>
       </c>
       <c r="H306" t="s">
         <v>9</v>
@@ -9203,7 +9287,7 @@
         <v>4.17000007629395</v>
       </c>
       <c r="G307" t="s">
-        <v>33</v>
+        <v>158</v>
       </c>
       <c r="H307" t="s">
         <v>9</v>
@@ -9229,7 +9313,7 @@
         <v>4</v>
       </c>
       <c r="G308" t="s">
-        <v>52</v>
+        <v>117</v>
       </c>
       <c r="H308" t="s">
         <v>9</v>
@@ -9255,7 +9339,7 @@
         <v>3.94000005722046</v>
       </c>
       <c r="G309" t="s">
-        <v>45</v>
+        <v>159</v>
       </c>
       <c r="H309" t="s">
         <v>9</v>
@@ -9281,7 +9365,7 @@
         <v>3.95000004768372</v>
       </c>
       <c r="G310" t="s">
-        <v>42</v>
+        <v>160</v>
       </c>
       <c r="H310" t="s">
         <v>9</v>
@@ -9307,7 +9391,7 @@
         <v>3.9300000667572</v>
       </c>
       <c r="G311" t="s">
-        <v>134</v>
+        <v>161</v>
       </c>
       <c r="H311" t="s">
         <v>9</v>
@@ -9333,7 +9417,7 @@
         <v>3.95000004768372</v>
       </c>
       <c r="G312" t="s">
-        <v>42</v>
+        <v>160</v>
       </c>
       <c r="H312" t="s">
         <v>9</v>
@@ -9359,7 +9443,7 @@
         <v>3.95000004768372</v>
       </c>
       <c r="G313" t="s">
-        <v>42</v>
+        <v>160</v>
       </c>
       <c r="H313" t="s">
         <v>9</v>
@@ -9385,7 +9469,7 @@
         <v>3.9300000667572</v>
       </c>
       <c r="G314" t="s">
-        <v>134</v>
+        <v>161</v>
       </c>
       <c r="H314" t="s">
         <v>9</v>
@@ -9411,7 +9495,7 @@
         <v>3.9300000667572</v>
       </c>
       <c r="G315" t="s">
-        <v>134</v>
+        <v>161</v>
       </c>
       <c r="H315" t="s">
         <v>9</v>
@@ -9437,7 +9521,7 @@
         <v>4</v>
       </c>
       <c r="G316" t="s">
-        <v>52</v>
+        <v>117</v>
       </c>
       <c r="H316" t="s">
         <v>9</v>
@@ -9463,7 +9547,7 @@
         <v>3.90000009536743</v>
       </c>
       <c r="G317" t="s">
-        <v>135</v>
+        <v>162</v>
       </c>
       <c r="H317" t="s">
         <v>9</v>
@@ -9489,7 +9573,7 @@
         <v>3.90000009536743</v>
       </c>
       <c r="G318" t="s">
-        <v>135</v>
+        <v>162</v>
       </c>
       <c r="H318" t="s">
         <v>9</v>
@@ -9515,7 +9599,7 @@
         <v>3.82999992370605</v>
       </c>
       <c r="G319" t="s">
-        <v>43</v>
+        <v>163</v>
       </c>
       <c r="H319" t="s">
         <v>9</v>
@@ -9541,7 +9625,7 @@
         <v>3.74499988555908</v>
       </c>
       <c r="G320" t="s">
-        <v>136</v>
+        <v>164</v>
       </c>
       <c r="H320" t="s">
         <v>9</v>
@@ -9567,7 +9651,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G321" t="s">
-        <v>61</v>
+        <v>120</v>
       </c>
       <c r="H321" t="s">
         <v>9</v>
@@ -9593,7 +9677,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G322" t="s">
-        <v>61</v>
+        <v>120</v>
       </c>
       <c r="H322" t="s">
         <v>9</v>
@@ -9619,7 +9703,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G323" t="s">
-        <v>61</v>
+        <v>120</v>
       </c>
       <c r="H323" t="s">
         <v>9</v>
@@ -9645,7 +9729,7 @@
         <v>3.74000000953674</v>
       </c>
       <c r="G324" t="s">
-        <v>54</v>
+        <v>105</v>
       </c>
       <c r="H324" t="s">
         <v>9</v>
@@ -9671,7 +9755,7 @@
         <v>3.55999994277954</v>
       </c>
       <c r="G325" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="H325" t="s">
         <v>9</v>
@@ -9697,7 +9781,7 @@
         <v>3.59999990463257</v>
       </c>
       <c r="G326" t="s">
-        <v>137</v>
+        <v>165</v>
       </c>
       <c r="H326" t="s">
         <v>9</v>
@@ -9723,7 +9807,7 @@
         <v>3.52999997138977</v>
       </c>
       <c r="G327" t="s">
-        <v>138</v>
+        <v>166</v>
       </c>
       <c r="H327" t="s">
         <v>9</v>
@@ -9749,7 +9833,7 @@
         <v>3.65000009536743</v>
       </c>
       <c r="G328" t="s">
-        <v>139</v>
+        <v>167</v>
       </c>
       <c r="H328" t="s">
         <v>9</v>
@@ -9775,7 +9859,7 @@
         <v>3.49000000953674</v>
       </c>
       <c r="G329" t="s">
-        <v>140</v>
+        <v>168</v>
       </c>
       <c r="H329" t="s">
         <v>9</v>
@@ -9801,7 +9885,7 @@
         <v>3.40000009536743</v>
       </c>
       <c r="G330" t="s">
-        <v>141</v>
+        <v>169</v>
       </c>
       <c r="H330" t="s">
         <v>9</v>
@@ -9827,7 +9911,7 @@
         <v>3.36999988555908</v>
       </c>
       <c r="G331" t="s">
-        <v>142</v>
+        <v>170</v>
       </c>
       <c r="H331" t="s">
         <v>9</v>
@@ -9853,7 +9937,7 @@
         <v>3.36999988555908</v>
       </c>
       <c r="G332" t="s">
-        <v>142</v>
+        <v>170</v>
       </c>
       <c r="H332" t="s">
         <v>9</v>
@@ -9879,7 +9963,7 @@
         <v>3.38000011444092</v>
       </c>
       <c r="G333" t="s">
-        <v>143</v>
+        <v>171</v>
       </c>
       <c r="H333" t="s">
         <v>9</v>
@@ -9905,7 +9989,7 @@
         <v>3.26999998092651</v>
       </c>
       <c r="G334" t="s">
-        <v>144</v>
+        <v>172</v>
       </c>
       <c r="H334" t="s">
         <v>9</v>
@@ -9931,7 +10015,7 @@
         <v>3.23000001907349</v>
       </c>
       <c r="G335" t="s">
-        <v>145</v>
+        <v>173</v>
       </c>
       <c r="H335" t="s">
         <v>9</v>
@@ -9957,7 +10041,7 @@
         <v>3.13000011444092</v>
       </c>
       <c r="G336" t="s">
-        <v>146</v>
+        <v>174</v>
       </c>
       <c r="H336" t="s">
         <v>9</v>
@@ -9983,7 +10067,7 @@
         <v>3.10999989509583</v>
       </c>
       <c r="G337" t="s">
-        <v>147</v>
+        <v>175</v>
       </c>
       <c r="H337" t="s">
         <v>9</v>
@@ -10009,7 +10093,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G338" t="s">
-        <v>148</v>
+        <v>176</v>
       </c>
       <c r="H338" t="s">
         <v>9</v>
@@ -10035,7 +10119,7 @@
         <v>3.29999995231628</v>
       </c>
       <c r="G339" t="s">
-        <v>149</v>
+        <v>177</v>
       </c>
       <c r="H339" t="s">
         <v>9</v>
@@ -10061,7 +10145,7 @@
         <v>3.29999995231628</v>
       </c>
       <c r="G340" t="s">
-        <v>149</v>
+        <v>177</v>
       </c>
       <c r="H340" t="s">
         <v>9</v>
@@ -10087,7 +10171,7 @@
         <v>3.29999995231628</v>
       </c>
       <c r="G341" t="s">
-        <v>149</v>
+        <v>177</v>
       </c>
       <c r="H341" t="s">
         <v>9</v>
@@ -10113,7 +10197,7 @@
         <v>3.18499994277954</v>
       </c>
       <c r="G342" t="s">
-        <v>150</v>
+        <v>178</v>
       </c>
       <c r="H342" t="s">
         <v>9</v>
@@ -10139,7 +10223,7 @@
         <v>3.29999995231628</v>
       </c>
       <c r="G343" t="s">
-        <v>149</v>
+        <v>177</v>
       </c>
       <c r="H343" t="s">
         <v>9</v>
@@ -10165,7 +10249,7 @@
         <v>3.46000003814697</v>
       </c>
       <c r="G344" t="s">
-        <v>151</v>
+        <v>179</v>
       </c>
       <c r="H344" t="s">
         <v>9</v>
@@ -10191,7 +10275,7 @@
         <v>3.39499998092651</v>
       </c>
       <c r="G345" t="s">
-        <v>152</v>
+        <v>180</v>
       </c>
       <c r="H345" t="s">
         <v>9</v>
@@ -10217,7 +10301,7 @@
         <v>3.40000009536743</v>
       </c>
       <c r="G346" t="s">
-        <v>141</v>
+        <v>169</v>
       </c>
       <c r="H346" t="s">
         <v>9</v>
@@ -10243,7 +10327,7 @@
         <v>3.40000009536743</v>
       </c>
       <c r="G347" t="s">
-        <v>141</v>
+        <v>169</v>
       </c>
       <c r="H347" t="s">
         <v>9</v>
@@ -10269,7 +10353,7 @@
         <v>3.38000011444092</v>
       </c>
       <c r="G348" t="s">
-        <v>143</v>
+        <v>171</v>
       </c>
       <c r="H348" t="s">
         <v>9</v>
@@ -10295,7 +10379,7 @@
         <v>3.44000005722046</v>
       </c>
       <c r="G349" t="s">
-        <v>153</v>
+        <v>181</v>
       </c>
       <c r="H349" t="s">
         <v>9</v>
@@ -10321,7 +10405,7 @@
         <v>3.29999995231628</v>
       </c>
       <c r="G350" t="s">
-        <v>149</v>
+        <v>177</v>
       </c>
       <c r="H350" t="s">
         <v>9</v>
@@ -10347,7 +10431,7 @@
         <v>3.29999995231628</v>
       </c>
       <c r="G351" t="s">
-        <v>149</v>
+        <v>177</v>
       </c>
       <c r="H351" t="s">
         <v>9</v>
@@ -10373,7 +10457,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G352" t="s">
-        <v>154</v>
+        <v>182</v>
       </c>
       <c r="H352" t="s">
         <v>9</v>
@@ -10399,7 +10483,7 @@
         <v>3.24000000953674</v>
       </c>
       <c r="G353" t="s">
-        <v>155</v>
+        <v>183</v>
       </c>
       <c r="H353" t="s">
         <v>9</v>
@@ -10425,7 +10509,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G354" t="s">
-        <v>154</v>
+        <v>182</v>
       </c>
       <c r="H354" t="s">
         <v>9</v>
@@ -10451,7 +10535,7 @@
         <v>3.07999992370605</v>
       </c>
       <c r="G355" t="s">
-        <v>156</v>
+        <v>184</v>
       </c>
       <c r="H355" t="s">
         <v>9</v>
@@ -10477,7 +10561,7 @@
         <v>2.98000001907349</v>
       </c>
       <c r="G356" t="s">
-        <v>157</v>
+        <v>185</v>
       </c>
       <c r="H356" t="s">
         <v>9</v>
@@ -10503,7 +10587,7 @@
         <v>3.09999990463257</v>
       </c>
       <c r="G357" t="s">
-        <v>158</v>
+        <v>186</v>
       </c>
       <c r="H357" t="s">
         <v>9</v>
@@ -10529,7 +10613,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G358" t="s">
-        <v>159</v>
+        <v>187</v>
       </c>
       <c r="H358" t="s">
         <v>9</v>
@@ -10555,7 +10639,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G359" t="s">
-        <v>154</v>
+        <v>182</v>
       </c>
       <c r="H359" t="s">
         <v>9</v>
@@ -10581,7 +10665,7 @@
         <v>3.40000009536743</v>
       </c>
       <c r="G360" t="s">
-        <v>141</v>
+        <v>169</v>
       </c>
       <c r="H360" t="s">
         <v>9</v>
@@ -10607,7 +10691,7 @@
         <v>3.3199999332428</v>
       </c>
       <c r="G361" t="s">
-        <v>160</v>
+        <v>188</v>
       </c>
       <c r="H361" t="s">
         <v>9</v>
@@ -10633,7 +10717,7 @@
         <v>3.29999995231628</v>
       </c>
       <c r="G362" t="s">
-        <v>149</v>
+        <v>177</v>
       </c>
       <c r="H362" t="s">
         <v>9</v>
@@ -10659,7 +10743,7 @@
         <v>3.29999995231628</v>
       </c>
       <c r="G363" t="s">
-        <v>149</v>
+        <v>177</v>
       </c>
       <c r="H363" t="s">
         <v>9</v>
@@ -10685,7 +10769,7 @@
         <v>3.11999988555908</v>
       </c>
       <c r="G364" t="s">
-        <v>161</v>
+        <v>189</v>
       </c>
       <c r="H364" t="s">
         <v>9</v>
@@ -10711,7 +10795,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G365" t="s">
-        <v>154</v>
+        <v>182</v>
       </c>
       <c r="H365" t="s">
         <v>9</v>
@@ -10737,7 +10821,7 @@
         <v>3.09999990463257</v>
       </c>
       <c r="G366" t="s">
-        <v>158</v>
+        <v>186</v>
       </c>
       <c r="H366" t="s">
         <v>9</v>
@@ -10763,7 +10847,7 @@
         <v>3</v>
       </c>
       <c r="G367" t="s">
-        <v>162</v>
+        <v>190</v>
       </c>
       <c r="H367" t="s">
         <v>9</v>
@@ -10789,7 +10873,7 @@
         <v>3</v>
       </c>
       <c r="G368" t="s">
-        <v>162</v>
+        <v>190</v>
       </c>
       <c r="H368" t="s">
         <v>9</v>
@@ -10815,7 +10899,7 @@
         <v>2.85999989509583</v>
       </c>
       <c r="G369" t="s">
-        <v>163</v>
+        <v>191</v>
       </c>
       <c r="H369" t="s">
         <v>9</v>
@@ -10841,7 +10925,7 @@
         <v>2.85999989509583</v>
       </c>
       <c r="G370" t="s">
-        <v>163</v>
+        <v>191</v>
       </c>
       <c r="H370" t="s">
         <v>9</v>
@@ -10867,7 +10951,7 @@
         <v>2.70000004768372</v>
       </c>
       <c r="G371" t="s">
-        <v>164</v>
+        <v>192</v>
       </c>
       <c r="H371" t="s">
         <v>9</v>
@@ -10893,7 +10977,7 @@
         <v>2.72000002861023</v>
       </c>
       <c r="G372" t="s">
-        <v>165</v>
+        <v>193</v>
       </c>
       <c r="H372" t="s">
         <v>9</v>
@@ -10919,7 +11003,7 @@
         <v>2.74000000953674</v>
       </c>
       <c r="G373" t="s">
-        <v>166</v>
+        <v>194</v>
       </c>
       <c r="H373" t="s">
         <v>9</v>
@@ -10945,7 +11029,7 @@
         <v>2.6800000667572</v>
       </c>
       <c r="G374" t="s">
-        <v>167</v>
+        <v>195</v>
       </c>
       <c r="H374" t="s">
         <v>9</v>
@@ -10971,7 +11055,7 @@
         <v>2.70000004768372</v>
       </c>
       <c r="G375" t="s">
-        <v>164</v>
+        <v>192</v>
       </c>
       <c r="H375" t="s">
         <v>9</v>
@@ -10997,7 +11081,7 @@
         <v>2.61999988555908</v>
       </c>
       <c r="G376" t="s">
-        <v>168</v>
+        <v>196</v>
       </c>
       <c r="H376" t="s">
         <v>9</v>
@@ -11023,7 +11107,7 @@
         <v>2.64000010490417</v>
       </c>
       <c r="G377" t="s">
-        <v>169</v>
+        <v>197</v>
       </c>
       <c r="H377" t="s">
         <v>9</v>
@@ -11049,7 +11133,7 @@
         <v>2.64000010490417</v>
       </c>
       <c r="G378" t="s">
-        <v>169</v>
+        <v>197</v>
       </c>
       <c r="H378" t="s">
         <v>9</v>
@@ -11075,7 +11159,7 @@
         <v>2.59999990463257</v>
       </c>
       <c r="G379" t="s">
-        <v>170</v>
+        <v>198</v>
       </c>
       <c r="H379" t="s">
         <v>9</v>
@@ -11101,7 +11185,7 @@
         <v>2.55999994277954</v>
       </c>
       <c r="G380" t="s">
-        <v>171</v>
+        <v>199</v>
       </c>
       <c r="H380" t="s">
         <v>9</v>
@@ -11127,7 +11211,7 @@
         <v>2.38000011444092</v>
       </c>
       <c r="G381" t="s">
-        <v>172</v>
+        <v>200</v>
       </c>
       <c r="H381" t="s">
         <v>9</v>
@@ -11153,7 +11237,7 @@
         <v>2.33999991416931</v>
       </c>
       <c r="G382" t="s">
-        <v>173</v>
+        <v>201</v>
       </c>
       <c r="H382" t="s">
         <v>9</v>
@@ -11179,7 +11263,7 @@
         <v>2.35999989509583</v>
       </c>
       <c r="G383" t="s">
-        <v>174</v>
+        <v>202</v>
       </c>
       <c r="H383" t="s">
         <v>9</v>
@@ -11205,7 +11289,7 @@
         <v>2.29999995231628</v>
       </c>
       <c r="G384" t="s">
-        <v>175</v>
+        <v>203</v>
       </c>
       <c r="H384" t="s">
         <v>9</v>
@@ -11231,7 +11315,7 @@
         <v>2.3199999332428</v>
       </c>
       <c r="G385" t="s">
-        <v>176</v>
+        <v>204</v>
       </c>
       <c r="H385" t="s">
         <v>9</v>
@@ -11257,7 +11341,7 @@
         <v>2.25999999046326</v>
       </c>
       <c r="G386" t="s">
-        <v>177</v>
+        <v>205</v>
       </c>
       <c r="H386" t="s">
         <v>9</v>
@@ -11283,7 +11367,7 @@
         <v>2.29999995231628</v>
       </c>
       <c r="G387" t="s">
-        <v>175</v>
+        <v>203</v>
       </c>
       <c r="H387" t="s">
         <v>9</v>
@@ -11309,7 +11393,7 @@
         <v>2.33999991416931</v>
       </c>
       <c r="G388" t="s">
-        <v>173</v>
+        <v>201</v>
       </c>
       <c r="H388" t="s">
         <v>9</v>
@@ -11335,7 +11419,7 @@
         <v>2.42000007629395</v>
       </c>
       <c r="G389" t="s">
-        <v>178</v>
+        <v>206</v>
       </c>
       <c r="H389" t="s">
         <v>9</v>
@@ -11361,7 +11445,7 @@
         <v>2.44000005722046</v>
       </c>
       <c r="G390" t="s">
-        <v>179</v>
+        <v>207</v>
       </c>
       <c r="H390" t="s">
         <v>9</v>
@@ -11387,7 +11471,7 @@
         <v>2.44000005722046</v>
       </c>
       <c r="G391" t="s">
-        <v>179</v>
+        <v>207</v>
       </c>
       <c r="H391" t="s">
         <v>9</v>
@@ -11413,7 +11497,7 @@
         <v>2.44000005722046</v>
       </c>
       <c r="G392" t="s">
-        <v>179</v>
+        <v>207</v>
       </c>
       <c r="H392" t="s">
         <v>9</v>
@@ -11439,7 +11523,7 @@
         <v>2.40000009536743</v>
       </c>
       <c r="G393" t="s">
-        <v>180</v>
+        <v>208</v>
       </c>
       <c r="H393" t="s">
         <v>9</v>
@@ -11465,7 +11549,7 @@
         <v>2.42000007629395</v>
       </c>
       <c r="G394" t="s">
-        <v>178</v>
+        <v>206</v>
       </c>
       <c r="H394" t="s">
         <v>9</v>
@@ -11491,7 +11575,7 @@
         <v>2.42000007629395</v>
       </c>
       <c r="G395" t="s">
-        <v>178</v>
+        <v>206</v>
       </c>
       <c r="H395" t="s">
         <v>9</v>
@@ -11517,7 +11601,7 @@
         <v>2.38000011444092</v>
       </c>
       <c r="G396" t="s">
-        <v>172</v>
+        <v>200</v>
       </c>
       <c r="H396" t="s">
         <v>9</v>
@@ -11543,7 +11627,7 @@
         <v>2.35999989509583</v>
       </c>
       <c r="G397" t="s">
-        <v>174</v>
+        <v>202</v>
       </c>
       <c r="H397" t="s">
         <v>9</v>
@@ -11569,7 +11653,7 @@
         <v>2.40000009536743</v>
       </c>
       <c r="G398" t="s">
-        <v>180</v>
+        <v>208</v>
       </c>
       <c r="H398" t="s">
         <v>9</v>
@@ -11595,7 +11679,7 @@
         <v>2.33999991416931</v>
       </c>
       <c r="G399" t="s">
-        <v>173</v>
+        <v>201</v>
       </c>
       <c r="H399" t="s">
         <v>9</v>
@@ -11621,7 +11705,7 @@
         <v>2.38000011444092</v>
       </c>
       <c r="G400" t="s">
-        <v>172</v>
+        <v>200</v>
       </c>
       <c r="H400" t="s">
         <v>9</v>
@@ -11647,7 +11731,7 @@
         <v>2.46000003814697</v>
       </c>
       <c r="G401" t="s">
-        <v>181</v>
+        <v>209</v>
       </c>
       <c r="H401" t="s">
         <v>9</v>
@@ -11673,7 +11757,7 @@
         <v>2.44000005722046</v>
       </c>
       <c r="G402" t="s">
-        <v>179</v>
+        <v>207</v>
       </c>
       <c r="H402" t="s">
         <v>9</v>
@@ -11699,7 +11783,7 @@
         <v>2.42000007629395</v>
       </c>
       <c r="G403" t="s">
-        <v>178</v>
+        <v>206</v>
       </c>
       <c r="H403" t="s">
         <v>9</v>
@@ -11725,7 +11809,7 @@
         <v>2.42000007629395</v>
       </c>
       <c r="G404" t="s">
-        <v>178</v>
+        <v>206</v>
       </c>
       <c r="H404" t="s">
         <v>9</v>
@@ -11751,7 +11835,7 @@
         <v>2.46000003814697</v>
       </c>
       <c r="G405" t="s">
-        <v>181</v>
+        <v>209</v>
       </c>
       <c r="H405" t="s">
         <v>9</v>
@@ -11777,7 +11861,7 @@
         <v>2.44000005722046</v>
       </c>
       <c r="G406" t="s">
-        <v>179</v>
+        <v>207</v>
       </c>
       <c r="H406" t="s">
         <v>9</v>
@@ -11803,7 +11887,7 @@
         <v>2.40000009536743</v>
       </c>
       <c r="G407" t="s">
-        <v>180</v>
+        <v>208</v>
       </c>
       <c r="H407" t="s">
         <v>9</v>
@@ -11829,7 +11913,7 @@
         <v>2.40000009536743</v>
       </c>
       <c r="G408" t="s">
-        <v>180</v>
+        <v>208</v>
       </c>
       <c r="H408" t="s">
         <v>9</v>
@@ -11855,7 +11939,7 @@
         <v>2.38000011444092</v>
       </c>
       <c r="G409" t="s">
-        <v>172</v>
+        <v>200</v>
       </c>
       <c r="H409" t="s">
         <v>9</v>
@@ -11881,7 +11965,7 @@
         <v>2.35999989509583</v>
       </c>
       <c r="G410" t="s">
-        <v>174</v>
+        <v>202</v>
       </c>
       <c r="H410" t="s">
         <v>9</v>
@@ -11907,7 +11991,7 @@
         <v>2.35999989509583</v>
       </c>
       <c r="G411" t="s">
-        <v>174</v>
+        <v>202</v>
       </c>
       <c r="H411" t="s">
         <v>9</v>
@@ -11933,7 +12017,7 @@
         <v>2.38000011444092</v>
       </c>
       <c r="G412" t="s">
-        <v>172</v>
+        <v>200</v>
       </c>
       <c r="H412" t="s">
         <v>9</v>
@@ -11959,7 +12043,7 @@
         <v>2.38000011444092</v>
       </c>
       <c r="G413" t="s">
-        <v>172</v>
+        <v>200</v>
       </c>
       <c r="H413" t="s">
         <v>9</v>
@@ -11985,7 +12069,7 @@
         <v>2.27999997138977</v>
       </c>
       <c r="G414" t="s">
-        <v>182</v>
+        <v>210</v>
       </c>
       <c r="H414" t="s">
         <v>9</v>
@@ -12011,7 +12095,7 @@
         <v>2.27999997138977</v>
       </c>
       <c r="G415" t="s">
-        <v>182</v>
+        <v>210</v>
       </c>
       <c r="H415" t="s">
         <v>9</v>
@@ -12037,7 +12121,7 @@
         <v>2.27999997138977</v>
       </c>
       <c r="G416" t="s">
-        <v>182</v>
+        <v>210</v>
       </c>
       <c r="H416" t="s">
         <v>9</v>
@@ -12063,7 +12147,7 @@
         <v>2.29999995231628</v>
       </c>
       <c r="G417" t="s">
-        <v>175</v>
+        <v>203</v>
       </c>
       <c r="H417" t="s">
         <v>9</v>
@@ -12089,7 +12173,7 @@
         <v>2.25999999046326</v>
       </c>
       <c r="G418" t="s">
-        <v>177</v>
+        <v>205</v>
       </c>
       <c r="H418" t="s">
         <v>9</v>
@@ -12115,7 +12199,7 @@
         <v>2.40000009536743</v>
       </c>
       <c r="G419" t="s">
-        <v>180</v>
+        <v>208</v>
       </c>
       <c r="H419" t="s">
         <v>9</v>
@@ -12141,7 +12225,7 @@
         <v>2.29999995231628</v>
       </c>
       <c r="G420" t="s">
-        <v>175</v>
+        <v>203</v>
       </c>
       <c r="H420" t="s">
         <v>9</v>
@@ -12167,7 +12251,7 @@
         <v>2.3199999332428</v>
       </c>
       <c r="G421" t="s">
-        <v>176</v>
+        <v>204</v>
       </c>
       <c r="H421" t="s">
         <v>9</v>
@@ -12193,7 +12277,7 @@
         <v>2.20000004768372</v>
       </c>
       <c r="G422" t="s">
-        <v>183</v>
+        <v>211</v>
       </c>
       <c r="H422" t="s">
         <v>9</v>
@@ -12219,7 +12303,7 @@
         <v>2.05999994277954</v>
       </c>
       <c r="G423" t="s">
-        <v>184</v>
+        <v>212</v>
       </c>
       <c r="H423" t="s">
         <v>9</v>
@@ -12245,7 +12329,7 @@
         <v>2.09999990463257</v>
       </c>
       <c r="G424" t="s">
-        <v>185</v>
+        <v>213</v>
       </c>
       <c r="H424" t="s">
         <v>9</v>
@@ -12271,7 +12355,7 @@
         <v>2.05999994277954</v>
       </c>
       <c r="G425" t="s">
-        <v>184</v>
+        <v>212</v>
       </c>
       <c r="H425" t="s">
         <v>9</v>
@@ -12297,7 +12381,7 @@
         <v>2.05999994277954</v>
       </c>
       <c r="G426" t="s">
-        <v>184</v>
+        <v>212</v>
       </c>
       <c r="H426" t="s">
         <v>9</v>
@@ -12323,7 +12407,7 @@
         <v>2.01999998092651</v>
       </c>
       <c r="G427" t="s">
-        <v>186</v>
+        <v>214</v>
       </c>
       <c r="H427" t="s">
         <v>9</v>
@@ -12349,7 +12433,7 @@
         <v>1.89999997615814</v>
       </c>
       <c r="G428" t="s">
-        <v>187</v>
+        <v>215</v>
       </c>
       <c r="H428" t="s">
         <v>9</v>
@@ -12375,7 +12459,7 @@
         <v>1.75999999046326</v>
       </c>
       <c r="G429" t="s">
-        <v>188</v>
+        <v>216</v>
       </c>
       <c r="H429" t="s">
         <v>9</v>
@@ -12401,7 +12485,7 @@
         <v>1.76999998092651</v>
       </c>
       <c r="G430" t="s">
-        <v>189</v>
+        <v>217</v>
       </c>
       <c r="H430" t="s">
         <v>9</v>
@@ -12427,7 +12511,7 @@
         <v>1.76999998092651</v>
       </c>
       <c r="G431" t="s">
-        <v>189</v>
+        <v>217</v>
       </c>
       <c r="H431" t="s">
         <v>9</v>
@@ -12453,7 +12537,7 @@
         <v>1.79999995231628</v>
       </c>
       <c r="G432" t="s">
-        <v>190</v>
+        <v>218</v>
       </c>
       <c r="H432" t="s">
         <v>9</v>
@@ -12479,7 +12563,7 @@
         <v>1.76999998092651</v>
       </c>
       <c r="G433" t="s">
-        <v>189</v>
+        <v>217</v>
       </c>
       <c r="H433" t="s">
         <v>9</v>
@@ -12505,7 +12589,7 @@
         <v>1.78999996185303</v>
       </c>
       <c r="G434" t="s">
-        <v>191</v>
+        <v>219</v>
       </c>
       <c r="H434" t="s">
         <v>9</v>
@@ -12531,7 +12615,7 @@
         <v>1.78999996185303</v>
       </c>
       <c r="G435" t="s">
-        <v>191</v>
+        <v>219</v>
       </c>
       <c r="H435" t="s">
         <v>9</v>
@@ -12557,7 +12641,7 @@
         <v>1.78999996185303</v>
       </c>
       <c r="G436" t="s">
-        <v>191</v>
+        <v>219</v>
       </c>
       <c r="H436" t="s">
         <v>9</v>
@@ -12583,7 +12667,7 @@
         <v>1.78999996185303</v>
       </c>
       <c r="G437" t="s">
-        <v>191</v>
+        <v>219</v>
       </c>
       <c r="H437" t="s">
         <v>9</v>
@@ -12609,7 +12693,7 @@
         <v>1.78999996185303</v>
       </c>
       <c r="G438" t="s">
-        <v>191</v>
+        <v>219</v>
       </c>
       <c r="H438" t="s">
         <v>9</v>
@@ -12635,7 +12719,7 @@
         <v>1.78999996185303</v>
       </c>
       <c r="G439" t="s">
-        <v>191</v>
+        <v>219</v>
       </c>
       <c r="H439" t="s">
         <v>9</v>
@@ -12661,7 +12745,7 @@
         <v>1.78999996185303</v>
       </c>
       <c r="G440" t="s">
-        <v>191</v>
+        <v>219</v>
       </c>
       <c r="H440" t="s">
         <v>9</v>
@@ -12687,7 +12771,7 @@
         <v>1.78999996185303</v>
       </c>
       <c r="G441" t="s">
-        <v>191</v>
+        <v>219</v>
       </c>
       <c r="H441" t="s">
         <v>9</v>
@@ -12713,7 +12797,7 @@
         <v>1.78999996185303</v>
       </c>
       <c r="G442" t="s">
-        <v>191</v>
+        <v>219</v>
       </c>
       <c r="H442" t="s">
         <v>9</v>
@@ -12739,7 +12823,7 @@
         <v>1.77999997138977</v>
       </c>
       <c r="G443" t="s">
-        <v>192</v>
+        <v>220</v>
       </c>
       <c r="H443" t="s">
         <v>9</v>
@@ -12765,7 +12849,7 @@
         <v>1.77999997138977</v>
       </c>
       <c r="G444" t="s">
-        <v>192</v>
+        <v>220</v>
       </c>
       <c r="H444" t="s">
         <v>9</v>
@@ -12791,7 +12875,7 @@
         <v>1.77999997138977</v>
       </c>
       <c r="G445" t="s">
-        <v>192</v>
+        <v>220</v>
       </c>
       <c r="H445" t="s">
         <v>9</v>
@@ -12817,7 +12901,7 @@
         <v>1.75</v>
       </c>
       <c r="G446" t="s">
-        <v>193</v>
+        <v>221</v>
       </c>
       <c r="H446" t="s">
         <v>9</v>
@@ -12843,7 +12927,7 @@
         <v>1.78999996185303</v>
       </c>
       <c r="G447" t="s">
-        <v>191</v>
+        <v>219</v>
       </c>
       <c r="H447" t="s">
         <v>9</v>
@@ -12869,7 +12953,7 @@
         <v>1.78999996185303</v>
       </c>
       <c r="G448" t="s">
-        <v>191</v>
+        <v>219</v>
       </c>
       <c r="H448" t="s">
         <v>9</v>
@@ -12895,7 +12979,7 @@
         <v>1.80999994277954</v>
       </c>
       <c r="G449" t="s">
-        <v>194</v>
+        <v>222</v>
       </c>
       <c r="H449" t="s">
         <v>9</v>
@@ -12921,7 +13005,7 @@
         <v>1.77999997138977</v>
       </c>
       <c r="G450" t="s">
-        <v>192</v>
+        <v>220</v>
       </c>
       <c r="H450" t="s">
         <v>9</v>
@@ -12947,7 +13031,7 @@
         <v>1.80999994277954</v>
       </c>
       <c r="G451" t="s">
-        <v>194</v>
+        <v>222</v>
       </c>
       <c r="H451" t="s">
         <v>9</v>
@@ -12973,7 +13057,7 @@
         <v>1.76999998092651</v>
       </c>
       <c r="G452" t="s">
-        <v>189</v>
+        <v>217</v>
       </c>
       <c r="H452" t="s">
         <v>9</v>
@@ -12999,7 +13083,7 @@
         <v>1.77999997138977</v>
       </c>
       <c r="G453" t="s">
-        <v>192</v>
+        <v>220</v>
       </c>
       <c r="H453" t="s">
         <v>9</v>
@@ -13025,7 +13109,7 @@
         <v>1.73000001907349</v>
       </c>
       <c r="G454" t="s">
-        <v>195</v>
+        <v>223</v>
       </c>
       <c r="H454" t="s">
         <v>9</v>
@@ -13051,7 +13135,7 @@
         <v>1.80999994277954</v>
       </c>
       <c r="G455" t="s">
-        <v>194</v>
+        <v>222</v>
       </c>
       <c r="H455" t="s">
         <v>9</v>
@@ -13077,7 +13161,7 @@
         <v>1.83000004291534</v>
       </c>
       <c r="G456" t="s">
-        <v>196</v>
+        <v>224</v>
       </c>
       <c r="H456" t="s">
         <v>9</v>
@@ -13103,7 +13187,7 @@
         <v>1.83000004291534</v>
       </c>
       <c r="G457" t="s">
-        <v>196</v>
+        <v>224</v>
       </c>
       <c r="H457" t="s">
         <v>9</v>
@@ -13129,7 +13213,7 @@
         <v>1.64999997615814</v>
       </c>
       <c r="G458" t="s">
-        <v>197</v>
+        <v>225</v>
       </c>
       <c r="H458" t="s">
         <v>9</v>
@@ -13155,7 +13239,7 @@
         <v>1.61000001430511</v>
       </c>
       <c r="G459" t="s">
-        <v>198</v>
+        <v>226</v>
       </c>
       <c r="H459" t="s">
         <v>9</v>
@@ -13181,7 +13265,7 @@
         <v>1.67999994754791</v>
       </c>
       <c r="G460" t="s">
-        <v>199</v>
+        <v>227</v>
       </c>
       <c r="H460" t="s">
         <v>9</v>
@@ -13207,7 +13291,7 @@
         <v>1.62000000476837</v>
       </c>
       <c r="G461" t="s">
-        <v>200</v>
+        <v>228</v>
       </c>
       <c r="H461" t="s">
         <v>9</v>
@@ -13233,7 +13317,7 @@
         <v>1.63999998569489</v>
       </c>
       <c r="G462" t="s">
-        <v>201</v>
+        <v>229</v>
       </c>
       <c r="H462" t="s">
         <v>9</v>
@@ -13259,7 +13343,7 @@
         <v>1.36000001430511</v>
       </c>
       <c r="G463" t="s">
-        <v>202</v>
+        <v>230</v>
       </c>
       <c r="H463" t="s">
         <v>9</v>
@@ -13285,7 +13369,7 @@
         <v>1.29999995231628</v>
       </c>
       <c r="G464" t="s">
-        <v>203</v>
+        <v>231</v>
       </c>
       <c r="H464" t="s">
         <v>9</v>
@@ -13311,7 +13395,7 @@
         <v>1.21000003814697</v>
       </c>
       <c r="G465" t="s">
-        <v>204</v>
+        <v>232</v>
       </c>
       <c r="H465" t="s">
         <v>9</v>
@@ -13337,7 +13421,7 @@
         <v>1.10000002384186</v>
       </c>
       <c r="G466" t="s">
-        <v>205</v>
+        <v>233</v>
       </c>
       <c r="H466" t="s">
         <v>9</v>
@@ -13363,7 +13447,7 @@
         <v>0.980000019073486</v>
       </c>
       <c r="G467" t="s">
-        <v>206</v>
+        <v>234</v>
       </c>
       <c r="H467" t="s">
         <v>9</v>
@@ -13389,7 +13473,7 @@
         <v>0.964999973773956</v>
       </c>
       <c r="G468" t="s">
-        <v>207</v>
+        <v>235</v>
       </c>
       <c r="H468" t="s">
         <v>9</v>
@@ -13415,7 +13499,7 @@
         <v>0.990000009536743</v>
       </c>
       <c r="G469" t="s">
-        <v>208</v>
+        <v>236</v>
       </c>
       <c r="H469" t="s">
         <v>9</v>
@@ -13441,7 +13525,7 @@
         <v>1.03999996185303</v>
       </c>
       <c r="G470" t="s">
-        <v>209</v>
+        <v>237</v>
       </c>
       <c r="H470" t="s">
         <v>9</v>
@@ -13467,7 +13551,7 @@
         <v>1.12999999523163</v>
       </c>
       <c r="G471" t="s">
-        <v>210</v>
+        <v>238</v>
       </c>
       <c r="H471" t="s">
         <v>9</v>
@@ -13493,7 +13577,7 @@
         <v>1.29999995231628</v>
       </c>
       <c r="G472" t="s">
-        <v>203</v>
+        <v>231</v>
       </c>
       <c r="H472" t="s">
         <v>9</v>
@@ -13519,7 +13603,7 @@
         <v>1.22000002861023</v>
       </c>
       <c r="G473" t="s">
-        <v>211</v>
+        <v>239</v>
       </c>
       <c r="H473" t="s">
         <v>9</v>
@@ -13545,7 +13629,7 @@
         <v>1.14999997615814</v>
       </c>
       <c r="G474" t="s">
-        <v>212</v>
+        <v>240</v>
       </c>
       <c r="H474" t="s">
         <v>9</v>
@@ -13571,7 +13655,7 @@
         <v>1.10000002384186</v>
       </c>
       <c r="G475" t="s">
-        <v>205</v>
+        <v>233</v>
       </c>
       <c r="H475" t="s">
         <v>9</v>
@@ -13597,7 +13681,7 @@
         <v>1.08000004291534</v>
       </c>
       <c r="G476" t="s">
-        <v>213</v>
+        <v>241</v>
       </c>
       <c r="H476" t="s">
         <v>9</v>
@@ -13623,7 +13707,7 @@
         <v>1.04999995231628</v>
       </c>
       <c r="G477" t="s">
-        <v>214</v>
+        <v>242</v>
       </c>
       <c r="H477" t="s">
         <v>9</v>
@@ -13649,7 +13733,7 @@
         <v>1.00999999046326</v>
       </c>
       <c r="G478" t="s">
-        <v>215</v>
+        <v>243</v>
       </c>
       <c r="H478" t="s">
         <v>9</v>
@@ -13675,7 +13759,7 @@
         <v>0.970000028610229</v>
       </c>
       <c r="G479" t="s">
-        <v>216</v>
+        <v>244</v>
       </c>
       <c r="H479" t="s">
         <v>9</v>
@@ -13701,7 +13785,7 @@
         <v>0.899999976158142</v>
       </c>
       <c r="G480" t="s">
-        <v>217</v>
+        <v>245</v>
       </c>
       <c r="H480" t="s">
         <v>9</v>
@@ -13727,7 +13811,7 @@
         <v>0.785000026226044</v>
       </c>
       <c r="G481" t="s">
-        <v>218</v>
+        <v>246</v>
       </c>
       <c r="H481" t="s">
         <v>9</v>
@@ -13753,7 +13837,7 @@
         <v>0.730000019073486</v>
       </c>
       <c r="G482" t="s">
-        <v>219</v>
+        <v>247</v>
       </c>
       <c r="H482" t="s">
         <v>9</v>
@@ -13779,7 +13863,7 @@
         <v>0.689999997615814</v>
       </c>
       <c r="G483" t="s">
-        <v>220</v>
+        <v>248</v>
       </c>
       <c r="H483" t="s">
         <v>9</v>
@@ -13805,7 +13889,7 @@
         <v>0.685000002384186</v>
       </c>
       <c r="G484" t="s">
-        <v>221</v>
+        <v>249</v>
       </c>
       <c r="H484" t="s">
         <v>9</v>
@@ -13831,7 +13915,7 @@
         <v>0.769999980926514</v>
       </c>
       <c r="G485" t="s">
-        <v>222</v>
+        <v>250</v>
       </c>
       <c r="H485" t="s">
         <v>9</v>
@@ -13857,7 +13941,7 @@
         <v>0.754999995231628</v>
       </c>
       <c r="G486" t="s">
-        <v>223</v>
+        <v>251</v>
       </c>
       <c r="H486" t="s">
         <v>9</v>
@@ -13883,7 +13967,7 @@
         <v>0.740000009536743</v>
       </c>
       <c r="G487" t="s">
-        <v>224</v>
+        <v>252</v>
       </c>
       <c r="H487" t="s">
         <v>9</v>
@@ -13909,7 +13993,7 @@
         <v>0.769999980926514</v>
       </c>
       <c r="G488" t="s">
-        <v>222</v>
+        <v>250</v>
       </c>
       <c r="H488" t="s">
         <v>9</v>
@@ -13935,7 +14019,7 @@
         <v>0.800000011920929</v>
       </c>
       <c r="G489" t="s">
-        <v>225</v>
+        <v>253</v>
       </c>
       <c r="H489" t="s">
         <v>9</v>
@@ -13961,7 +14045,7 @@
         <v>0.819999992847443</v>
       </c>
       <c r="G490" t="s">
-        <v>226</v>
+        <v>254</v>
       </c>
       <c r="H490" t="s">
         <v>9</v>
@@ -13987,7 +14071,7 @@
         <v>0.834999978542328</v>
       </c>
       <c r="G491" t="s">
-        <v>227</v>
+        <v>255</v>
       </c>
       <c r="H491" t="s">
         <v>9</v>
@@ -14013,7 +14097,7 @@
         <v>0.845000028610229</v>
       </c>
       <c r="G492" t="s">
-        <v>228</v>
+        <v>256</v>
       </c>
       <c r="H492" t="s">
         <v>9</v>
@@ -14039,7 +14123,7 @@
         <v>0.829999983310699</v>
       </c>
       <c r="G493" t="s">
-        <v>229</v>
+        <v>257</v>
       </c>
       <c r="H493" t="s">
         <v>9</v>
@@ -14065,7 +14149,7 @@
         <v>0.805000007152557</v>
       </c>
       <c r="G494" t="s">
-        <v>230</v>
+        <v>258</v>
       </c>
       <c r="H494" t="s">
         <v>9</v>
@@ -14091,7 +14175,7 @@
         <v>0.814999997615814</v>
       </c>
       <c r="G495" t="s">
-        <v>231</v>
+        <v>259</v>
       </c>
       <c r="H495" t="s">
         <v>9</v>
@@ -14117,7 +14201,7 @@
         <v>0.795000016689301</v>
       </c>
       <c r="G496" t="s">
-        <v>232</v>
+        <v>260</v>
       </c>
       <c r="H496" t="s">
         <v>9</v>
@@ -14143,7 +14227,7 @@
         <v>0.754999995231628</v>
       </c>
       <c r="G497" t="s">
-        <v>223</v>
+        <v>251</v>
       </c>
       <c r="H497" t="s">
         <v>9</v>
@@ -14169,7 +14253,7 @@
         <v>0.699999988079071</v>
       </c>
       <c r="G498" t="s">
-        <v>233</v>
+        <v>261</v>
       </c>
       <c r="H498" t="s">
         <v>9</v>
@@ -14195,7 +14279,7 @@
         <v>0.819999992847443</v>
       </c>
       <c r="G499" t="s">
-        <v>226</v>
+        <v>254</v>
       </c>
       <c r="H499" t="s">
         <v>9</v>
@@ -14221,7 +14305,7 @@
         <v>0.790000021457672</v>
       </c>
       <c r="G500" t="s">
-        <v>234</v>
+        <v>262</v>
       </c>
       <c r="H500" t="s">
         <v>9</v>
@@ -14247,7 +14331,7 @@
         <v>0.774999976158142</v>
       </c>
       <c r="G501" t="s">
-        <v>235</v>
+        <v>263</v>
       </c>
       <c r="H501" t="s">
         <v>9</v>
@@ -14273,7 +14357,7 @@
         <v>0.75</v>
       </c>
       <c r="G502" t="s">
-        <v>236</v>
+        <v>264</v>
       </c>
       <c r="H502" t="s">
         <v>9</v>
@@ -14299,7 +14383,7 @@
         <v>0.790000021457672</v>
       </c>
       <c r="G503" t="s">
-        <v>234</v>
+        <v>262</v>
       </c>
       <c r="H503" t="s">
         <v>9</v>
@@ -14325,7 +14409,7 @@
         <v>0.779999971389771</v>
       </c>
       <c r="G504" t="s">
-        <v>237</v>
+        <v>265</v>
       </c>
       <c r="H504" t="s">
         <v>9</v>
@@ -14351,7 +14435,7 @@
         <v>0.790000021457672</v>
       </c>
       <c r="G505" t="s">
-        <v>234</v>
+        <v>262</v>
       </c>
       <c r="H505" t="s">
         <v>9</v>
@@ -14377,7 +14461,7 @@
         <v>0.759999990463257</v>
       </c>
       <c r="G506" t="s">
-        <v>238</v>
+        <v>266</v>
       </c>
       <c r="H506" t="s">
         <v>9</v>
@@ -14403,7 +14487,7 @@
         <v>0.759999990463257</v>
       </c>
       <c r="G507" t="s">
-        <v>238</v>
+        <v>266</v>
       </c>
       <c r="H507" t="s">
         <v>9</v>
@@ -14429,7 +14513,7 @@
         <v>0.75</v>
       </c>
       <c r="G508" t="s">
-        <v>236</v>
+        <v>264</v>
       </c>
       <c r="H508" t="s">
         <v>9</v>
@@ -14455,7 +14539,7 @@
         <v>0.769999980926514</v>
       </c>
       <c r="G509" t="s">
-        <v>222</v>
+        <v>250</v>
       </c>
       <c r="H509" t="s">
         <v>9</v>
@@ -14481,7 +14565,7 @@
         <v>0.829999983310699</v>
       </c>
       <c r="G510" t="s">
-        <v>229</v>
+        <v>257</v>
       </c>
       <c r="H510" t="s">
         <v>9</v>
@@ -14507,7 +14591,7 @@
         <v>0.790000021457672</v>
       </c>
       <c r="G511" t="s">
-        <v>234</v>
+        <v>262</v>
       </c>
       <c r="H511" t="s">
         <v>9</v>
@@ -14533,7 +14617,7 @@
         <v>0.769999980926514</v>
       </c>
       <c r="G512" t="s">
-        <v>222</v>
+        <v>250</v>
       </c>
       <c r="H512" t="s">
         <v>9</v>
@@ -14559,7 +14643,7 @@
         <v>0.779999971389771</v>
       </c>
       <c r="G513" t="s">
-        <v>237</v>
+        <v>265</v>
       </c>
       <c r="H513" t="s">
         <v>9</v>
@@ -14585,7 +14669,7 @@
         <v>0.779999971389771</v>
       </c>
       <c r="G514" t="s">
-        <v>237</v>
+        <v>265</v>
       </c>
       <c r="H514" t="s">
         <v>9</v>
@@ -14611,7 +14695,7 @@
         <v>0.800000011920929</v>
       </c>
       <c r="G515" t="s">
-        <v>225</v>
+        <v>253</v>
       </c>
       <c r="H515" t="s">
         <v>9</v>
@@ -14637,7 +14721,7 @@
         <v>0.889999985694885</v>
       </c>
       <c r="G516" t="s">
-        <v>239</v>
+        <v>267</v>
       </c>
       <c r="H516" t="s">
         <v>9</v>
@@ -14663,7 +14747,7 @@
         <v>0.975000023841858</v>
       </c>
       <c r="G517" t="s">
-        <v>240</v>
+        <v>268</v>
       </c>
       <c r="H517" t="s">
         <v>9</v>
@@ -14689,7 +14773,7 @@
         <v>1.10000002384186</v>
       </c>
       <c r="G518" t="s">
-        <v>205</v>
+        <v>233</v>
       </c>
       <c r="H518" t="s">
         <v>9</v>
@@ -14715,7 +14799,7 @@
         <v>1.0900000333786</v>
       </c>
       <c r="G519" t="s">
-        <v>241</v>
+        <v>269</v>
       </c>
       <c r="H519" t="s">
         <v>9</v>
@@ -14741,7 +14825,7 @@
         <v>1.00999999046326</v>
       </c>
       <c r="G520" t="s">
-        <v>215</v>
+        <v>243</v>
       </c>
       <c r="H520" t="s">
         <v>9</v>
@@ -14767,7 +14851,7 @@
         <v>1.00999999046326</v>
       </c>
       <c r="G521" t="s">
-        <v>215</v>
+        <v>243</v>
       </c>
       <c r="H521" t="s">
         <v>9</v>
@@ -14793,7 +14877,7 @@
         <v>0.975000023841858</v>
       </c>
       <c r="G522" t="s">
-        <v>240</v>
+        <v>268</v>
       </c>
       <c r="H522" t="s">
         <v>9</v>
@@ -14819,7 +14903,7 @@
         <v>0.995000004768372</v>
       </c>
       <c r="G523" t="s">
-        <v>242</v>
+        <v>270</v>
       </c>
       <c r="H523" t="s">
         <v>9</v>
@@ -14845,7 +14929,7 @@
         <v>0.985000014305115</v>
       </c>
       <c r="G524" t="s">
-        <v>243</v>
+        <v>271</v>
       </c>
       <c r="H524" t="s">
         <v>9</v>
@@ -14871,7 +14955,7 @@
         <v>0.954999983310699</v>
       </c>
       <c r="G525" t="s">
-        <v>244</v>
+        <v>272</v>
       </c>
       <c r="H525" t="s">
         <v>9</v>
@@ -14897,7 +14981,7 @@
         <v>0.944999992847443</v>
       </c>
       <c r="G526" t="s">
-        <v>245</v>
+        <v>273</v>
       </c>
       <c r="H526" t="s">
         <v>9</v>
@@ -14923,7 +15007,7 @@
         <v>0.954999983310699</v>
       </c>
       <c r="G527" t="s">
-        <v>244</v>
+        <v>272</v>
       </c>
       <c r="H527" t="s">
         <v>9</v>
@@ -14949,7 +15033,7 @@
         <v>1.03999996185303</v>
       </c>
       <c r="G528" t="s">
-        <v>209</v>
+        <v>237</v>
       </c>
       <c r="H528" t="s">
         <v>9</v>
@@ -14975,7 +15059,7 @@
         <v>0.975000023841858</v>
       </c>
       <c r="G529" t="s">
-        <v>240</v>
+        <v>268</v>
       </c>
       <c r="H529" t="s">
         <v>9</v>
@@ -15001,7 +15085,7 @@
         <v>0.964999973773956</v>
       </c>
       <c r="G530" t="s">
-        <v>207</v>
+        <v>235</v>
       </c>
       <c r="H530" t="s">
         <v>9</v>
@@ -15027,7 +15111,7 @@
         <v>0.970000028610229</v>
       </c>
       <c r="G531" t="s">
-        <v>216</v>
+        <v>244</v>
       </c>
       <c r="H531" t="s">
         <v>9</v>
@@ -15053,7 +15137,7 @@
         <v>0.985000014305115</v>
       </c>
       <c r="G532" t="s">
-        <v>243</v>
+        <v>271</v>
       </c>
       <c r="H532" t="s">
         <v>9</v>
@@ -15079,7 +15163,7 @@
         <v>0.980000019073486</v>
       </c>
       <c r="G533" t="s">
-        <v>206</v>
+        <v>234</v>
       </c>
       <c r="H533" t="s">
         <v>9</v>
@@ -15105,7 +15189,7 @@
         <v>0.970000028610229</v>
       </c>
       <c r="G534" t="s">
-        <v>216</v>
+        <v>244</v>
       </c>
       <c r="H534" t="s">
         <v>9</v>
@@ -15131,7 +15215,7 @@
         <v>1.17999994754791</v>
       </c>
       <c r="G535" t="s">
-        <v>246</v>
+        <v>274</v>
       </c>
       <c r="H535" t="s">
         <v>9</v>
@@ -15157,7 +15241,7 @@
         <v>1.20000004768372</v>
       </c>
       <c r="G536" t="s">
-        <v>247</v>
+        <v>275</v>
       </c>
       <c r="H536" t="s">
         <v>9</v>
@@ -15183,7 +15267,7 @@
         <v>1.1599999666214</v>
       </c>
       <c r="G537" t="s">
-        <v>248</v>
+        <v>276</v>
       </c>
       <c r="H537" t="s">
         <v>9</v>
@@ -15209,7 +15293,7 @@
         <v>1.07000005245209</v>
       </c>
       <c r="G538" t="s">
-        <v>249</v>
+        <v>277</v>
       </c>
       <c r="H538" t="s">
         <v>9</v>
@@ -15235,7 +15319,7 @@
         <v>1.02999997138977</v>
       </c>
       <c r="G539" t="s">
-        <v>250</v>
+        <v>278</v>
       </c>
       <c r="H539" t="s">
         <v>9</v>
@@ -15261,7 +15345,7 @@
         <v>1.03999996185303</v>
       </c>
       <c r="G540" t="s">
-        <v>209</v>
+        <v>237</v>
       </c>
       <c r="H540" t="s">
         <v>9</v>
@@ -15287,7 +15371,7 @@
         <v>1.01999998092651</v>
       </c>
       <c r="G541" t="s">
-        <v>251</v>
+        <v>279</v>
       </c>
       <c r="H541" t="s">
         <v>9</v>
@@ -15313,7 +15397,7 @@
         <v>0.990000009536743</v>
       </c>
       <c r="G542" t="s">
-        <v>208</v>
+        <v>236</v>
       </c>
       <c r="H542" t="s">
         <v>9</v>
@@ -15339,7 +15423,7 @@
         <v>0.964999973773956</v>
       </c>
       <c r="G543" t="s">
-        <v>207</v>
+        <v>235</v>
       </c>
       <c r="H543" t="s">
         <v>9</v>
@@ -15365,7 +15449,7 @@
         <v>0.920000016689301</v>
       </c>
       <c r="G544" t="s">
-        <v>252</v>
+        <v>280</v>
       </c>
       <c r="H544" t="s">
         <v>9</v>
@@ -15391,7 +15475,7 @@
         <v>0.860000014305115</v>
       </c>
       <c r="G545" t="s">
-        <v>253</v>
+        <v>281</v>
       </c>
       <c r="H545" t="s">
         <v>9</v>
@@ -15417,7 +15501,7 @@
         <v>0.959999978542328</v>
       </c>
       <c r="G546" t="s">
-        <v>254</v>
+        <v>282</v>
       </c>
       <c r="H546" t="s">
         <v>9</v>
@@ -15443,7 +15527,7 @@
         <v>0.964999973773956</v>
       </c>
       <c r="G547" t="s">
-        <v>207</v>
+        <v>235</v>
       </c>
       <c r="H547" t="s">
         <v>9</v>
@@ -15469,7 +15553,7 @@
         <v>0.949999988079071</v>
       </c>
       <c r="G548" t="s">
-        <v>255</v>
+        <v>283</v>
       </c>
       <c r="H548" t="s">
         <v>9</v>
@@ -15495,7 +15579,7 @@
         <v>1.01999998092651</v>
       </c>
       <c r="G549" t="s">
-        <v>251</v>
+        <v>279</v>
       </c>
       <c r="H549" t="s">
         <v>9</v>
@@ -15521,7 +15605,7 @@
         <v>1</v>
       </c>
       <c r="G550" t="s">
-        <v>256</v>
+        <v>284</v>
       </c>
       <c r="H550" t="s">
         <v>9</v>
@@ -15547,7 +15631,7 @@
         <v>1.00999999046326</v>
       </c>
       <c r="G551" t="s">
-        <v>215</v>
+        <v>243</v>
       </c>
       <c r="H551" t="s">
         <v>9</v>
@@ -15573,7 +15657,7 @@
         <v>1.00999999046326</v>
       </c>
       <c r="G552" t="s">
-        <v>215</v>
+        <v>243</v>
       </c>
       <c r="H552" t="s">
         <v>9</v>
@@ -15599,7 +15683,7 @@
         <v>1</v>
       </c>
       <c r="G553" t="s">
-        <v>256</v>
+        <v>284</v>
       </c>
       <c r="H553" t="s">
         <v>9</v>
@@ -15625,7 +15709,7 @@
         <v>0.995000004768372</v>
       </c>
       <c r="G554" t="s">
-        <v>242</v>
+        <v>270</v>
       </c>
       <c r="H554" t="s">
         <v>9</v>
@@ -15651,7 +15735,7 @@
         <v>0.970000028610229</v>
       </c>
       <c r="G555" t="s">
-        <v>216</v>
+        <v>244</v>
       </c>
       <c r="H555" t="s">
         <v>9</v>
@@ -15677,7 +15761,7 @@
         <v>0.954999983310699</v>
       </c>
       <c r="G556" t="s">
-        <v>244</v>
+        <v>272</v>
       </c>
       <c r="H556" t="s">
         <v>9</v>
@@ -15703,7 +15787,7 @@
         <v>0.939999997615814</v>
       </c>
       <c r="G557" t="s">
-        <v>257</v>
+        <v>285</v>
       </c>
       <c r="H557" t="s">
         <v>9</v>
@@ -15729,7 +15813,7 @@
         <v>0.899999976158142</v>
       </c>
       <c r="G558" t="s">
-        <v>217</v>
+        <v>245</v>
       </c>
       <c r="H558" t="s">
         <v>9</v>
@@ -15755,7 +15839,7 @@
         <v>0.904999971389771</v>
       </c>
       <c r="G559" t="s">
-        <v>258</v>
+        <v>286</v>
       </c>
       <c r="H559" t="s">
         <v>9</v>
@@ -15781,7 +15865,7 @@
         <v>0.850000023841858</v>
       </c>
       <c r="G560" t="s">
-        <v>259</v>
+        <v>287</v>
       </c>
       <c r="H560" t="s">
         <v>9</v>
@@ -15807,7 +15891,7 @@
         <v>0.834999978542328</v>
       </c>
       <c r="G561" t="s">
-        <v>227</v>
+        <v>255</v>
       </c>
       <c r="H561" t="s">
         <v>9</v>
@@ -15833,7 +15917,7 @@
         <v>0.850000023841858</v>
       </c>
       <c r="G562" t="s">
-        <v>259</v>
+        <v>287</v>
       </c>
       <c r="H562" t="s">
         <v>9</v>
@@ -15859,7 +15943,7 @@
         <v>0.860000014305115</v>
       </c>
       <c r="G563" t="s">
-        <v>253</v>
+        <v>281</v>
       </c>
       <c r="H563" t="s">
         <v>9</v>
@@ -15885,7 +15969,7 @@
         <v>0.870000004768372</v>
       </c>
       <c r="G564" t="s">
-        <v>260</v>
+        <v>288</v>
       </c>
       <c r="H564" t="s">
         <v>9</v>
@@ -15911,7 +15995,7 @@
         <v>0.850000023841858</v>
       </c>
       <c r="G565" t="s">
-        <v>259</v>
+        <v>287</v>
       </c>
       <c r="H565" t="s">
         <v>9</v>
@@ -15937,7 +16021,7 @@
         <v>0.850000023841858</v>
       </c>
       <c r="G566" t="s">
-        <v>259</v>
+        <v>287</v>
       </c>
       <c r="H566" t="s">
         <v>9</v>
@@ -15963,7 +16047,7 @@
         <v>0.845000028610229</v>
       </c>
       <c r="G567" t="s">
-        <v>228</v>
+        <v>256</v>
       </c>
       <c r="H567" t="s">
         <v>9</v>
@@ -15989,7 +16073,7 @@
         <v>0.839999973773956</v>
       </c>
       <c r="G568" t="s">
-        <v>261</v>
+        <v>289</v>
       </c>
       <c r="H568" t="s">
         <v>9</v>
@@ -16015,7 +16099,7 @@
         <v>0.845000028610229</v>
       </c>
       <c r="G569" t="s">
-        <v>228</v>
+        <v>256</v>
       </c>
       <c r="H569" t="s">
         <v>9</v>
@@ -16041,7 +16125,7 @@
         <v>0.850000023841858</v>
       </c>
       <c r="G570" t="s">
-        <v>259</v>
+        <v>287</v>
       </c>
       <c r="H570" t="s">
         <v>9</v>
@@ -16067,7 +16151,7 @@
         <v>0.829999983310699</v>
       </c>
       <c r="G571" t="s">
-        <v>229</v>
+        <v>257</v>
       </c>
       <c r="H571" t="s">
         <v>9</v>
@@ -16093,7 +16177,7 @@
         <v>0.855000019073486</v>
       </c>
       <c r="G572" t="s">
-        <v>262</v>
+        <v>290</v>
       </c>
       <c r="H572" t="s">
         <v>9</v>
@@ -16119,7 +16203,7 @@
         <v>0.829999983310699</v>
       </c>
       <c r="G573" t="s">
-        <v>229</v>
+        <v>257</v>
       </c>
       <c r="H573" t="s">
         <v>9</v>
@@ -16145,7 +16229,7 @@
         <v>0.850000023841858</v>
       </c>
       <c r="G574" t="s">
-        <v>259</v>
+        <v>287</v>
       </c>
       <c r="H574" t="s">
         <v>9</v>
@@ -16171,7 +16255,7 @@
         <v>0.850000023841858</v>
       </c>
       <c r="G575" t="s">
-        <v>259</v>
+        <v>287</v>
       </c>
       <c r="H575" t="s">
         <v>9</v>
@@ -16197,7 +16281,7 @@
         <v>0.855000019073486</v>
       </c>
       <c r="G576" t="s">
-        <v>262</v>
+        <v>290</v>
       </c>
       <c r="H576" t="s">
         <v>9</v>
@@ -16223,7 +16307,7 @@
         <v>0.860000014305115</v>
       </c>
       <c r="G577" t="s">
-        <v>253</v>
+        <v>281</v>
       </c>
       <c r="H577" t="s">
         <v>9</v>
@@ -16249,7 +16333,7 @@
         <v>0.860000014305115</v>
       </c>
       <c r="G578" t="s">
-        <v>253</v>
+        <v>281</v>
       </c>
       <c r="H578" t="s">
         <v>9</v>
@@ -16275,7 +16359,7 @@
         <v>0.800000011920929</v>
       </c>
       <c r="G579" t="s">
-        <v>225</v>
+        <v>253</v>
       </c>
       <c r="H579" t="s">
         <v>9</v>
@@ -16301,7 +16385,7 @@
         <v>0.800000011920929</v>
       </c>
       <c r="G580" t="s">
-        <v>225</v>
+        <v>253</v>
       </c>
       <c r="H580" t="s">
         <v>9</v>
@@ -16327,7 +16411,7 @@
         <v>0.800000011920929</v>
       </c>
       <c r="G581" t="s">
-        <v>225</v>
+        <v>253</v>
       </c>
       <c r="H581" t="s">
         <v>9</v>
@@ -16353,7 +16437,7 @@
         <v>0.800000011920929</v>
       </c>
       <c r="G582" t="s">
-        <v>225</v>
+        <v>253</v>
       </c>
       <c r="H582" t="s">
         <v>9</v>
@@ -16379,7 +16463,7 @@
         <v>0.810000002384186</v>
       </c>
       <c r="G583" t="s">
-        <v>263</v>
+        <v>291</v>
       </c>
       <c r="H583" t="s">
         <v>9</v>
@@ -16405,7 +16489,7 @@
         <v>0.829999983310699</v>
       </c>
       <c r="G584" t="s">
-        <v>229</v>
+        <v>257</v>
       </c>
       <c r="H584" t="s">
         <v>9</v>
@@ -16431,7 +16515,7 @@
         <v>0.814999997615814</v>
       </c>
       <c r="G585" t="s">
-        <v>231</v>
+        <v>259</v>
       </c>
       <c r="H585" t="s">
         <v>9</v>
@@ -16457,7 +16541,7 @@
         <v>0.829999983310699</v>
       </c>
       <c r="G586" t="s">
-        <v>229</v>
+        <v>257</v>
       </c>
       <c r="H586" t="s">
         <v>9</v>
@@ -16483,7 +16567,7 @@
         <v>0.810000002384186</v>
       </c>
       <c r="G587" t="s">
-        <v>263</v>
+        <v>291</v>
       </c>
       <c r="H587" t="s">
         <v>9</v>
@@ -16509,7 +16593,7 @@
         <v>0.795000016689301</v>
       </c>
       <c r="G588" t="s">
-        <v>232</v>
+        <v>260</v>
       </c>
       <c r="H588" t="s">
         <v>9</v>
@@ -16535,7 +16619,7 @@
         <v>0.779999971389771</v>
       </c>
       <c r="G589" t="s">
-        <v>237</v>
+        <v>265</v>
       </c>
       <c r="H589" t="s">
         <v>9</v>
@@ -16561,7 +16645,7 @@
         <v>0.829999983310699</v>
       </c>
       <c r="G590" t="s">
-        <v>229</v>
+        <v>257</v>
       </c>
       <c r="H590" t="s">
         <v>9</v>
@@ -16587,7 +16671,7 @@
         <v>0.850000023841858</v>
       </c>
       <c r="G591" t="s">
-        <v>259</v>
+        <v>287</v>
       </c>
       <c r="H591" t="s">
         <v>9</v>
@@ -16613,7 +16697,7 @@
         <v>0.870000004768372</v>
       </c>
       <c r="G592" t="s">
-        <v>260</v>
+        <v>288</v>
       </c>
       <c r="H592" t="s">
         <v>9</v>
@@ -16639,7 +16723,7 @@
         <v>0.864000022411346</v>
       </c>
       <c r="G593" t="s">
-        <v>264</v>
+        <v>292</v>
       </c>
       <c r="H593" t="s">
         <v>9</v>
@@ -16665,7 +16749,7 @@
         <v>0.899999976158142</v>
       </c>
       <c r="G594" t="s">
-        <v>217</v>
+        <v>245</v>
       </c>
       <c r="H594" t="s">
         <v>9</v>
@@ -16691,7 +16775,7 @@
         <v>0.916000008583069</v>
       </c>
       <c r="G595" t="s">
-        <v>265</v>
+        <v>293</v>
       </c>
       <c r="H595" t="s">
         <v>9</v>
@@ -16717,7 +16801,7 @@
         <v>0.913999974727631</v>
       </c>
       <c r="G596" t="s">
-        <v>266</v>
+        <v>294</v>
       </c>
       <c r="H596" t="s">
         <v>9</v>
@@ -16743,7 +16827,7 @@
         <v>0.907999992370605</v>
       </c>
       <c r="G597" t="s">
-        <v>267</v>
+        <v>295</v>
       </c>
       <c r="H597" t="s">
         <v>9</v>
@@ -16769,7 +16853,7 @@
         <v>0.850000023841858</v>
       </c>
       <c r="G598" t="s">
-        <v>259</v>
+        <v>287</v>
       </c>
       <c r="H598" t="s">
         <v>9</v>
@@ -16795,7 +16879,7 @@
         <v>0.825999975204468</v>
       </c>
       <c r="G599" t="s">
-        <v>268</v>
+        <v>296</v>
       </c>
       <c r="H599" t="s">
         <v>9</v>
@@ -16821,7 +16905,7 @@
         <v>0.828000009059906</v>
       </c>
       <c r="G600" t="s">
-        <v>269</v>
+        <v>297</v>
       </c>
       <c r="H600" t="s">
         <v>9</v>
@@ -16847,7 +16931,7 @@
         <v>0.791999995708466</v>
       </c>
       <c r="G601" t="s">
-        <v>270</v>
+        <v>298</v>
       </c>
       <c r="H601" t="s">
         <v>9</v>
@@ -16873,7 +16957,7 @@
         <v>0.800000011920929</v>
       </c>
       <c r="G602" t="s">
-        <v>225</v>
+        <v>253</v>
       </c>
       <c r="H602" t="s">
         <v>9</v>
@@ -16899,7 +16983,7 @@
         <v>0.800000011920929</v>
       </c>
       <c r="G603" t="s">
-        <v>225</v>
+        <v>253</v>
       </c>
       <c r="H603" t="s">
         <v>9</v>
@@ -16925,7 +17009,7 @@
         <v>0.791999995708466</v>
       </c>
       <c r="G604" t="s">
-        <v>270</v>
+        <v>298</v>
       </c>
       <c r="H604" t="s">
         <v>9</v>
@@ -16951,7 +17035,7 @@
         <v>0.759999990463257</v>
       </c>
       <c r="G605" t="s">
-        <v>238</v>
+        <v>266</v>
       </c>
       <c r="H605" t="s">
         <v>9</v>
@@ -16977,7 +17061,7 @@
         <v>0.777999997138977</v>
       </c>
       <c r="G606" t="s">
-        <v>271</v>
+        <v>299</v>
       </c>
       <c r="H606" t="s">
         <v>9</v>
@@ -17003,7 +17087,7 @@
         <v>0.78600001335144</v>
       </c>
       <c r="G607" t="s">
-        <v>272</v>
+        <v>300</v>
       </c>
       <c r="H607" t="s">
         <v>9</v>
@@ -17029,7 +17113,7 @@
         <v>0.748000025749207</v>
       </c>
       <c r="G608" t="s">
-        <v>273</v>
+        <v>301</v>
       </c>
       <c r="H608" t="s">
         <v>9</v>
@@ -17055,7 +17139,7 @@
         <v>0.762000024318695</v>
       </c>
       <c r="G609" t="s">
-        <v>274</v>
+        <v>302</v>
       </c>
       <c r="H609" t="s">
         <v>9</v>
@@ -17081,7 +17165,7 @@
         <v>0.769999980926514</v>
       </c>
       <c r="G610" t="s">
-        <v>222</v>
+        <v>250</v>
       </c>
       <c r="H610" t="s">
         <v>9</v>
@@ -17107,7 +17191,7 @@
         <v>0.797999978065491</v>
       </c>
       <c r="G611" t="s">
-        <v>275</v>
+        <v>303</v>
       </c>
       <c r="H611" t="s">
         <v>9</v>
@@ -17133,7 +17217,7 @@
         <v>0.800000011920929</v>
       </c>
       <c r="G612" t="s">
-        <v>225</v>
+        <v>253</v>
       </c>
       <c r="H612" t="s">
         <v>9</v>
@@ -17159,7 +17243,7 @@
         <v>0.800000011920929</v>
       </c>
       <c r="G613" t="s">
-        <v>225</v>
+        <v>253</v>
       </c>
       <c r="H613" t="s">
         <v>9</v>
@@ -17185,7 +17269,7 @@
         <v>0.769999980926514</v>
       </c>
       <c r="G614" t="s">
-        <v>222</v>
+        <v>250</v>
       </c>
       <c r="H614" t="s">
         <v>9</v>
@@ -17211,7 +17295,7 @@
         <v>0.769999980926514</v>
       </c>
       <c r="G615" t="s">
-        <v>222</v>
+        <v>250</v>
       </c>
       <c r="H615" t="s">
         <v>9</v>
@@ -17237,7 +17321,7 @@
         <v>0.779999971389771</v>
       </c>
       <c r="G616" t="s">
-        <v>237</v>
+        <v>265</v>
       </c>
       <c r="H616" t="s">
         <v>9</v>
@@ -17263,7 +17347,7 @@
         <v>0.779999971389771</v>
       </c>
       <c r="G617" t="s">
-        <v>237</v>
+        <v>265</v>
       </c>
       <c r="H617" t="s">
         <v>9</v>
@@ -17289,7 +17373,7 @@
         <v>0.790000021457672</v>
       </c>
       <c r="G618" t="s">
-        <v>234</v>
+        <v>262</v>
       </c>
       <c r="H618" t="s">
         <v>9</v>
@@ -17315,7 +17399,7 @@
         <v>0.828000009059906</v>
       </c>
       <c r="G619" t="s">
-        <v>269</v>
+        <v>297</v>
       </c>
       <c r="H619" t="s">
         <v>9</v>
@@ -17341,7 +17425,7 @@
         <v>0.832000017166138</v>
       </c>
       <c r="G620" t="s">
-        <v>276</v>
+        <v>304</v>
       </c>
       <c r="H620" t="s">
         <v>9</v>
@@ -17367,7 +17451,7 @@
         <v>0.810000002384186</v>
       </c>
       <c r="G621" t="s">
-        <v>263</v>
+        <v>291</v>
       </c>
       <c r="H621" t="s">
         <v>9</v>
@@ -17393,7 +17477,7 @@
         <v>0.829999983310699</v>
       </c>
       <c r="G622" t="s">
-        <v>229</v>
+        <v>257</v>
       </c>
       <c r="H622" t="s">
         <v>9</v>
@@ -17419,7 +17503,7 @@
         <v>0.829999983310699</v>
       </c>
       <c r="G623" t="s">
-        <v>229</v>
+        <v>257</v>
       </c>
       <c r="H623" t="s">
         <v>9</v>
@@ -17445,7 +17529,7 @@
         <v>0.818000018596649</v>
       </c>
       <c r="G624" t="s">
-        <v>277</v>
+        <v>305</v>
       </c>
       <c r="H624" t="s">
         <v>9</v>
@@ -17471,7 +17555,7 @@
         <v>0.815999984741211</v>
       </c>
       <c r="G625" t="s">
-        <v>278</v>
+        <v>306</v>
       </c>
       <c r="H625" t="s">
         <v>9</v>
@@ -17497,7 +17581,7 @@
         <v>0.804000020027161</v>
       </c>
       <c r="G626" t="s">
-        <v>279</v>
+        <v>307</v>
       </c>
       <c r="H626" t="s">
         <v>9</v>
@@ -17523,7 +17607,7 @@
         <v>0.811999976634979</v>
       </c>
       <c r="G627" t="s">
-        <v>280</v>
+        <v>308</v>
       </c>
       <c r="H627" t="s">
         <v>9</v>
@@ -17549,7 +17633,7 @@
         <v>0.811999976634979</v>
       </c>
       <c r="G628" t="s">
-        <v>280</v>
+        <v>308</v>
       </c>
       <c r="H628" t="s">
         <v>9</v>
@@ -17575,7 +17659,7 @@
         <v>0.808000028133392</v>
       </c>
       <c r="G629" t="s">
-        <v>281</v>
+        <v>309</v>
       </c>
       <c r="H629" t="s">
         <v>9</v>
@@ -17601,7 +17685,7 @@
         <v>0.790000021457672</v>
       </c>
       <c r="G630" t="s">
-        <v>234</v>
+        <v>262</v>
       </c>
       <c r="H630" t="s">
         <v>9</v>
@@ -17627,7 +17711,7 @@
         <v>0.804000020027161</v>
       </c>
       <c r="G631" t="s">
-        <v>279</v>
+        <v>307</v>
       </c>
       <c r="H631" t="s">
         <v>9</v>
@@ -17653,7 +17737,7 @@
         <v>0.794000029563904</v>
       </c>
       <c r="G632" t="s">
-        <v>282</v>
+        <v>310</v>
       </c>
       <c r="H632" t="s">
         <v>9</v>
@@ -17679,7 +17763,7 @@
         <v>0.794000029563904</v>
       </c>
       <c r="G633" t="s">
-        <v>282</v>
+        <v>310</v>
       </c>
       <c r="H633" t="s">
         <v>9</v>
@@ -17705,7 +17789,7 @@
         <v>0.808000028133392</v>
       </c>
       <c r="G634" t="s">
-        <v>281</v>
+        <v>309</v>
       </c>
       <c r="H634" t="s">
         <v>9</v>
@@ -17731,7 +17815,7 @@
         <v>0.796000003814697</v>
       </c>
       <c r="G635" t="s">
-        <v>283</v>
+        <v>311</v>
       </c>
       <c r="H635" t="s">
         <v>9</v>
@@ -17757,7 +17841,7 @@
         <v>0.810000002384186</v>
       </c>
       <c r="G636" t="s">
-        <v>263</v>
+        <v>291</v>
       </c>
       <c r="H636" t="s">
         <v>9</v>
@@ -17783,7 +17867,7 @@
         <v>0.797999978065491</v>
       </c>
       <c r="G637" t="s">
-        <v>275</v>
+        <v>303</v>
       </c>
       <c r="H637" t="s">
         <v>9</v>
@@ -17809,7 +17893,7 @@
         <v>0.797999978065491</v>
       </c>
       <c r="G638" t="s">
-        <v>275</v>
+        <v>303</v>
       </c>
       <c r="H638" t="s">
         <v>9</v>
@@ -17835,7 +17919,7 @@
         <v>0.805999994277954</v>
       </c>
       <c r="G639" t="s">
-        <v>284</v>
+        <v>312</v>
       </c>
       <c r="H639" t="s">
         <v>9</v>
@@ -17861,7 +17945,7 @@
         <v>0.810000002384186</v>
       </c>
       <c r="G640" t="s">
-        <v>263</v>
+        <v>291</v>
       </c>
       <c r="H640" t="s">
         <v>9</v>
@@ -17887,7 +17971,7 @@
         <v>0.824000000953674</v>
       </c>
       <c r="G641" t="s">
-        <v>285</v>
+        <v>313</v>
       </c>
       <c r="H641" t="s">
         <v>9</v>
@@ -17913,7 +17997,7 @@
         <v>0.837999999523163</v>
       </c>
       <c r="G642" t="s">
-        <v>286</v>
+        <v>314</v>
       </c>
       <c r="H642" t="s">
         <v>9</v>
@@ -17939,7 +18023,7 @@
         <v>0.84799998998642</v>
       </c>
       <c r="G643" t="s">
-        <v>287</v>
+        <v>315</v>
       </c>
       <c r="H643" t="s">
         <v>9</v>
@@ -17965,7 +18049,7 @@
         <v>0.822000026702881</v>
       </c>
       <c r="G644" t="s">
-        <v>288</v>
+        <v>316</v>
       </c>
       <c r="H644" t="s">
         <v>9</v>
@@ -17991,7 +18075,7 @@
         <v>0.811999976634979</v>
       </c>
       <c r="G645" t="s">
-        <v>280</v>
+        <v>308</v>
       </c>
       <c r="H645" t="s">
         <v>9</v>
@@ -18017,7 +18101,7 @@
         <v>0.808000028133392</v>
       </c>
       <c r="G646" t="s">
-        <v>281</v>
+        <v>309</v>
       </c>
       <c r="H646" t="s">
         <v>9</v>
@@ -18043,7 +18127,7 @@
         <v>0.860000014305115</v>
       </c>
       <c r="G647" t="s">
-        <v>253</v>
+        <v>281</v>
       </c>
       <c r="H647" t="s">
         <v>9</v>
@@ -18069,7 +18153,7 @@
         <v>0.860000014305115</v>
       </c>
       <c r="G648" t="s">
-        <v>253</v>
+        <v>281</v>
       </c>
       <c r="H648" t="s">
         <v>9</v>
@@ -18095,7 +18179,7 @@
         <v>0.861999988555908</v>
       </c>
       <c r="G649" t="s">
-        <v>289</v>
+        <v>317</v>
       </c>
       <c r="H649" t="s">
         <v>9</v>
@@ -18121,7 +18205,7 @@
         <v>0.856000006198883</v>
       </c>
       <c r="G650" t="s">
-        <v>290</v>
+        <v>318</v>
       </c>
       <c r="H650" t="s">
         <v>9</v>
@@ -18147,9 +18231,35 @@
         <v>0.842000007629395</v>
       </c>
       <c r="G651" t="s">
-        <v>291</v>
+        <v>319</v>
       </c>
       <c r="H651" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="652">
+      <c r="A652" s="1" t="n">
+        <v>45468.2916666667</v>
+      </c>
+      <c r="B652" t="n">
+        <v>9095</v>
+      </c>
+      <c r="C652" t="n">
+        <v>0.856000006198883</v>
+      </c>
+      <c r="D652" t="n">
+        <v>0.819999992847443</v>
+      </c>
+      <c r="E652" t="n">
+        <v>0.856000006198883</v>
+      </c>
+      <c r="F652" t="n">
+        <v>0.837999999523163</v>
+      </c>
+      <c r="G652" t="s">
+        <v>314</v>
+      </c>
+      <c r="H652" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/TKF.MI.xlsx
+++ b/data/TKF.MI.xlsx
@@ -18263,6 +18263,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="653">
+      <c r="A653" s="1" t="n">
+        <v>45469.6300810185</v>
+      </c>
+      <c r="B653" t="n">
+        <v>10723</v>
+      </c>
+      <c r="C653" t="n">
+        <v>0.829999983310699</v>
+      </c>
+      <c r="D653" t="n">
+        <v>0.819999992847443</v>
+      </c>
+      <c r="E653" t="n">
+        <v>0.829999983310699</v>
+      </c>
+      <c r="F653" t="n">
+        <v>0.819999992847443</v>
+      </c>
+      <c r="G653" t="s">
+        <v>254</v>
+      </c>
+      <c r="H653" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/TKF.MI.xlsx
+++ b/data/TKF.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="320">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="321">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -972,6 +972,9 @@
   </si>
   <si>
     <t xml:space="preserve">0.842000007629395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.833999991416931</t>
   </si>
 </sst>
 </file>
@@ -18265,7 +18268,7 @@
     </row>
     <row r="653">
       <c r="A653" s="1" t="n">
-        <v>45469.6300810185</v>
+        <v>45469.2916666667</v>
       </c>
       <c r="B653" t="n">
         <v>10723</v>
@@ -18286,6 +18289,32 @@
         <v>254</v>
       </c>
       <c r="H653" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="654">
+      <c r="A654" s="1" t="n">
+        <v>45470.2944675926</v>
+      </c>
+      <c r="B654" t="n">
+        <v>10723</v>
+      </c>
+      <c r="C654" t="n">
+        <v>0.829999983310699</v>
+      </c>
+      <c r="D654" t="n">
+        <v>0.819999992847443</v>
+      </c>
+      <c r="E654" t="n">
+        <v>0.829999983310699</v>
+      </c>
+      <c r="F654" t="n">
+        <v>0.833999991416931</v>
+      </c>
+      <c r="G654" t="s">
+        <v>320</v>
+      </c>
+      <c r="H654" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/TKF.MI.xlsx
+++ b/data/TKF.MI.xlsx
@@ -38,7 +38,7 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">4.11571741104126</t>
+    <t xml:space="preserve">4.11571788787842</t>
   </si>
   <si>
     <t xml:space="preserve">TKF.MI</t>
@@ -59,7 +59,7 @@
     <t xml:space="preserve">4.09679508209229</t>
   </si>
   <si>
-    <t xml:space="preserve">4.17721700668335</t>
+    <t xml:space="preserve">4.17721748352051</t>
   </si>
   <si>
     <t xml:space="preserve">4.25763893127441</t>
@@ -74,7 +74,7 @@
     <t xml:space="preserve">4.36644554138184</t>
   </si>
   <si>
-    <t xml:space="preserve">4.35698461532593</t>
+    <t xml:space="preserve">4.35698413848877</t>
   </si>
   <si>
     <t xml:space="preserve">4.40902185440063</t>
@@ -83,7 +83,7 @@
     <t xml:space="preserve">4.35225343704224</t>
   </si>
   <si>
-    <t xml:space="preserve">4.29075384140015</t>
+    <t xml:space="preserve">4.2907543182373</t>
   </si>
   <si>
     <t xml:space="preserve">4.24344730377197</t>
@@ -95,34 +95,34 @@
     <t xml:space="preserve">4.02583456039429</t>
   </si>
   <si>
-    <t xml:space="preserve">4.04002666473389</t>
+    <t xml:space="preserve">4.04002618789673</t>
   </si>
   <si>
     <t xml:space="preserve">4.05894947052002</t>
   </si>
   <si>
-    <t xml:space="preserve">3.92175889015198</t>
+    <t xml:space="preserve">3.9217586517334</t>
   </si>
   <si>
     <t xml:space="preserve">4.11098718643188</t>
   </si>
   <si>
-    <t xml:space="preserve">3.95960426330566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.92648959159851</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.94541239738464</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.04475784301758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.95487380027771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.93595099449158</t>
+    <t xml:space="preserve">3.95960474014282</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.92648983001709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.94541263580322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.04475736618042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.95487356185913</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.935950756073</t>
   </si>
   <si>
     <t xml:space="preserve">4.03056526184082</t>
@@ -134,7 +134,7 @@
     <t xml:space="preserve">3.96906614303589</t>
   </si>
   <si>
-    <t xml:space="preserve">3.97379660606384</t>
+    <t xml:space="preserve">3.97379636764526</t>
   </si>
   <si>
     <t xml:space="preserve">3.85079836845398</t>
@@ -149,10 +149,10 @@
     <t xml:space="preserve">3.59533977508545</t>
   </si>
   <si>
-    <t xml:space="preserve">3.72779989242554</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.81295275688171</t>
+    <t xml:space="preserve">3.72779965400696</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.81295251846313</t>
   </si>
   <si>
     <t xml:space="preserve">3.99271941184998</t>
@@ -161,13 +161,13 @@
     <t xml:space="preserve">4.00691175460815</t>
   </si>
   <si>
-    <t xml:space="preserve">4.01164197921753</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.8791823387146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.76564526557922</t>
+    <t xml:space="preserve">4.01164245605469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.87918257713318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.7656455039978</t>
   </si>
   <si>
     <t xml:space="preserve">3.78456830978394</t>
@@ -176,7 +176,7 @@
     <t xml:space="preserve">3.82714462280273</t>
   </si>
   <si>
-    <t xml:space="preserve">3.53857135772705</t>
+    <t xml:space="preserve">3.53857111930847</t>
   </si>
   <si>
     <t xml:space="preserve">3.57641696929932</t>
@@ -191,10 +191,10 @@
     <t xml:space="preserve">3.37299633026123</t>
   </si>
   <si>
-    <t xml:space="preserve">3.23107528686523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.13646078109741</t>
+    <t xml:space="preserve">3.23107504844666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.13646101951599</t>
   </si>
   <si>
     <t xml:space="preserve">3.50072574615479</t>
@@ -221,10 +221,10 @@
     <t xml:space="preserve">4.37117624282837</t>
   </si>
   <si>
-    <t xml:space="preserve">4.30967664718628</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.43740653991699</t>
+    <t xml:space="preserve">4.30967712402344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.43740606307983</t>
   </si>
   <si>
     <t xml:space="preserve">4.37590742111206</t>
@@ -236,13 +236,13 @@
     <t xml:space="preserve">4.52255916595459</t>
   </si>
   <si>
-    <t xml:space="preserve">4.61717367172241</t>
+    <t xml:space="preserve">4.61717319488525</t>
   </si>
   <si>
     <t xml:space="preserve">4.68340301513672</t>
   </si>
   <si>
-    <t xml:space="preserve">4.92940044403076</t>
+    <t xml:space="preserve">4.9293999671936</t>
   </si>
   <si>
     <t xml:space="preserve">5.27240037918091</t>
@@ -18294,19 +18294,19 @@
     </row>
     <row r="654">
       <c r="A654" s="1" t="n">
-        <v>45470.2944675926</v>
+        <v>45470.2916666667</v>
       </c>
       <c r="B654" t="n">
-        <v>10723</v>
+        <v>50</v>
       </c>
       <c r="C654" t="n">
-        <v>0.829999983310699</v>
+        <v>0.833999991416931</v>
       </c>
       <c r="D654" t="n">
-        <v>0.819999992847443</v>
+        <v>0.833999991416931</v>
       </c>
       <c r="E654" t="n">
-        <v>0.829999983310699</v>
+        <v>0.833999991416931</v>
       </c>
       <c r="F654" t="n">
         <v>0.833999991416931</v>
@@ -18315,6 +18315,32 @@
         <v>320</v>
       </c>
       <c r="H654" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="655">
+      <c r="A655" s="1" t="n">
+        <v>45471.6449421296</v>
+      </c>
+      <c r="B655" t="n">
+        <v>20130</v>
+      </c>
+      <c r="C655" t="n">
+        <v>0.856000006198883</v>
+      </c>
+      <c r="D655" t="n">
+        <v>0.828000009059906</v>
+      </c>
+      <c r="E655" t="n">
+        <v>0.828000009059906</v>
+      </c>
+      <c r="F655" t="n">
+        <v>0.832000017166138</v>
+      </c>
+      <c r="G655" t="s">
+        <v>304</v>
+      </c>
+      <c r="H655" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/TKF.MI.xlsx
+++ b/data/TKF.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="321">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="322">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,7 +38,7 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">4.11571788787842</t>
+    <t xml:space="preserve">4.11571741104126</t>
   </si>
   <si>
     <t xml:space="preserve">TKF.MI</t>
@@ -59,7 +59,7 @@
     <t xml:space="preserve">4.09679508209229</t>
   </si>
   <si>
-    <t xml:space="preserve">4.17721748352051</t>
+    <t xml:space="preserve">4.17721700668335</t>
   </si>
   <si>
     <t xml:space="preserve">4.25763893127441</t>
@@ -74,7 +74,7 @@
     <t xml:space="preserve">4.36644554138184</t>
   </si>
   <si>
-    <t xml:space="preserve">4.35698413848877</t>
+    <t xml:space="preserve">4.35698461532593</t>
   </si>
   <si>
     <t xml:space="preserve">4.40902185440063</t>
@@ -83,7 +83,7 @@
     <t xml:space="preserve">4.35225343704224</t>
   </si>
   <si>
-    <t xml:space="preserve">4.2907543182373</t>
+    <t xml:space="preserve">4.29075384140015</t>
   </si>
   <si>
     <t xml:space="preserve">4.24344730377197</t>
@@ -95,34 +95,34 @@
     <t xml:space="preserve">4.02583456039429</t>
   </si>
   <si>
-    <t xml:space="preserve">4.04002618789673</t>
+    <t xml:space="preserve">4.04002666473389</t>
   </si>
   <si>
     <t xml:space="preserve">4.05894947052002</t>
   </si>
   <si>
-    <t xml:space="preserve">3.9217586517334</t>
+    <t xml:space="preserve">3.92175889015198</t>
   </si>
   <si>
     <t xml:space="preserve">4.11098718643188</t>
   </si>
   <si>
-    <t xml:space="preserve">3.95960474014282</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.92648983001709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.94541263580322</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.04475736618042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.95487356185913</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.935950756073</t>
+    <t xml:space="preserve">3.95960426330566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.92648959159851</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.94541239738464</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.04475784301758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.95487380027771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.93595099449158</t>
   </si>
   <si>
     <t xml:space="preserve">4.03056526184082</t>
@@ -134,7 +134,7 @@
     <t xml:space="preserve">3.96906614303589</t>
   </si>
   <si>
-    <t xml:space="preserve">3.97379636764526</t>
+    <t xml:space="preserve">3.97379660606384</t>
   </si>
   <si>
     <t xml:space="preserve">3.85079836845398</t>
@@ -149,10 +149,10 @@
     <t xml:space="preserve">3.59533977508545</t>
   </si>
   <si>
-    <t xml:space="preserve">3.72779965400696</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.81295251846313</t>
+    <t xml:space="preserve">3.72779989242554</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.81295275688171</t>
   </si>
   <si>
     <t xml:space="preserve">3.99271941184998</t>
@@ -161,13 +161,13 @@
     <t xml:space="preserve">4.00691175460815</t>
   </si>
   <si>
-    <t xml:space="preserve">4.01164245605469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.87918257713318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.7656455039978</t>
+    <t xml:space="preserve">4.01164197921753</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.8791823387146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.76564526557922</t>
   </si>
   <si>
     <t xml:space="preserve">3.78456830978394</t>
@@ -176,7 +176,7 @@
     <t xml:space="preserve">3.82714462280273</t>
   </si>
   <si>
-    <t xml:space="preserve">3.53857111930847</t>
+    <t xml:space="preserve">3.53857135772705</t>
   </si>
   <si>
     <t xml:space="preserve">3.57641696929932</t>
@@ -191,10 +191,10 @@
     <t xml:space="preserve">3.37299633026123</t>
   </si>
   <si>
-    <t xml:space="preserve">3.23107504844666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.13646101951599</t>
+    <t xml:space="preserve">3.23107528686523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.13646078109741</t>
   </si>
   <si>
     <t xml:space="preserve">3.50072574615479</t>
@@ -221,10 +221,10 @@
     <t xml:space="preserve">4.37117624282837</t>
   </si>
   <si>
-    <t xml:space="preserve">4.30967712402344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.43740606307983</t>
+    <t xml:space="preserve">4.30967664718628</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.43740653991699</t>
   </si>
   <si>
     <t xml:space="preserve">4.37590742111206</t>
@@ -236,13 +236,13 @@
     <t xml:space="preserve">4.52255916595459</t>
   </si>
   <si>
-    <t xml:space="preserve">4.61717319488525</t>
+    <t xml:space="preserve">4.61717367172241</t>
   </si>
   <si>
     <t xml:space="preserve">4.68340301513672</t>
   </si>
   <si>
-    <t xml:space="preserve">4.9293999671936</t>
+    <t xml:space="preserve">4.92940044403076</t>
   </si>
   <si>
     <t xml:space="preserve">5.27240037918091</t>
@@ -975,6 +975,9 @@
   </si>
   <si>
     <t xml:space="preserve">0.833999991416931</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.836000025272369</t>
   </si>
 </sst>
 </file>
@@ -18320,7 +18323,7 @@
     </row>
     <row r="655">
       <c r="A655" s="1" t="n">
-        <v>45471.6449421296</v>
+        <v>45471.2916666667</v>
       </c>
       <c r="B655" t="n">
         <v>20130</v>
@@ -18341,6 +18344,32 @@
         <v>304</v>
       </c>
       <c r="H655" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="656">
+      <c r="A656" s="1" t="n">
+        <v>45474.5829398148</v>
+      </c>
+      <c r="B656" t="n">
+        <v>740</v>
+      </c>
+      <c r="C656" t="n">
+        <v>0.836000025272369</v>
+      </c>
+      <c r="D656" t="n">
+        <v>0.836000025272369</v>
+      </c>
+      <c r="E656" t="n">
+        <v>0.836000025272369</v>
+      </c>
+      <c r="F656" t="n">
+        <v>0.836000025272369</v>
+      </c>
+      <c r="G656" t="s">
+        <v>321</v>
+      </c>
+      <c r="H656" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/TKF.MI.xlsx
+++ b/data/TKF.MI.xlsx
@@ -18349,7 +18349,7 @@
     </row>
     <row r="656">
       <c r="A656" s="1" t="n">
-        <v>45474.5829398148</v>
+        <v>45474.2916666667</v>
       </c>
       <c r="B656" t="n">
         <v>740</v>
@@ -18370,6 +18370,32 @@
         <v>321</v>
       </c>
       <c r="H656" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="657">
+      <c r="A657" s="1" t="n">
+        <v>45475.5683796296</v>
+      </c>
+      <c r="B657" t="n">
+        <v>400</v>
+      </c>
+      <c r="C657" t="n">
+        <v>0.839999973773956</v>
+      </c>
+      <c r="D657" t="n">
+        <v>0.811999976634979</v>
+      </c>
+      <c r="E657" t="n">
+        <v>0.839999973773956</v>
+      </c>
+      <c r="F657" t="n">
+        <v>0.829999983310699</v>
+      </c>
+      <c r="G657" t="s">
+        <v>257</v>
+      </c>
+      <c r="H657" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/TKF.MI.xlsx
+++ b/data/TKF.MI.xlsx
@@ -38,7 +38,7 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">4.11571741104126</t>
+    <t xml:space="preserve">4.11571788787842</t>
   </si>
   <si>
     <t xml:space="preserve">TKF.MI</t>
@@ -59,7 +59,7 @@
     <t xml:space="preserve">4.09679508209229</t>
   </si>
   <si>
-    <t xml:space="preserve">4.17721700668335</t>
+    <t xml:space="preserve">4.17721748352051</t>
   </si>
   <si>
     <t xml:space="preserve">4.25763893127441</t>
@@ -74,7 +74,7 @@
     <t xml:space="preserve">4.36644554138184</t>
   </si>
   <si>
-    <t xml:space="preserve">4.35698461532593</t>
+    <t xml:space="preserve">4.35698413848877</t>
   </si>
   <si>
     <t xml:space="preserve">4.40902185440063</t>
@@ -83,7 +83,7 @@
     <t xml:space="preserve">4.35225343704224</t>
   </si>
   <si>
-    <t xml:space="preserve">4.29075384140015</t>
+    <t xml:space="preserve">4.2907543182373</t>
   </si>
   <si>
     <t xml:space="preserve">4.24344730377197</t>
@@ -95,34 +95,34 @@
     <t xml:space="preserve">4.02583456039429</t>
   </si>
   <si>
-    <t xml:space="preserve">4.04002666473389</t>
+    <t xml:space="preserve">4.04002618789673</t>
   </si>
   <si>
     <t xml:space="preserve">4.05894947052002</t>
   </si>
   <si>
-    <t xml:space="preserve">3.92175889015198</t>
+    <t xml:space="preserve">3.9217586517334</t>
   </si>
   <si>
     <t xml:space="preserve">4.11098718643188</t>
   </si>
   <si>
-    <t xml:space="preserve">3.95960426330566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.92648959159851</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.94541239738464</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.04475784301758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.95487380027771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.93595099449158</t>
+    <t xml:space="preserve">3.95960474014282</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.92648983001709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.94541263580322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.04475736618042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.95487356185913</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.935950756073</t>
   </si>
   <si>
     <t xml:space="preserve">4.03056526184082</t>
@@ -134,7 +134,7 @@
     <t xml:space="preserve">3.96906614303589</t>
   </si>
   <si>
-    <t xml:space="preserve">3.97379660606384</t>
+    <t xml:space="preserve">3.97379636764526</t>
   </si>
   <si>
     <t xml:space="preserve">3.85079836845398</t>
@@ -149,10 +149,10 @@
     <t xml:space="preserve">3.59533977508545</t>
   </si>
   <si>
-    <t xml:space="preserve">3.72779989242554</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.81295275688171</t>
+    <t xml:space="preserve">3.72779965400696</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.81295251846313</t>
   </si>
   <si>
     <t xml:space="preserve">3.99271941184998</t>
@@ -161,13 +161,13 @@
     <t xml:space="preserve">4.00691175460815</t>
   </si>
   <si>
-    <t xml:space="preserve">4.01164197921753</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.8791823387146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.76564526557922</t>
+    <t xml:space="preserve">4.01164245605469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.87918257713318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.7656455039978</t>
   </si>
   <si>
     <t xml:space="preserve">3.78456830978394</t>
@@ -176,7 +176,7 @@
     <t xml:space="preserve">3.82714462280273</t>
   </si>
   <si>
-    <t xml:space="preserve">3.53857135772705</t>
+    <t xml:space="preserve">3.53857111930847</t>
   </si>
   <si>
     <t xml:space="preserve">3.57641696929932</t>
@@ -191,10 +191,10 @@
     <t xml:space="preserve">3.37299633026123</t>
   </si>
   <si>
-    <t xml:space="preserve">3.23107528686523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.13646078109741</t>
+    <t xml:space="preserve">3.23107504844666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.13646101951599</t>
   </si>
   <si>
     <t xml:space="preserve">3.50072574615479</t>
@@ -221,10 +221,10 @@
     <t xml:space="preserve">4.37117624282837</t>
   </si>
   <si>
-    <t xml:space="preserve">4.30967664718628</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.43740653991699</t>
+    <t xml:space="preserve">4.30967712402344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.43740606307983</t>
   </si>
   <si>
     <t xml:space="preserve">4.37590742111206</t>
@@ -236,13 +236,13 @@
     <t xml:space="preserve">4.52255916595459</t>
   </si>
   <si>
-    <t xml:space="preserve">4.61717367172241</t>
+    <t xml:space="preserve">4.61717319488525</t>
   </si>
   <si>
     <t xml:space="preserve">4.68340301513672</t>
   </si>
   <si>
-    <t xml:space="preserve">4.92940044403076</t>
+    <t xml:space="preserve">4.9293999671936</t>
   </si>
   <si>
     <t xml:space="preserve">5.27240037918091</t>
@@ -18375,7 +18375,7 @@
     </row>
     <row r="657">
       <c r="A657" s="1" t="n">
-        <v>45475.5683796296</v>
+        <v>45475.2916666667</v>
       </c>
       <c r="B657" t="n">
         <v>400</v>
@@ -18396,6 +18396,32 @@
         <v>257</v>
       </c>
       <c r="H657" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="658">
+      <c r="A658" s="1" t="n">
+        <v>45476.6429861111</v>
+      </c>
+      <c r="B658" t="n">
+        <v>21607</v>
+      </c>
+      <c r="C658" t="n">
+        <v>0.839999973773956</v>
+      </c>
+      <c r="D658" t="n">
+        <v>0.824000000953674</v>
+      </c>
+      <c r="E658" t="n">
+        <v>0.824000000953674</v>
+      </c>
+      <c r="F658" t="n">
+        <v>0.837999999523163</v>
+      </c>
+      <c r="G658" t="s">
+        <v>314</v>
+      </c>
+      <c r="H658" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/TKF.MI.xlsx
+++ b/data/TKF.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="322">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="323">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -978,6 +978,9 @@
   </si>
   <si>
     <t xml:space="preserve">0.836000025272369</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.843999981880188</t>
   </si>
 </sst>
 </file>
@@ -18401,7 +18404,7 @@
     </row>
     <row r="658">
       <c r="A658" s="1" t="n">
-        <v>45476.6429861111</v>
+        <v>45476.2916666667</v>
       </c>
       <c r="B658" t="n">
         <v>21607</v>
@@ -18422,6 +18425,32 @@
         <v>314</v>
       </c>
       <c r="H658" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="659">
+      <c r="A659" s="1" t="n">
+        <v>45477.5488541667</v>
+      </c>
+      <c r="B659" t="n">
+        <v>6545</v>
+      </c>
+      <c r="C659" t="n">
+        <v>0.850000023841858</v>
+      </c>
+      <c r="D659" t="n">
+        <v>0.829999983310699</v>
+      </c>
+      <c r="E659" t="n">
+        <v>0.842000007629395</v>
+      </c>
+      <c r="F659" t="n">
+        <v>0.843999981880188</v>
+      </c>
+      <c r="G659" t="s">
+        <v>322</v>
+      </c>
+      <c r="H659" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/TKF.MI.xlsx
+++ b/data/TKF.MI.xlsx
@@ -18430,7 +18430,7 @@
     </row>
     <row r="659">
       <c r="A659" s="1" t="n">
-        <v>45477.5488541667</v>
+        <v>45477.2916666667</v>
       </c>
       <c r="B659" t="n">
         <v>6545</v>
@@ -18451,6 +18451,32 @@
         <v>322</v>
       </c>
       <c r="H659" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="660">
+      <c r="A660" s="1" t="n">
+        <v>45478.5999305556</v>
+      </c>
+      <c r="B660" t="n">
+        <v>4000</v>
+      </c>
+      <c r="C660" t="n">
+        <v>0.839999973773956</v>
+      </c>
+      <c r="D660" t="n">
+        <v>0.839999973773956</v>
+      </c>
+      <c r="E660" t="n">
+        <v>0.839999973773956</v>
+      </c>
+      <c r="F660" t="n">
+        <v>0.839999973773956</v>
+      </c>
+      <c r="G660" t="s">
+        <v>289</v>
+      </c>
+      <c r="H660" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/TKF.MI.xlsx
+++ b/data/TKF.MI.xlsx
@@ -18456,7 +18456,7 @@
     </row>
     <row r="660">
       <c r="A660" s="1" t="n">
-        <v>45478.5999305556</v>
+        <v>45478.2916666667</v>
       </c>
       <c r="B660" t="n">
         <v>4000</v>
@@ -18477,6 +18477,32 @@
         <v>289</v>
       </c>
       <c r="H660" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="661">
+      <c r="A661" s="1" t="n">
+        <v>45481.6494675926</v>
+      </c>
+      <c r="B661" t="n">
+        <v>1643</v>
+      </c>
+      <c r="C661" t="n">
+        <v>0.839999973773956</v>
+      </c>
+      <c r="D661" t="n">
+        <v>0.828000009059906</v>
+      </c>
+      <c r="E661" t="n">
+        <v>0.828000009059906</v>
+      </c>
+      <c r="F661" t="n">
+        <v>0.829999983310699</v>
+      </c>
+      <c r="G661" t="s">
+        <v>257</v>
+      </c>
+      <c r="H661" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/TKF.MI.xlsx
+++ b/data/TKF.MI.xlsx
@@ -38,7 +38,7 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">4.11571788787842</t>
+    <t xml:space="preserve">4.11571741104126</t>
   </si>
   <si>
     <t xml:space="preserve">TKF.MI</t>
@@ -59,7 +59,7 @@
     <t xml:space="preserve">4.09679508209229</t>
   </si>
   <si>
-    <t xml:space="preserve">4.17721748352051</t>
+    <t xml:space="preserve">4.17721700668335</t>
   </si>
   <si>
     <t xml:space="preserve">4.25763893127441</t>
@@ -74,7 +74,7 @@
     <t xml:space="preserve">4.36644554138184</t>
   </si>
   <si>
-    <t xml:space="preserve">4.35698413848877</t>
+    <t xml:space="preserve">4.35698461532593</t>
   </si>
   <si>
     <t xml:space="preserve">4.40902185440063</t>
@@ -83,7 +83,7 @@
     <t xml:space="preserve">4.35225343704224</t>
   </si>
   <si>
-    <t xml:space="preserve">4.2907543182373</t>
+    <t xml:space="preserve">4.29075384140015</t>
   </si>
   <si>
     <t xml:space="preserve">4.24344730377197</t>
@@ -95,34 +95,34 @@
     <t xml:space="preserve">4.02583456039429</t>
   </si>
   <si>
-    <t xml:space="preserve">4.04002618789673</t>
+    <t xml:space="preserve">4.04002666473389</t>
   </si>
   <si>
     <t xml:space="preserve">4.05894947052002</t>
   </si>
   <si>
-    <t xml:space="preserve">3.9217586517334</t>
+    <t xml:space="preserve">3.92175889015198</t>
   </si>
   <si>
     <t xml:space="preserve">4.11098718643188</t>
   </si>
   <si>
-    <t xml:space="preserve">3.95960474014282</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.92648983001709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.94541263580322</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.04475736618042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.95487356185913</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.935950756073</t>
+    <t xml:space="preserve">3.95960426330566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.92648959159851</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.94541239738464</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.04475784301758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.95487380027771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.93595099449158</t>
   </si>
   <si>
     <t xml:space="preserve">4.03056526184082</t>
@@ -134,7 +134,7 @@
     <t xml:space="preserve">3.96906614303589</t>
   </si>
   <si>
-    <t xml:space="preserve">3.97379636764526</t>
+    <t xml:space="preserve">3.97379660606384</t>
   </si>
   <si>
     <t xml:space="preserve">3.85079836845398</t>
@@ -149,10 +149,10 @@
     <t xml:space="preserve">3.59533977508545</t>
   </si>
   <si>
-    <t xml:space="preserve">3.72779965400696</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.81295251846313</t>
+    <t xml:space="preserve">3.72779989242554</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.81295275688171</t>
   </si>
   <si>
     <t xml:space="preserve">3.99271941184998</t>
@@ -161,13 +161,13 @@
     <t xml:space="preserve">4.00691175460815</t>
   </si>
   <si>
-    <t xml:space="preserve">4.01164245605469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.87918257713318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.7656455039978</t>
+    <t xml:space="preserve">4.01164197921753</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.8791823387146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.76564526557922</t>
   </si>
   <si>
     <t xml:space="preserve">3.78456830978394</t>
@@ -176,7 +176,7 @@
     <t xml:space="preserve">3.82714462280273</t>
   </si>
   <si>
-    <t xml:space="preserve">3.53857111930847</t>
+    <t xml:space="preserve">3.53857135772705</t>
   </si>
   <si>
     <t xml:space="preserve">3.57641696929932</t>
@@ -191,10 +191,10 @@
     <t xml:space="preserve">3.37299633026123</t>
   </si>
   <si>
-    <t xml:space="preserve">3.23107504844666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.13646101951599</t>
+    <t xml:space="preserve">3.23107528686523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.13646078109741</t>
   </si>
   <si>
     <t xml:space="preserve">3.50072574615479</t>
@@ -221,10 +221,10 @@
     <t xml:space="preserve">4.37117624282837</t>
   </si>
   <si>
-    <t xml:space="preserve">4.30967712402344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.43740606307983</t>
+    <t xml:space="preserve">4.30967664718628</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.43740653991699</t>
   </si>
   <si>
     <t xml:space="preserve">4.37590742111206</t>
@@ -236,13 +236,13 @@
     <t xml:space="preserve">4.52255916595459</t>
   </si>
   <si>
-    <t xml:space="preserve">4.61717319488525</t>
+    <t xml:space="preserve">4.61717367172241</t>
   </si>
   <si>
     <t xml:space="preserve">4.68340301513672</t>
   </si>
   <si>
-    <t xml:space="preserve">4.9293999671936</t>
+    <t xml:space="preserve">4.92940044403076</t>
   </si>
   <si>
     <t xml:space="preserve">5.27240037918091</t>
@@ -18482,7 +18482,7 @@
     </row>
     <row r="661">
       <c r="A661" s="1" t="n">
-        <v>45481.6494675926</v>
+        <v>45481.2916666667</v>
       </c>
       <c r="B661" t="n">
         <v>1643</v>
@@ -18503,6 +18503,32 @@
         <v>257</v>
       </c>
       <c r="H661" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="662">
+      <c r="A662" s="1" t="n">
+        <v>45482.5958333333</v>
+      </c>
+      <c r="B662" t="n">
+        <v>6617</v>
+      </c>
+      <c r="C662" t="n">
+        <v>0.84799998998642</v>
+      </c>
+      <c r="D662" t="n">
+        <v>0.829999983310699</v>
+      </c>
+      <c r="E662" t="n">
+        <v>0.84799998998642</v>
+      </c>
+      <c r="F662" t="n">
+        <v>0.829999983310699</v>
+      </c>
+      <c r="G662" t="s">
+        <v>257</v>
+      </c>
+      <c r="H662" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/TKF.MI.xlsx
+++ b/data/TKF.MI.xlsx
@@ -18508,7 +18508,7 @@
     </row>
     <row r="662">
       <c r="A662" s="1" t="n">
-        <v>45482.5958333333</v>
+        <v>45482.2916666667</v>
       </c>
       <c r="B662" t="n">
         <v>6617</v>
@@ -18529,6 +18529,32 @@
         <v>257</v>
       </c>
       <c r="H662" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="663">
+      <c r="A663" s="1" t="n">
+        <v>45483.6443865741</v>
+      </c>
+      <c r="B663" t="n">
+        <v>50</v>
+      </c>
+      <c r="C663" t="n">
+        <v>0.839999973773956</v>
+      </c>
+      <c r="D663" t="n">
+        <v>0.839999973773956</v>
+      </c>
+      <c r="E663" t="n">
+        <v>0.839999973773956</v>
+      </c>
+      <c r="F663" t="n">
+        <v>0.839999973773956</v>
+      </c>
+      <c r="G663" t="s">
+        <v>289</v>
+      </c>
+      <c r="H663" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/TKF.MI.xlsx
+++ b/data/TKF.MI.xlsx
@@ -18534,7 +18534,7 @@
     </row>
     <row r="663">
       <c r="A663" s="1" t="n">
-        <v>45483.6443865741</v>
+        <v>45483.2916666667</v>
       </c>
       <c r="B663" t="n">
         <v>50</v>
@@ -18555,6 +18555,32 @@
         <v>289</v>
       </c>
       <c r="H663" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="664">
+      <c r="A664" s="1" t="n">
+        <v>45484.5922569444</v>
+      </c>
+      <c r="B664" t="n">
+        <v>4401</v>
+      </c>
+      <c r="C664" t="n">
+        <v>0.84799998998642</v>
+      </c>
+      <c r="D664" t="n">
+        <v>0.814000010490417</v>
+      </c>
+      <c r="E664" t="n">
+        <v>0.814000010490417</v>
+      </c>
+      <c r="F664" t="n">
+        <v>0.843999981880188</v>
+      </c>
+      <c r="G664" t="s">
+        <v>322</v>
+      </c>
+      <c r="H664" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/TKF.MI.xlsx
+++ b/data/TKF.MI.xlsx
@@ -18560,7 +18560,7 @@
     </row>
     <row r="664">
       <c r="A664" s="1" t="n">
-        <v>45484.5922569444</v>
+        <v>45484.2916666667</v>
       </c>
       <c r="B664" t="n">
         <v>4401</v>

--- a/data/TKF.MI.xlsx
+++ b/data/TKF.MI.xlsx
@@ -38,7 +38,7 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">4.11571741104126</t>
+    <t xml:space="preserve">4.11571788787842</t>
   </si>
   <si>
     <t xml:space="preserve">TKF.MI</t>
@@ -59,7 +59,7 @@
     <t xml:space="preserve">4.09679508209229</t>
   </si>
   <si>
-    <t xml:space="preserve">4.17721700668335</t>
+    <t xml:space="preserve">4.17721748352051</t>
   </si>
   <si>
     <t xml:space="preserve">4.25763893127441</t>
@@ -74,7 +74,7 @@
     <t xml:space="preserve">4.36644554138184</t>
   </si>
   <si>
-    <t xml:space="preserve">4.35698461532593</t>
+    <t xml:space="preserve">4.35698413848877</t>
   </si>
   <si>
     <t xml:space="preserve">4.40902185440063</t>
@@ -83,7 +83,7 @@
     <t xml:space="preserve">4.35225343704224</t>
   </si>
   <si>
-    <t xml:space="preserve">4.29075384140015</t>
+    <t xml:space="preserve">4.2907543182373</t>
   </si>
   <si>
     <t xml:space="preserve">4.24344730377197</t>
@@ -95,34 +95,34 @@
     <t xml:space="preserve">4.02583456039429</t>
   </si>
   <si>
-    <t xml:space="preserve">4.04002666473389</t>
+    <t xml:space="preserve">4.04002618789673</t>
   </si>
   <si>
     <t xml:space="preserve">4.05894947052002</t>
   </si>
   <si>
-    <t xml:space="preserve">3.92175889015198</t>
+    <t xml:space="preserve">3.9217586517334</t>
   </si>
   <si>
     <t xml:space="preserve">4.11098718643188</t>
   </si>
   <si>
-    <t xml:space="preserve">3.95960426330566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.92648959159851</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.94541239738464</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.04475784301758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.95487380027771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.93595099449158</t>
+    <t xml:space="preserve">3.95960474014282</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.92648983001709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.94541263580322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.04475736618042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.95487356185913</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.935950756073</t>
   </si>
   <si>
     <t xml:space="preserve">4.03056526184082</t>
@@ -134,7 +134,7 @@
     <t xml:space="preserve">3.96906614303589</t>
   </si>
   <si>
-    <t xml:space="preserve">3.97379660606384</t>
+    <t xml:space="preserve">3.97379636764526</t>
   </si>
   <si>
     <t xml:space="preserve">3.85079836845398</t>
@@ -149,10 +149,10 @@
     <t xml:space="preserve">3.59533977508545</t>
   </si>
   <si>
-    <t xml:space="preserve">3.72779989242554</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.81295275688171</t>
+    <t xml:space="preserve">3.72779965400696</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.81295251846313</t>
   </si>
   <si>
     <t xml:space="preserve">3.99271941184998</t>
@@ -161,13 +161,13 @@
     <t xml:space="preserve">4.00691175460815</t>
   </si>
   <si>
-    <t xml:space="preserve">4.01164197921753</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.8791823387146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.76564526557922</t>
+    <t xml:space="preserve">4.01164245605469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.87918257713318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.7656455039978</t>
   </si>
   <si>
     <t xml:space="preserve">3.78456830978394</t>
@@ -176,7 +176,7 @@
     <t xml:space="preserve">3.82714462280273</t>
   </si>
   <si>
-    <t xml:space="preserve">3.53857135772705</t>
+    <t xml:space="preserve">3.53857111930847</t>
   </si>
   <si>
     <t xml:space="preserve">3.57641696929932</t>
@@ -191,10 +191,10 @@
     <t xml:space="preserve">3.37299633026123</t>
   </si>
   <si>
-    <t xml:space="preserve">3.23107528686523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.13646078109741</t>
+    <t xml:space="preserve">3.23107504844666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.13646101951599</t>
   </si>
   <si>
     <t xml:space="preserve">3.50072574615479</t>
@@ -221,10 +221,10 @@
     <t xml:space="preserve">4.37117624282837</t>
   </si>
   <si>
-    <t xml:space="preserve">4.30967664718628</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.43740653991699</t>
+    <t xml:space="preserve">4.30967712402344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.43740606307983</t>
   </si>
   <si>
     <t xml:space="preserve">4.37590742111206</t>
@@ -236,13 +236,13 @@
     <t xml:space="preserve">4.52255916595459</t>
   </si>
   <si>
-    <t xml:space="preserve">4.61717367172241</t>
+    <t xml:space="preserve">4.61717319488525</t>
   </si>
   <si>
     <t xml:space="preserve">4.68340301513672</t>
   </si>
   <si>
-    <t xml:space="preserve">4.92940044403076</t>
+    <t xml:space="preserve">4.9293999671936</t>
   </si>
   <si>
     <t xml:space="preserve">5.27240037918091</t>
@@ -18584,6 +18584,58 @@
         <v>9</v>
       </c>
     </row>
+    <row r="665">
+      <c r="A665" s="1" t="n">
+        <v>45485.2916666667</v>
+      </c>
+      <c r="B665" t="n">
+        <v>0</v>
+      </c>
+      <c r="C665" t="n">
+        <v>0.843999981880188</v>
+      </c>
+      <c r="D665" t="n">
+        <v>0.843999981880188</v>
+      </c>
+      <c r="E665" t="n">
+        <v>0.843999981880188</v>
+      </c>
+      <c r="F665" t="n">
+        <v>0.843999981880188</v>
+      </c>
+      <c r="G665" t="s">
+        <v>322</v>
+      </c>
+      <c r="H665" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="666">
+      <c r="A666" s="1" t="n">
+        <v>45488.6200925926</v>
+      </c>
+      <c r="B666" t="n">
+        <v>100</v>
+      </c>
+      <c r="C666" t="n">
+        <v>0.839999973773956</v>
+      </c>
+      <c r="D666" t="n">
+        <v>0.839999973773956</v>
+      </c>
+      <c r="E666" t="n">
+        <v>0.839999973773956</v>
+      </c>
+      <c r="F666" t="n">
+        <v>0.839999973773956</v>
+      </c>
+      <c r="G666" t="s">
+        <v>289</v>
+      </c>
+      <c r="H666" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/TKF.MI.xlsx
+++ b/data/TKF.MI.xlsx
@@ -18612,7 +18612,7 @@
     </row>
     <row r="666">
       <c r="A666" s="1" t="n">
-        <v>45488.6200925926</v>
+        <v>45488.2916666667</v>
       </c>
       <c r="B666" t="n">
         <v>100</v>
@@ -18633,6 +18633,32 @@
         <v>289</v>
       </c>
       <c r="H666" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="667">
+      <c r="A667" s="1" t="n">
+        <v>45489.4829166667</v>
+      </c>
+      <c r="B667" t="n">
+        <v>2100</v>
+      </c>
+      <c r="C667" t="n">
+        <v>0.825999975204468</v>
+      </c>
+      <c r="D667" t="n">
+        <v>0.825999975204468</v>
+      </c>
+      <c r="E667" t="n">
+        <v>0.825999975204468</v>
+      </c>
+      <c r="F667" t="n">
+        <v>0.825999975204468</v>
+      </c>
+      <c r="G667" t="s">
+        <v>296</v>
+      </c>
+      <c r="H667" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/TKF.MI.xlsx
+++ b/data/TKF.MI.xlsx
@@ -38,7 +38,7 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">4.11571788787842</t>
+    <t xml:space="preserve">4.11571741104126</t>
   </si>
   <si>
     <t xml:space="preserve">TKF.MI</t>
@@ -59,7 +59,7 @@
     <t xml:space="preserve">4.09679508209229</t>
   </si>
   <si>
-    <t xml:space="preserve">4.17721748352051</t>
+    <t xml:space="preserve">4.17721700668335</t>
   </si>
   <si>
     <t xml:space="preserve">4.25763893127441</t>
@@ -74,7 +74,7 @@
     <t xml:space="preserve">4.36644554138184</t>
   </si>
   <si>
-    <t xml:space="preserve">4.35698413848877</t>
+    <t xml:space="preserve">4.35698461532593</t>
   </si>
   <si>
     <t xml:space="preserve">4.40902185440063</t>
@@ -83,7 +83,7 @@
     <t xml:space="preserve">4.35225343704224</t>
   </si>
   <si>
-    <t xml:space="preserve">4.2907543182373</t>
+    <t xml:space="preserve">4.29075384140015</t>
   </si>
   <si>
     <t xml:space="preserve">4.24344730377197</t>
@@ -95,34 +95,34 @@
     <t xml:space="preserve">4.02583456039429</t>
   </si>
   <si>
-    <t xml:space="preserve">4.04002618789673</t>
+    <t xml:space="preserve">4.04002666473389</t>
   </si>
   <si>
     <t xml:space="preserve">4.05894947052002</t>
   </si>
   <si>
-    <t xml:space="preserve">3.9217586517334</t>
+    <t xml:space="preserve">3.92175889015198</t>
   </si>
   <si>
     <t xml:space="preserve">4.11098718643188</t>
   </si>
   <si>
-    <t xml:space="preserve">3.95960474014282</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.92648983001709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.94541263580322</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.04475736618042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.95487356185913</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.935950756073</t>
+    <t xml:space="preserve">3.95960426330566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.92648959159851</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.94541239738464</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.04475784301758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.95487380027771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.93595099449158</t>
   </si>
   <si>
     <t xml:space="preserve">4.03056526184082</t>
@@ -134,7 +134,7 @@
     <t xml:space="preserve">3.96906614303589</t>
   </si>
   <si>
-    <t xml:space="preserve">3.97379636764526</t>
+    <t xml:space="preserve">3.97379660606384</t>
   </si>
   <si>
     <t xml:space="preserve">3.85079836845398</t>
@@ -149,10 +149,10 @@
     <t xml:space="preserve">3.59533977508545</t>
   </si>
   <si>
-    <t xml:space="preserve">3.72779965400696</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.81295251846313</t>
+    <t xml:space="preserve">3.72779989242554</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.81295275688171</t>
   </si>
   <si>
     <t xml:space="preserve">3.99271941184998</t>
@@ -161,13 +161,13 @@
     <t xml:space="preserve">4.00691175460815</t>
   </si>
   <si>
-    <t xml:space="preserve">4.01164245605469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.87918257713318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.7656455039978</t>
+    <t xml:space="preserve">4.01164197921753</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.8791823387146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.76564526557922</t>
   </si>
   <si>
     <t xml:space="preserve">3.78456830978394</t>
@@ -176,7 +176,7 @@
     <t xml:space="preserve">3.82714462280273</t>
   </si>
   <si>
-    <t xml:space="preserve">3.53857111930847</t>
+    <t xml:space="preserve">3.53857135772705</t>
   </si>
   <si>
     <t xml:space="preserve">3.57641696929932</t>
@@ -191,10 +191,10 @@
     <t xml:space="preserve">3.37299633026123</t>
   </si>
   <si>
-    <t xml:space="preserve">3.23107504844666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.13646101951599</t>
+    <t xml:space="preserve">3.23107528686523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.13646078109741</t>
   </si>
   <si>
     <t xml:space="preserve">3.50072574615479</t>
@@ -221,10 +221,10 @@
     <t xml:space="preserve">4.37117624282837</t>
   </si>
   <si>
-    <t xml:space="preserve">4.30967712402344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.43740606307983</t>
+    <t xml:space="preserve">4.30967664718628</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.43740653991699</t>
   </si>
   <si>
     <t xml:space="preserve">4.37590742111206</t>
@@ -236,13 +236,13 @@
     <t xml:space="preserve">4.52255916595459</t>
   </si>
   <si>
-    <t xml:space="preserve">4.61717319488525</t>
+    <t xml:space="preserve">4.61717367172241</t>
   </si>
   <si>
     <t xml:space="preserve">4.68340301513672</t>
   </si>
   <si>
-    <t xml:space="preserve">4.9293999671936</t>
+    <t xml:space="preserve">4.92940044403076</t>
   </si>
   <si>
     <t xml:space="preserve">5.27240037918091</t>
@@ -18638,7 +18638,7 @@
     </row>
     <row r="667">
       <c r="A667" s="1" t="n">
-        <v>45489.4829166667</v>
+        <v>45489.2916666667</v>
       </c>
       <c r="B667" t="n">
         <v>2100</v>
@@ -18659,6 +18659,32 @@
         <v>296</v>
       </c>
       <c r="H667" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="668">
+      <c r="A668" s="1" t="n">
+        <v>45490.4132175926</v>
+      </c>
+      <c r="B668" t="n">
+        <v>3040</v>
+      </c>
+      <c r="C668" t="n">
+        <v>0.839999973773956</v>
+      </c>
+      <c r="D668" t="n">
+        <v>0.837999999523163</v>
+      </c>
+      <c r="E668" t="n">
+        <v>0.837999999523163</v>
+      </c>
+      <c r="F668" t="n">
+        <v>0.839999973773956</v>
+      </c>
+      <c r="G668" t="s">
+        <v>289</v>
+      </c>
+      <c r="H668" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/TKF.MI.xlsx
+++ b/data/TKF.MI.xlsx
@@ -18664,7 +18664,7 @@
     </row>
     <row r="668">
       <c r="A668" s="1" t="n">
-        <v>45490.4132175926</v>
+        <v>45490.2916666667</v>
       </c>
       <c r="B668" t="n">
         <v>3040</v>
@@ -18685,6 +18685,32 @@
         <v>289</v>
       </c>
       <c r="H668" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="669">
+      <c r="A669" s="1" t="n">
+        <v>45491.6105208333</v>
+      </c>
+      <c r="B669" t="n">
+        <v>13160</v>
+      </c>
+      <c r="C669" t="n">
+        <v>0.850000023841858</v>
+      </c>
+      <c r="D669" t="n">
+        <v>0.810000002384186</v>
+      </c>
+      <c r="E669" t="n">
+        <v>0.846000015735626</v>
+      </c>
+      <c r="F669" t="n">
+        <v>0.833999991416931</v>
+      </c>
+      <c r="G669" t="s">
+        <v>320</v>
+      </c>
+      <c r="H669" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/TKF.MI.xlsx
+++ b/data/TKF.MI.xlsx
@@ -18690,7 +18690,7 @@
     </row>
     <row r="669">
       <c r="A669" s="1" t="n">
-        <v>45491.6105208333</v>
+        <v>45491.2916666667</v>
       </c>
       <c r="B669" t="n">
         <v>13160</v>

--- a/data/TKF.MI.xlsx
+++ b/data/TKF.MI.xlsx
@@ -38,7 +38,7 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">4.11571741104126</t>
+    <t xml:space="preserve">4.11571788787842</t>
   </si>
   <si>
     <t xml:space="preserve">TKF.MI</t>
@@ -59,7 +59,7 @@
     <t xml:space="preserve">4.09679508209229</t>
   </si>
   <si>
-    <t xml:space="preserve">4.17721700668335</t>
+    <t xml:space="preserve">4.17721748352051</t>
   </si>
   <si>
     <t xml:space="preserve">4.25763893127441</t>
@@ -74,7 +74,7 @@
     <t xml:space="preserve">4.36644554138184</t>
   </si>
   <si>
-    <t xml:space="preserve">4.35698461532593</t>
+    <t xml:space="preserve">4.35698413848877</t>
   </si>
   <si>
     <t xml:space="preserve">4.40902185440063</t>
@@ -83,7 +83,7 @@
     <t xml:space="preserve">4.35225343704224</t>
   </si>
   <si>
-    <t xml:space="preserve">4.29075384140015</t>
+    <t xml:space="preserve">4.2907543182373</t>
   </si>
   <si>
     <t xml:space="preserve">4.24344730377197</t>
@@ -95,34 +95,34 @@
     <t xml:space="preserve">4.02583456039429</t>
   </si>
   <si>
-    <t xml:space="preserve">4.04002666473389</t>
+    <t xml:space="preserve">4.04002618789673</t>
   </si>
   <si>
     <t xml:space="preserve">4.05894947052002</t>
   </si>
   <si>
-    <t xml:space="preserve">3.92175889015198</t>
+    <t xml:space="preserve">3.9217586517334</t>
   </si>
   <si>
     <t xml:space="preserve">4.11098718643188</t>
   </si>
   <si>
-    <t xml:space="preserve">3.95960426330566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.92648959159851</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.94541239738464</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.04475784301758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.95487380027771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.93595099449158</t>
+    <t xml:space="preserve">3.95960474014282</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.92648983001709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.94541263580322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.04475736618042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.95487356185913</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.935950756073</t>
   </si>
   <si>
     <t xml:space="preserve">4.03056526184082</t>
@@ -134,7 +134,7 @@
     <t xml:space="preserve">3.96906614303589</t>
   </si>
   <si>
-    <t xml:space="preserve">3.97379660606384</t>
+    <t xml:space="preserve">3.97379636764526</t>
   </si>
   <si>
     <t xml:space="preserve">3.85079836845398</t>
@@ -149,10 +149,10 @@
     <t xml:space="preserve">3.59533977508545</t>
   </si>
   <si>
-    <t xml:space="preserve">3.72779989242554</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.81295275688171</t>
+    <t xml:space="preserve">3.72779965400696</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.81295251846313</t>
   </si>
   <si>
     <t xml:space="preserve">3.99271941184998</t>
@@ -161,13 +161,13 @@
     <t xml:space="preserve">4.00691175460815</t>
   </si>
   <si>
-    <t xml:space="preserve">4.01164197921753</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.8791823387146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.76564526557922</t>
+    <t xml:space="preserve">4.01164245605469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.87918257713318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.7656455039978</t>
   </si>
   <si>
     <t xml:space="preserve">3.78456830978394</t>
@@ -176,7 +176,7 @@
     <t xml:space="preserve">3.82714462280273</t>
   </si>
   <si>
-    <t xml:space="preserve">3.53857135772705</t>
+    <t xml:space="preserve">3.53857111930847</t>
   </si>
   <si>
     <t xml:space="preserve">3.57641696929932</t>
@@ -191,10 +191,10 @@
     <t xml:space="preserve">3.37299633026123</t>
   </si>
   <si>
-    <t xml:space="preserve">3.23107528686523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.13646078109741</t>
+    <t xml:space="preserve">3.23107504844666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.13646101951599</t>
   </si>
   <si>
     <t xml:space="preserve">3.50072574615479</t>
@@ -221,10 +221,10 @@
     <t xml:space="preserve">4.37117624282837</t>
   </si>
   <si>
-    <t xml:space="preserve">4.30967664718628</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.43740653991699</t>
+    <t xml:space="preserve">4.30967712402344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.43740606307983</t>
   </si>
   <si>
     <t xml:space="preserve">4.37590742111206</t>
@@ -236,13 +236,13 @@
     <t xml:space="preserve">4.52255916595459</t>
   </si>
   <si>
-    <t xml:space="preserve">4.61717367172241</t>
+    <t xml:space="preserve">4.61717319488525</t>
   </si>
   <si>
     <t xml:space="preserve">4.68340301513672</t>
   </si>
   <si>
-    <t xml:space="preserve">4.92940044403076</t>
+    <t xml:space="preserve">4.9293999671936</t>
   </si>
   <si>
     <t xml:space="preserve">5.27240037918091</t>
@@ -18714,6 +18714,58 @@
         <v>9</v>
       </c>
     </row>
+    <row r="670">
+      <c r="A670" s="1" t="n">
+        <v>45492.2916666667</v>
+      </c>
+      <c r="B670" t="n">
+        <v>0</v>
+      </c>
+      <c r="C670" t="n">
+        <v>0.833999991416931</v>
+      </c>
+      <c r="D670" t="n">
+        <v>0.833999991416931</v>
+      </c>
+      <c r="E670" t="n">
+        <v>0.833999991416931</v>
+      </c>
+      <c r="F670" t="n">
+        <v>0.833999991416931</v>
+      </c>
+      <c r="G670" t="s">
+        <v>320</v>
+      </c>
+      <c r="H670" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="671">
+      <c r="A671" s="1" t="n">
+        <v>45495.3595138889</v>
+      </c>
+      <c r="B671" t="n">
+        <v>2000</v>
+      </c>
+      <c r="C671" t="n">
+        <v>0.833999991416931</v>
+      </c>
+      <c r="D671" t="n">
+        <v>0.833999991416931</v>
+      </c>
+      <c r="E671" t="n">
+        <v>0.833999991416931</v>
+      </c>
+      <c r="F671" t="n">
+        <v>0.833999991416931</v>
+      </c>
+      <c r="G671" t="s">
+        <v>320</v>
+      </c>
+      <c r="H671" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/TKF.MI.xlsx
+++ b/data/TKF.MI.xlsx
@@ -38,7 +38,7 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">4.11571788787842</t>
+    <t xml:space="preserve">4.11571741104126</t>
   </si>
   <si>
     <t xml:space="preserve">TKF.MI</t>
@@ -59,7 +59,7 @@
     <t xml:space="preserve">4.09679508209229</t>
   </si>
   <si>
-    <t xml:space="preserve">4.17721748352051</t>
+    <t xml:space="preserve">4.17721700668335</t>
   </si>
   <si>
     <t xml:space="preserve">4.25763893127441</t>
@@ -74,7 +74,7 @@
     <t xml:space="preserve">4.36644554138184</t>
   </si>
   <si>
-    <t xml:space="preserve">4.35698413848877</t>
+    <t xml:space="preserve">4.35698461532593</t>
   </si>
   <si>
     <t xml:space="preserve">4.40902185440063</t>
@@ -83,7 +83,7 @@
     <t xml:space="preserve">4.35225343704224</t>
   </si>
   <si>
-    <t xml:space="preserve">4.2907543182373</t>
+    <t xml:space="preserve">4.29075384140015</t>
   </si>
   <si>
     <t xml:space="preserve">4.24344730377197</t>
@@ -95,34 +95,34 @@
     <t xml:space="preserve">4.02583456039429</t>
   </si>
   <si>
-    <t xml:space="preserve">4.04002618789673</t>
+    <t xml:space="preserve">4.04002666473389</t>
   </si>
   <si>
     <t xml:space="preserve">4.05894947052002</t>
   </si>
   <si>
-    <t xml:space="preserve">3.9217586517334</t>
+    <t xml:space="preserve">3.92175889015198</t>
   </si>
   <si>
     <t xml:space="preserve">4.11098718643188</t>
   </si>
   <si>
-    <t xml:space="preserve">3.95960474014282</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.92648983001709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.94541263580322</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.04475736618042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.95487356185913</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.935950756073</t>
+    <t xml:space="preserve">3.95960426330566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.92648959159851</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.94541239738464</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.04475784301758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.95487380027771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.93595099449158</t>
   </si>
   <si>
     <t xml:space="preserve">4.03056526184082</t>
@@ -134,7 +134,7 @@
     <t xml:space="preserve">3.96906614303589</t>
   </si>
   <si>
-    <t xml:space="preserve">3.97379636764526</t>
+    <t xml:space="preserve">3.97379660606384</t>
   </si>
   <si>
     <t xml:space="preserve">3.85079836845398</t>
@@ -149,10 +149,10 @@
     <t xml:space="preserve">3.59533977508545</t>
   </si>
   <si>
-    <t xml:space="preserve">3.72779965400696</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.81295251846313</t>
+    <t xml:space="preserve">3.72779989242554</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.81295275688171</t>
   </si>
   <si>
     <t xml:space="preserve">3.99271941184998</t>
@@ -161,13 +161,13 @@
     <t xml:space="preserve">4.00691175460815</t>
   </si>
   <si>
-    <t xml:space="preserve">4.01164245605469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.87918257713318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.7656455039978</t>
+    <t xml:space="preserve">4.01164197921753</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.8791823387146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.76564526557922</t>
   </si>
   <si>
     <t xml:space="preserve">3.78456830978394</t>
@@ -176,7 +176,7 @@
     <t xml:space="preserve">3.82714462280273</t>
   </si>
   <si>
-    <t xml:space="preserve">3.53857111930847</t>
+    <t xml:space="preserve">3.53857135772705</t>
   </si>
   <si>
     <t xml:space="preserve">3.57641696929932</t>
@@ -191,10 +191,10 @@
     <t xml:space="preserve">3.37299633026123</t>
   </si>
   <si>
-    <t xml:space="preserve">3.23107504844666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.13646101951599</t>
+    <t xml:space="preserve">3.23107528686523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.13646078109741</t>
   </si>
   <si>
     <t xml:space="preserve">3.50072574615479</t>
@@ -221,10 +221,10 @@
     <t xml:space="preserve">4.37117624282837</t>
   </si>
   <si>
-    <t xml:space="preserve">4.30967712402344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.43740606307983</t>
+    <t xml:space="preserve">4.30967664718628</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.43740653991699</t>
   </si>
   <si>
     <t xml:space="preserve">4.37590742111206</t>
@@ -236,13 +236,13 @@
     <t xml:space="preserve">4.52255916595459</t>
   </si>
   <si>
-    <t xml:space="preserve">4.61717319488525</t>
+    <t xml:space="preserve">4.61717367172241</t>
   </si>
   <si>
     <t xml:space="preserve">4.68340301513672</t>
   </si>
   <si>
-    <t xml:space="preserve">4.9293999671936</t>
+    <t xml:space="preserve">4.92940044403076</t>
   </si>
   <si>
     <t xml:space="preserve">5.27240037918091</t>
@@ -18742,7 +18742,7 @@
     </row>
     <row r="671">
       <c r="A671" s="1" t="n">
-        <v>45495.3595138889</v>
+        <v>45495.2916666667</v>
       </c>
       <c r="B671" t="n">
         <v>2000</v>
@@ -18763,6 +18763,32 @@
         <v>320</v>
       </c>
       <c r="H671" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="672">
+      <c r="A672" s="1" t="n">
+        <v>45496.641875</v>
+      </c>
+      <c r="B672" t="n">
+        <v>406232</v>
+      </c>
+      <c r="C672" t="n">
+        <v>0.879999995231628</v>
+      </c>
+      <c r="D672" t="n">
+        <v>0.851999998092651</v>
+      </c>
+      <c r="E672" t="n">
+        <v>0.879999995231628</v>
+      </c>
+      <c r="F672" t="n">
+        <v>0.860000014305115</v>
+      </c>
+      <c r="G672" t="s">
+        <v>281</v>
+      </c>
+      <c r="H672" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/TKF.MI.xlsx
+++ b/data/TKF.MI.xlsx
@@ -18768,7 +18768,7 @@
     </row>
     <row r="672">
       <c r="A672" s="1" t="n">
-        <v>45496.641875</v>
+        <v>45496.2916666667</v>
       </c>
       <c r="B672" t="n">
         <v>406232</v>
@@ -18789,6 +18789,32 @@
         <v>281</v>
       </c>
       <c r="H672" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="673">
+      <c r="A673" s="1" t="n">
+        <v>45497.6416550926</v>
+      </c>
+      <c r="B673" t="n">
+        <v>162836</v>
+      </c>
+      <c r="C673" t="n">
+        <v>0.870000004768372</v>
+      </c>
+      <c r="D673" t="n">
+        <v>0.850000023841858</v>
+      </c>
+      <c r="E673" t="n">
+        <v>0.856000006198883</v>
+      </c>
+      <c r="F673" t="n">
+        <v>0.870000004768372</v>
+      </c>
+      <c r="G673" t="s">
+        <v>288</v>
+      </c>
+      <c r="H673" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/TKF.MI.xlsx
+++ b/data/TKF.MI.xlsx
@@ -18794,7 +18794,7 @@
     </row>
     <row r="673">
       <c r="A673" s="1" t="n">
-        <v>45497.6416550926</v>
+        <v>45497.2916666667</v>
       </c>
       <c r="B673" t="n">
         <v>162836</v>
@@ -18815,6 +18815,32 @@
         <v>288</v>
       </c>
       <c r="H673" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="674">
+      <c r="A674" s="1" t="n">
+        <v>45498.6495486111</v>
+      </c>
+      <c r="B674" t="n">
+        <v>147301</v>
+      </c>
+      <c r="C674" t="n">
+        <v>0.870000004768372</v>
+      </c>
+      <c r="D674" t="n">
+        <v>0.829999983310699</v>
+      </c>
+      <c r="E674" t="n">
+        <v>0.870000004768372</v>
+      </c>
+      <c r="F674" t="n">
+        <v>0.839999973773956</v>
+      </c>
+      <c r="G674" t="s">
+        <v>289</v>
+      </c>
+      <c r="H674" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/TKF.MI.xlsx
+++ b/data/TKF.MI.xlsx
@@ -18820,7 +18820,7 @@
     </row>
     <row r="674">
       <c r="A674" s="1" t="n">
-        <v>45498.6495486111</v>
+        <v>45498.2916666667</v>
       </c>
       <c r="B674" t="n">
         <v>147301</v>
@@ -18841,6 +18841,32 @@
         <v>289</v>
       </c>
       <c r="H674" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="675">
+      <c r="A675" s="1" t="n">
+        <v>45499.6428819444</v>
+      </c>
+      <c r="B675" t="n">
+        <v>17910</v>
+      </c>
+      <c r="C675" t="n">
+        <v>0.857999980449677</v>
+      </c>
+      <c r="D675" t="n">
+        <v>0.839999973773956</v>
+      </c>
+      <c r="E675" t="n">
+        <v>0.856000006198883</v>
+      </c>
+      <c r="F675" t="n">
+        <v>0.850000023841858</v>
+      </c>
+      <c r="G675" t="s">
+        <v>287</v>
+      </c>
+      <c r="H675" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/TKF.MI.xlsx
+++ b/data/TKF.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="324">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,7 +38,7 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">4.11571741104126</t>
+    <t xml:space="preserve">4.11571788787842</t>
   </si>
   <si>
     <t xml:space="preserve">TKF.MI</t>
@@ -59,7 +59,7 @@
     <t xml:space="preserve">4.09679508209229</t>
   </si>
   <si>
-    <t xml:space="preserve">4.17721700668335</t>
+    <t xml:space="preserve">4.17721748352051</t>
   </si>
   <si>
     <t xml:space="preserve">4.25763893127441</t>
@@ -74,7 +74,7 @@
     <t xml:space="preserve">4.36644554138184</t>
   </si>
   <si>
-    <t xml:space="preserve">4.35698461532593</t>
+    <t xml:space="preserve">4.35698413848877</t>
   </si>
   <si>
     <t xml:space="preserve">4.40902185440063</t>
@@ -83,7 +83,7 @@
     <t xml:space="preserve">4.35225343704224</t>
   </si>
   <si>
-    <t xml:space="preserve">4.29075384140015</t>
+    <t xml:space="preserve">4.2907543182373</t>
   </si>
   <si>
     <t xml:space="preserve">4.24344730377197</t>
@@ -95,34 +95,34 @@
     <t xml:space="preserve">4.02583456039429</t>
   </si>
   <si>
-    <t xml:space="preserve">4.04002666473389</t>
+    <t xml:space="preserve">4.04002618789673</t>
   </si>
   <si>
     <t xml:space="preserve">4.05894947052002</t>
   </si>
   <si>
-    <t xml:space="preserve">3.92175889015198</t>
+    <t xml:space="preserve">3.9217586517334</t>
   </si>
   <si>
     <t xml:space="preserve">4.11098718643188</t>
   </si>
   <si>
-    <t xml:space="preserve">3.95960426330566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.92648959159851</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.94541239738464</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.04475784301758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.95487380027771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.93595099449158</t>
+    <t xml:space="preserve">3.95960474014282</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.92648983001709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.94541263580322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.04475736618042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.95487356185913</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.935950756073</t>
   </si>
   <si>
     <t xml:space="preserve">4.03056526184082</t>
@@ -134,7 +134,7 @@
     <t xml:space="preserve">3.96906614303589</t>
   </si>
   <si>
-    <t xml:space="preserve">3.97379660606384</t>
+    <t xml:space="preserve">3.97379636764526</t>
   </si>
   <si>
     <t xml:space="preserve">3.85079836845398</t>
@@ -149,10 +149,10 @@
     <t xml:space="preserve">3.59533977508545</t>
   </si>
   <si>
-    <t xml:space="preserve">3.72779989242554</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.81295275688171</t>
+    <t xml:space="preserve">3.72779965400696</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.81295251846313</t>
   </si>
   <si>
     <t xml:space="preserve">3.99271941184998</t>
@@ -161,13 +161,13 @@
     <t xml:space="preserve">4.00691175460815</t>
   </si>
   <si>
-    <t xml:space="preserve">4.01164197921753</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.8791823387146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.76564526557922</t>
+    <t xml:space="preserve">4.01164245605469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.87918257713318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.7656455039978</t>
   </si>
   <si>
     <t xml:space="preserve">3.78456830978394</t>
@@ -176,7 +176,7 @@
     <t xml:space="preserve">3.82714462280273</t>
   </si>
   <si>
-    <t xml:space="preserve">3.53857135772705</t>
+    <t xml:space="preserve">3.53857111930847</t>
   </si>
   <si>
     <t xml:space="preserve">3.57641696929932</t>
@@ -191,10 +191,10 @@
     <t xml:space="preserve">3.37299633026123</t>
   </si>
   <si>
-    <t xml:space="preserve">3.23107528686523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.13646078109741</t>
+    <t xml:space="preserve">3.23107504844666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.13646101951599</t>
   </si>
   <si>
     <t xml:space="preserve">3.50072574615479</t>
@@ -221,10 +221,10 @@
     <t xml:space="preserve">4.37117624282837</t>
   </si>
   <si>
-    <t xml:space="preserve">4.30967664718628</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.43740653991699</t>
+    <t xml:space="preserve">4.30967712402344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.43740606307983</t>
   </si>
   <si>
     <t xml:space="preserve">4.37590742111206</t>
@@ -236,13 +236,13 @@
     <t xml:space="preserve">4.52255916595459</t>
   </si>
   <si>
-    <t xml:space="preserve">4.61717367172241</t>
+    <t xml:space="preserve">4.61717319488525</t>
   </si>
   <si>
     <t xml:space="preserve">4.68340301513672</t>
   </si>
   <si>
-    <t xml:space="preserve">4.92940044403076</t>
+    <t xml:space="preserve">4.9293999671936</t>
   </si>
   <si>
     <t xml:space="preserve">5.27240037918091</t>
@@ -981,6 +981,9 @@
   </si>
   <si>
     <t xml:space="preserve">0.843999981880188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.846000015735626</t>
   </si>
 </sst>
 </file>
@@ -18846,7 +18849,7 @@
     </row>
     <row r="675">
       <c r="A675" s="1" t="n">
-        <v>45499.6428819444</v>
+        <v>45499.2916666667</v>
       </c>
       <c r="B675" t="n">
         <v>17910</v>
@@ -18867,6 +18870,32 @@
         <v>287</v>
       </c>
       <c r="H675" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="676">
+      <c r="A676" s="1" t="n">
+        <v>45502.6196412037</v>
+      </c>
+      <c r="B676" t="n">
+        <v>146330</v>
+      </c>
+      <c r="C676" t="n">
+        <v>0.850000023841858</v>
+      </c>
+      <c r="D676" t="n">
+        <v>0.829999983310699</v>
+      </c>
+      <c r="E676" t="n">
+        <v>0.850000023841858</v>
+      </c>
+      <c r="F676" t="n">
+        <v>0.846000015735626</v>
+      </c>
+      <c r="G676" t="s">
+        <v>323</v>
+      </c>
+      <c r="H676" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/TKF.MI.xlsx
+++ b/data/TKF.MI.xlsx
@@ -38,7 +38,7 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">4.11571788787842</t>
+    <t xml:space="preserve">4.11571741104126</t>
   </si>
   <si>
     <t xml:space="preserve">TKF.MI</t>
@@ -59,7 +59,7 @@
     <t xml:space="preserve">4.09679508209229</t>
   </si>
   <si>
-    <t xml:space="preserve">4.17721748352051</t>
+    <t xml:space="preserve">4.17721700668335</t>
   </si>
   <si>
     <t xml:space="preserve">4.25763893127441</t>
@@ -74,7 +74,7 @@
     <t xml:space="preserve">4.36644554138184</t>
   </si>
   <si>
-    <t xml:space="preserve">4.35698413848877</t>
+    <t xml:space="preserve">4.35698461532593</t>
   </si>
   <si>
     <t xml:space="preserve">4.40902185440063</t>
@@ -83,7 +83,7 @@
     <t xml:space="preserve">4.35225343704224</t>
   </si>
   <si>
-    <t xml:space="preserve">4.2907543182373</t>
+    <t xml:space="preserve">4.29075384140015</t>
   </si>
   <si>
     <t xml:space="preserve">4.24344730377197</t>
@@ -95,34 +95,34 @@
     <t xml:space="preserve">4.02583456039429</t>
   </si>
   <si>
-    <t xml:space="preserve">4.04002618789673</t>
+    <t xml:space="preserve">4.04002666473389</t>
   </si>
   <si>
     <t xml:space="preserve">4.05894947052002</t>
   </si>
   <si>
-    <t xml:space="preserve">3.9217586517334</t>
+    <t xml:space="preserve">3.92175889015198</t>
   </si>
   <si>
     <t xml:space="preserve">4.11098718643188</t>
   </si>
   <si>
-    <t xml:space="preserve">3.95960474014282</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.92648983001709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.94541263580322</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.04475736618042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.95487356185913</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.935950756073</t>
+    <t xml:space="preserve">3.95960426330566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.92648959159851</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.94541239738464</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.04475784301758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.95487380027771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.93595099449158</t>
   </si>
   <si>
     <t xml:space="preserve">4.03056526184082</t>
@@ -134,7 +134,7 @@
     <t xml:space="preserve">3.96906614303589</t>
   </si>
   <si>
-    <t xml:space="preserve">3.97379636764526</t>
+    <t xml:space="preserve">3.97379660606384</t>
   </si>
   <si>
     <t xml:space="preserve">3.85079836845398</t>
@@ -149,10 +149,10 @@
     <t xml:space="preserve">3.59533977508545</t>
   </si>
   <si>
-    <t xml:space="preserve">3.72779965400696</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.81295251846313</t>
+    <t xml:space="preserve">3.72779989242554</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.81295275688171</t>
   </si>
   <si>
     <t xml:space="preserve">3.99271941184998</t>
@@ -161,13 +161,13 @@
     <t xml:space="preserve">4.00691175460815</t>
   </si>
   <si>
-    <t xml:space="preserve">4.01164245605469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.87918257713318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.7656455039978</t>
+    <t xml:space="preserve">4.01164197921753</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.8791823387146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.76564526557922</t>
   </si>
   <si>
     <t xml:space="preserve">3.78456830978394</t>
@@ -176,7 +176,7 @@
     <t xml:space="preserve">3.82714462280273</t>
   </si>
   <si>
-    <t xml:space="preserve">3.53857111930847</t>
+    <t xml:space="preserve">3.53857135772705</t>
   </si>
   <si>
     <t xml:space="preserve">3.57641696929932</t>
@@ -191,10 +191,10 @@
     <t xml:space="preserve">3.37299633026123</t>
   </si>
   <si>
-    <t xml:space="preserve">3.23107504844666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.13646101951599</t>
+    <t xml:space="preserve">3.23107528686523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.13646078109741</t>
   </si>
   <si>
     <t xml:space="preserve">3.50072574615479</t>
@@ -221,10 +221,10 @@
     <t xml:space="preserve">4.37117624282837</t>
   </si>
   <si>
-    <t xml:space="preserve">4.30967712402344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.43740606307983</t>
+    <t xml:space="preserve">4.30967664718628</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.43740653991699</t>
   </si>
   <si>
     <t xml:space="preserve">4.37590742111206</t>
@@ -236,13 +236,13 @@
     <t xml:space="preserve">4.52255916595459</t>
   </si>
   <si>
-    <t xml:space="preserve">4.61717319488525</t>
+    <t xml:space="preserve">4.61717367172241</t>
   </si>
   <si>
     <t xml:space="preserve">4.68340301513672</t>
   </si>
   <si>
-    <t xml:space="preserve">4.9293999671936</t>
+    <t xml:space="preserve">4.92940044403076</t>
   </si>
   <si>
     <t xml:space="preserve">5.27240037918091</t>
@@ -18875,7 +18875,7 @@
     </row>
     <row r="676">
       <c r="A676" s="1" t="n">
-        <v>45502.6196412037</v>
+        <v>45502.2916666667</v>
       </c>
       <c r="B676" t="n">
         <v>146330</v>
@@ -18896,6 +18896,32 @@
         <v>323</v>
       </c>
       <c r="H676" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="677">
+      <c r="A677" s="1" t="n">
+        <v>45503.6285300926</v>
+      </c>
+      <c r="B677" t="n">
+        <v>4500</v>
+      </c>
+      <c r="C677" t="n">
+        <v>0.846000015735626</v>
+      </c>
+      <c r="D677" t="n">
+        <v>0.836000025272369</v>
+      </c>
+      <c r="E677" t="n">
+        <v>0.843999981880188</v>
+      </c>
+      <c r="F677" t="n">
+        <v>0.836000025272369</v>
+      </c>
+      <c r="G677" t="s">
+        <v>321</v>
+      </c>
+      <c r="H677" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/TKF.MI.xlsx
+++ b/data/TKF.MI.xlsx
@@ -38,7 +38,7 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">4.11571741104126</t>
+    <t xml:space="preserve">4.11571788787842</t>
   </si>
   <si>
     <t xml:space="preserve">TKF.MI</t>
@@ -59,7 +59,7 @@
     <t xml:space="preserve">4.09679508209229</t>
   </si>
   <si>
-    <t xml:space="preserve">4.17721700668335</t>
+    <t xml:space="preserve">4.17721748352051</t>
   </si>
   <si>
     <t xml:space="preserve">4.25763893127441</t>
@@ -74,7 +74,7 @@
     <t xml:space="preserve">4.36644554138184</t>
   </si>
   <si>
-    <t xml:space="preserve">4.35698461532593</t>
+    <t xml:space="preserve">4.35698413848877</t>
   </si>
   <si>
     <t xml:space="preserve">4.40902185440063</t>
@@ -83,7 +83,7 @@
     <t xml:space="preserve">4.35225343704224</t>
   </si>
   <si>
-    <t xml:space="preserve">4.29075384140015</t>
+    <t xml:space="preserve">4.2907543182373</t>
   </si>
   <si>
     <t xml:space="preserve">4.24344730377197</t>
@@ -95,34 +95,34 @@
     <t xml:space="preserve">4.02583456039429</t>
   </si>
   <si>
-    <t xml:space="preserve">4.04002666473389</t>
+    <t xml:space="preserve">4.04002618789673</t>
   </si>
   <si>
     <t xml:space="preserve">4.05894947052002</t>
   </si>
   <si>
-    <t xml:space="preserve">3.92175889015198</t>
+    <t xml:space="preserve">3.9217586517334</t>
   </si>
   <si>
     <t xml:space="preserve">4.11098718643188</t>
   </si>
   <si>
-    <t xml:space="preserve">3.95960426330566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.92648959159851</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.94541239738464</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.04475784301758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.95487380027771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.93595099449158</t>
+    <t xml:space="preserve">3.95960474014282</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.92648983001709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.94541263580322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.04475736618042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.95487356185913</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.935950756073</t>
   </si>
   <si>
     <t xml:space="preserve">4.03056526184082</t>
@@ -134,7 +134,7 @@
     <t xml:space="preserve">3.96906614303589</t>
   </si>
   <si>
-    <t xml:space="preserve">3.97379660606384</t>
+    <t xml:space="preserve">3.97379636764526</t>
   </si>
   <si>
     <t xml:space="preserve">3.85079836845398</t>
@@ -149,10 +149,10 @@
     <t xml:space="preserve">3.59533977508545</t>
   </si>
   <si>
-    <t xml:space="preserve">3.72779989242554</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.81295275688171</t>
+    <t xml:space="preserve">3.72779965400696</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.81295251846313</t>
   </si>
   <si>
     <t xml:space="preserve">3.99271941184998</t>
@@ -161,13 +161,13 @@
     <t xml:space="preserve">4.00691175460815</t>
   </si>
   <si>
-    <t xml:space="preserve">4.01164197921753</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.8791823387146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.76564526557922</t>
+    <t xml:space="preserve">4.01164245605469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.87918257713318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.7656455039978</t>
   </si>
   <si>
     <t xml:space="preserve">3.78456830978394</t>
@@ -176,7 +176,7 @@
     <t xml:space="preserve">3.82714462280273</t>
   </si>
   <si>
-    <t xml:space="preserve">3.53857135772705</t>
+    <t xml:space="preserve">3.53857111930847</t>
   </si>
   <si>
     <t xml:space="preserve">3.57641696929932</t>
@@ -191,10 +191,10 @@
     <t xml:space="preserve">3.37299633026123</t>
   </si>
   <si>
-    <t xml:space="preserve">3.23107528686523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.13646078109741</t>
+    <t xml:space="preserve">3.23107504844666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.13646101951599</t>
   </si>
   <si>
     <t xml:space="preserve">3.50072574615479</t>
@@ -221,10 +221,10 @@
     <t xml:space="preserve">4.37117624282837</t>
   </si>
   <si>
-    <t xml:space="preserve">4.30967664718628</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.43740653991699</t>
+    <t xml:space="preserve">4.30967712402344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.43740606307983</t>
   </si>
   <si>
     <t xml:space="preserve">4.37590742111206</t>
@@ -236,13 +236,13 @@
     <t xml:space="preserve">4.52255916595459</t>
   </si>
   <si>
-    <t xml:space="preserve">4.61717367172241</t>
+    <t xml:space="preserve">4.61717319488525</t>
   </si>
   <si>
     <t xml:space="preserve">4.68340301513672</t>
   </si>
   <si>
-    <t xml:space="preserve">4.92940044403076</t>
+    <t xml:space="preserve">4.9293999671936</t>
   </si>
   <si>
     <t xml:space="preserve">5.27240037918091</t>
@@ -18901,7 +18901,7 @@
     </row>
     <row r="677">
       <c r="A677" s="1" t="n">
-        <v>45503.6285300926</v>
+        <v>45503.2916666667</v>
       </c>
       <c r="B677" t="n">
         <v>4500</v>
@@ -18922,6 +18922,32 @@
         <v>321</v>
       </c>
       <c r="H677" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="678">
+      <c r="A678" s="1" t="n">
+        <v>45504.5702777778</v>
+      </c>
+      <c r="B678" t="n">
+        <v>36804</v>
+      </c>
+      <c r="C678" t="n">
+        <v>0.84799998998642</v>
+      </c>
+      <c r="D678" t="n">
+        <v>0.829999983310699</v>
+      </c>
+      <c r="E678" t="n">
+        <v>0.833999991416931</v>
+      </c>
+      <c r="F678" t="n">
+        <v>0.829999983310699</v>
+      </c>
+      <c r="G678" t="s">
+        <v>257</v>
+      </c>
+      <c r="H678" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/TKF.MI.xlsx
+++ b/data/TKF.MI.xlsx
@@ -18927,7 +18927,7 @@
     </row>
     <row r="678">
       <c r="A678" s="1" t="n">
-        <v>45504.5702777778</v>
+        <v>45504.2916666667</v>
       </c>
       <c r="B678" t="n">
         <v>36804</v>
@@ -18948,6 +18948,32 @@
         <v>257</v>
       </c>
       <c r="H678" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="679">
+      <c r="A679" s="1" t="n">
+        <v>45505.6495486111</v>
+      </c>
+      <c r="B679" t="n">
+        <v>22268</v>
+      </c>
+      <c r="C679" t="n">
+        <v>0.84799998998642</v>
+      </c>
+      <c r="D679" t="n">
+        <v>0.833999991416931</v>
+      </c>
+      <c r="E679" t="n">
+        <v>0.833999991416931</v>
+      </c>
+      <c r="F679" t="n">
+        <v>0.84799998998642</v>
+      </c>
+      <c r="G679" t="s">
+        <v>315</v>
+      </c>
+      <c r="H679" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/TKF.MI.xlsx
+++ b/data/TKF.MI.xlsx
@@ -18953,7 +18953,7 @@
     </row>
     <row r="679">
       <c r="A679" s="1" t="n">
-        <v>45505.6495486111</v>
+        <v>45505.2916666667</v>
       </c>
       <c r="B679" t="n">
         <v>22268</v>
@@ -18974,6 +18974,32 @@
         <v>315</v>
       </c>
       <c r="H679" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="680">
+      <c r="A680" s="1" t="n">
+        <v>45506.6396643519</v>
+      </c>
+      <c r="B680" t="n">
+        <v>28542</v>
+      </c>
+      <c r="C680" t="n">
+        <v>0.84799998998642</v>
+      </c>
+      <c r="D680" t="n">
+        <v>0.829999983310699</v>
+      </c>
+      <c r="E680" t="n">
+        <v>0.84799998998642</v>
+      </c>
+      <c r="F680" t="n">
+        <v>0.833999991416931</v>
+      </c>
+      <c r="G680" t="s">
+        <v>320</v>
+      </c>
+      <c r="H680" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/TKF.MI.xlsx
+++ b/data/TKF.MI.xlsx
@@ -18979,7 +18979,7 @@
     </row>
     <row r="680">
       <c r="A680" s="1" t="n">
-        <v>45506.6396643519</v>
+        <v>45506.2916666667</v>
       </c>
       <c r="B680" t="n">
         <v>28542</v>
@@ -19000,6 +19000,32 @@
         <v>320</v>
       </c>
       <c r="H680" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="681">
+      <c r="A681" s="1" t="n">
+        <v>45509.444849537</v>
+      </c>
+      <c r="B681" t="n">
+        <v>10650</v>
+      </c>
+      <c r="C681" t="n">
+        <v>0.833999991416931</v>
+      </c>
+      <c r="D681" t="n">
+        <v>0.819999992847443</v>
+      </c>
+      <c r="E681" t="n">
+        <v>0.829999983310699</v>
+      </c>
+      <c r="F681" t="n">
+        <v>0.833999991416931</v>
+      </c>
+      <c r="G681" t="s">
+        <v>320</v>
+      </c>
+      <c r="H681" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/TKF.MI.xlsx
+++ b/data/TKF.MI.xlsx
@@ -19005,10 +19005,10 @@
     </row>
     <row r="681">
       <c r="A681" s="1" t="n">
-        <v>45509.444849537</v>
+        <v>45509.6452777778</v>
       </c>
       <c r="B681" t="n">
-        <v>10650</v>
+        <v>15650</v>
       </c>
       <c r="C681" t="n">
         <v>0.833999991416931</v>
@@ -19020,10 +19020,10 @@
         <v>0.829999983310699</v>
       </c>
       <c r="F681" t="n">
-        <v>0.833999991416931</v>
+        <v>0.828000009059906</v>
       </c>
       <c r="G681" t="s">
-        <v>320</v>
+        <v>297</v>
       </c>
       <c r="H681" t="s">
         <v>9</v>

--- a/data/TKF.MI.xlsx
+++ b/data/TKF.MI.xlsx
@@ -38,7 +38,7 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">4.11571788787842</t>
+    <t xml:space="preserve">4.11571741104126</t>
   </si>
   <si>
     <t xml:space="preserve">TKF.MI</t>
@@ -59,7 +59,7 @@
     <t xml:space="preserve">4.09679508209229</t>
   </si>
   <si>
-    <t xml:space="preserve">4.17721748352051</t>
+    <t xml:space="preserve">4.17721700668335</t>
   </si>
   <si>
     <t xml:space="preserve">4.25763893127441</t>
@@ -74,7 +74,7 @@
     <t xml:space="preserve">4.36644554138184</t>
   </si>
   <si>
-    <t xml:space="preserve">4.35698413848877</t>
+    <t xml:space="preserve">4.35698461532593</t>
   </si>
   <si>
     <t xml:space="preserve">4.40902185440063</t>
@@ -83,7 +83,7 @@
     <t xml:space="preserve">4.35225343704224</t>
   </si>
   <si>
-    <t xml:space="preserve">4.2907543182373</t>
+    <t xml:space="preserve">4.29075384140015</t>
   </si>
   <si>
     <t xml:space="preserve">4.24344730377197</t>
@@ -95,34 +95,34 @@
     <t xml:space="preserve">4.02583456039429</t>
   </si>
   <si>
-    <t xml:space="preserve">4.04002618789673</t>
+    <t xml:space="preserve">4.04002666473389</t>
   </si>
   <si>
     <t xml:space="preserve">4.05894947052002</t>
   </si>
   <si>
-    <t xml:space="preserve">3.9217586517334</t>
+    <t xml:space="preserve">3.92175889015198</t>
   </si>
   <si>
     <t xml:space="preserve">4.11098718643188</t>
   </si>
   <si>
-    <t xml:space="preserve">3.95960474014282</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.92648983001709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.94541263580322</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.04475736618042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.95487356185913</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.935950756073</t>
+    <t xml:space="preserve">3.95960426330566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.92648959159851</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.94541239738464</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.04475784301758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.95487380027771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.93595099449158</t>
   </si>
   <si>
     <t xml:space="preserve">4.03056526184082</t>
@@ -134,7 +134,7 @@
     <t xml:space="preserve">3.96906614303589</t>
   </si>
   <si>
-    <t xml:space="preserve">3.97379636764526</t>
+    <t xml:space="preserve">3.97379660606384</t>
   </si>
   <si>
     <t xml:space="preserve">3.85079836845398</t>
@@ -149,10 +149,10 @@
     <t xml:space="preserve">3.59533977508545</t>
   </si>
   <si>
-    <t xml:space="preserve">3.72779965400696</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.81295251846313</t>
+    <t xml:space="preserve">3.72779989242554</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.81295275688171</t>
   </si>
   <si>
     <t xml:space="preserve">3.99271941184998</t>
@@ -161,13 +161,13 @@
     <t xml:space="preserve">4.00691175460815</t>
   </si>
   <si>
-    <t xml:space="preserve">4.01164245605469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.87918257713318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.7656455039978</t>
+    <t xml:space="preserve">4.01164197921753</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.8791823387146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.76564526557922</t>
   </si>
   <si>
     <t xml:space="preserve">3.78456830978394</t>
@@ -176,7 +176,7 @@
     <t xml:space="preserve">3.82714462280273</t>
   </si>
   <si>
-    <t xml:space="preserve">3.53857111930847</t>
+    <t xml:space="preserve">3.53857135772705</t>
   </si>
   <si>
     <t xml:space="preserve">3.57641696929932</t>
@@ -191,10 +191,10 @@
     <t xml:space="preserve">3.37299633026123</t>
   </si>
   <si>
-    <t xml:space="preserve">3.23107504844666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.13646101951599</t>
+    <t xml:space="preserve">3.23107528686523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.13646078109741</t>
   </si>
   <si>
     <t xml:space="preserve">3.50072574615479</t>
@@ -221,10 +221,10 @@
     <t xml:space="preserve">4.37117624282837</t>
   </si>
   <si>
-    <t xml:space="preserve">4.30967712402344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.43740606307983</t>
+    <t xml:space="preserve">4.30967664718628</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.43740653991699</t>
   </si>
   <si>
     <t xml:space="preserve">4.37590742111206</t>
@@ -236,13 +236,13 @@
     <t xml:space="preserve">4.52255916595459</t>
   </si>
   <si>
-    <t xml:space="preserve">4.61717319488525</t>
+    <t xml:space="preserve">4.61717367172241</t>
   </si>
   <si>
     <t xml:space="preserve">4.68340301513672</t>
   </si>
   <si>
-    <t xml:space="preserve">4.9293999671936</t>
+    <t xml:space="preserve">4.92940044403076</t>
   </si>
   <si>
     <t xml:space="preserve">5.27240037918091</t>
@@ -19005,7 +19005,7 @@
     </row>
     <row r="681">
       <c r="A681" s="1" t="n">
-        <v>45509.6452777778</v>
+        <v>45509.2916666667</v>
       </c>
       <c r="B681" t="n">
         <v>15650</v>
@@ -19026,6 +19026,58 @@
         <v>297</v>
       </c>
       <c r="H681" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="682">
+      <c r="A682" s="1" t="n">
+        <v>45510.2916666667</v>
+      </c>
+      <c r="B682" t="n">
+        <v>4904</v>
+      </c>
+      <c r="C682" t="n">
+        <v>0.839999973773956</v>
+      </c>
+      <c r="D682" t="n">
+        <v>0.829999983310699</v>
+      </c>
+      <c r="E682" t="n">
+        <v>0.839999973773956</v>
+      </c>
+      <c r="F682" t="n">
+        <v>0.832000017166138</v>
+      </c>
+      <c r="G682" t="s">
+        <v>304</v>
+      </c>
+      <c r="H682" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="683">
+      <c r="A683" s="1" t="n">
+        <v>45511.3423263889</v>
+      </c>
+      <c r="B683" t="n">
+        <v>23030</v>
+      </c>
+      <c r="C683" t="n">
+        <v>0.839999973773956</v>
+      </c>
+      <c r="D683" t="n">
+        <v>0.819999992847443</v>
+      </c>
+      <c r="E683" t="n">
+        <v>0.825999975204468</v>
+      </c>
+      <c r="F683" t="n">
+        <v>0.839999973773956</v>
+      </c>
+      <c r="G683" t="s">
+        <v>289</v>
+      </c>
+      <c r="H683" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/TKF.MI.xlsx
+++ b/data/TKF.MI.xlsx
@@ -19057,7 +19057,7 @@
     </row>
     <row r="683">
       <c r="A683" s="1" t="n">
-        <v>45511.3423263889</v>
+        <v>45511.2916666667</v>
       </c>
       <c r="B683" t="n">
         <v>23030</v>
@@ -19078,6 +19078,32 @@
         <v>289</v>
       </c>
       <c r="H683" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="684">
+      <c r="A684" s="1" t="n">
+        <v>45512.5978356482</v>
+      </c>
+      <c r="B684" t="n">
+        <v>72175</v>
+      </c>
+      <c r="C684" t="n">
+        <v>0.825999975204468</v>
+      </c>
+      <c r="D684" t="n">
+        <v>0.794000029563904</v>
+      </c>
+      <c r="E684" t="n">
+        <v>0.825999975204468</v>
+      </c>
+      <c r="F684" t="n">
+        <v>0.819999992847443</v>
+      </c>
+      <c r="G684" t="s">
+        <v>254</v>
+      </c>
+      <c r="H684" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/TKF.MI.xlsx
+++ b/data/TKF.MI.xlsx
@@ -38,7 +38,7 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">4.11571741104126</t>
+    <t xml:space="preserve">4.11571788787842</t>
   </si>
   <si>
     <t xml:space="preserve">TKF.MI</t>
@@ -59,7 +59,7 @@
     <t xml:space="preserve">4.09679508209229</t>
   </si>
   <si>
-    <t xml:space="preserve">4.17721700668335</t>
+    <t xml:space="preserve">4.17721748352051</t>
   </si>
   <si>
     <t xml:space="preserve">4.25763893127441</t>
@@ -74,7 +74,7 @@
     <t xml:space="preserve">4.36644554138184</t>
   </si>
   <si>
-    <t xml:space="preserve">4.35698461532593</t>
+    <t xml:space="preserve">4.35698413848877</t>
   </si>
   <si>
     <t xml:space="preserve">4.40902185440063</t>
@@ -83,7 +83,7 @@
     <t xml:space="preserve">4.35225343704224</t>
   </si>
   <si>
-    <t xml:space="preserve">4.29075384140015</t>
+    <t xml:space="preserve">4.2907543182373</t>
   </si>
   <si>
     <t xml:space="preserve">4.24344730377197</t>
@@ -95,34 +95,34 @@
     <t xml:space="preserve">4.02583456039429</t>
   </si>
   <si>
-    <t xml:space="preserve">4.04002666473389</t>
+    <t xml:space="preserve">4.04002618789673</t>
   </si>
   <si>
     <t xml:space="preserve">4.05894947052002</t>
   </si>
   <si>
-    <t xml:space="preserve">3.92175889015198</t>
+    <t xml:space="preserve">3.9217586517334</t>
   </si>
   <si>
     <t xml:space="preserve">4.11098718643188</t>
   </si>
   <si>
-    <t xml:space="preserve">3.95960426330566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.92648959159851</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.94541239738464</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.04475784301758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.95487380027771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.93595099449158</t>
+    <t xml:space="preserve">3.95960474014282</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.92648983001709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.94541263580322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.04475736618042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.95487356185913</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.935950756073</t>
   </si>
   <si>
     <t xml:space="preserve">4.03056526184082</t>
@@ -134,7 +134,7 @@
     <t xml:space="preserve">3.96906614303589</t>
   </si>
   <si>
-    <t xml:space="preserve">3.97379660606384</t>
+    <t xml:space="preserve">3.97379636764526</t>
   </si>
   <si>
     <t xml:space="preserve">3.85079836845398</t>
@@ -149,10 +149,10 @@
     <t xml:space="preserve">3.59533977508545</t>
   </si>
   <si>
-    <t xml:space="preserve">3.72779989242554</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.81295275688171</t>
+    <t xml:space="preserve">3.72779965400696</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.81295251846313</t>
   </si>
   <si>
     <t xml:space="preserve">3.99271941184998</t>
@@ -161,13 +161,13 @@
     <t xml:space="preserve">4.00691175460815</t>
   </si>
   <si>
-    <t xml:space="preserve">4.01164197921753</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.8791823387146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.76564526557922</t>
+    <t xml:space="preserve">4.01164245605469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.87918257713318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.7656455039978</t>
   </si>
   <si>
     <t xml:space="preserve">3.78456830978394</t>
@@ -176,7 +176,7 @@
     <t xml:space="preserve">3.82714462280273</t>
   </si>
   <si>
-    <t xml:space="preserve">3.53857135772705</t>
+    <t xml:space="preserve">3.53857111930847</t>
   </si>
   <si>
     <t xml:space="preserve">3.57641696929932</t>
@@ -191,10 +191,10 @@
     <t xml:space="preserve">3.37299633026123</t>
   </si>
   <si>
-    <t xml:space="preserve">3.23107528686523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.13646078109741</t>
+    <t xml:space="preserve">3.23107504844666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.13646101951599</t>
   </si>
   <si>
     <t xml:space="preserve">3.50072574615479</t>
@@ -221,10 +221,10 @@
     <t xml:space="preserve">4.37117624282837</t>
   </si>
   <si>
-    <t xml:space="preserve">4.30967664718628</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.43740653991699</t>
+    <t xml:space="preserve">4.30967712402344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.43740606307983</t>
   </si>
   <si>
     <t xml:space="preserve">4.37590742111206</t>
@@ -236,13 +236,13 @@
     <t xml:space="preserve">4.52255916595459</t>
   </si>
   <si>
-    <t xml:space="preserve">4.61717367172241</t>
+    <t xml:space="preserve">4.61717319488525</t>
   </si>
   <si>
     <t xml:space="preserve">4.68340301513672</t>
   </si>
   <si>
-    <t xml:space="preserve">4.92940044403076</t>
+    <t xml:space="preserve">4.9293999671936</t>
   </si>
   <si>
     <t xml:space="preserve">5.27240037918091</t>
@@ -19083,7 +19083,7 @@
     </row>
     <row r="684">
       <c r="A684" s="1" t="n">
-        <v>45512.5978356482</v>
+        <v>45512.2916666667</v>
       </c>
       <c r="B684" t="n">
         <v>72175</v>
@@ -19104,6 +19104,32 @@
         <v>254</v>
       </c>
       <c r="H684" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="685">
+      <c r="A685" s="1" t="n">
+        <v>45513.6344560185</v>
+      </c>
+      <c r="B685" t="n">
+        <v>16982</v>
+      </c>
+      <c r="C685" t="n">
+        <v>0.828000009059906</v>
+      </c>
+      <c r="D685" t="n">
+        <v>0.805999994277954</v>
+      </c>
+      <c r="E685" t="n">
+        <v>0.824000000953674</v>
+      </c>
+      <c r="F685" t="n">
+        <v>0.819999992847443</v>
+      </c>
+      <c r="G685" t="s">
+        <v>254</v>
+      </c>
+      <c r="H685" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/TKF.MI.xlsx
+++ b/data/TKF.MI.xlsx
@@ -38,7 +38,7 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">4.11571788787842</t>
+    <t xml:space="preserve">4.11571741104126</t>
   </si>
   <si>
     <t xml:space="preserve">TKF.MI</t>
@@ -59,7 +59,7 @@
     <t xml:space="preserve">4.09679508209229</t>
   </si>
   <si>
-    <t xml:space="preserve">4.17721748352051</t>
+    <t xml:space="preserve">4.17721700668335</t>
   </si>
   <si>
     <t xml:space="preserve">4.25763893127441</t>
@@ -74,7 +74,7 @@
     <t xml:space="preserve">4.36644554138184</t>
   </si>
   <si>
-    <t xml:space="preserve">4.35698413848877</t>
+    <t xml:space="preserve">4.35698461532593</t>
   </si>
   <si>
     <t xml:space="preserve">4.40902185440063</t>
@@ -83,7 +83,7 @@
     <t xml:space="preserve">4.35225343704224</t>
   </si>
   <si>
-    <t xml:space="preserve">4.2907543182373</t>
+    <t xml:space="preserve">4.29075384140015</t>
   </si>
   <si>
     <t xml:space="preserve">4.24344730377197</t>
@@ -95,34 +95,34 @@
     <t xml:space="preserve">4.02583456039429</t>
   </si>
   <si>
-    <t xml:space="preserve">4.04002618789673</t>
+    <t xml:space="preserve">4.04002666473389</t>
   </si>
   <si>
     <t xml:space="preserve">4.05894947052002</t>
   </si>
   <si>
-    <t xml:space="preserve">3.9217586517334</t>
+    <t xml:space="preserve">3.92175889015198</t>
   </si>
   <si>
     <t xml:space="preserve">4.11098718643188</t>
   </si>
   <si>
-    <t xml:space="preserve">3.95960474014282</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.92648983001709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.94541263580322</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.04475736618042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.95487356185913</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.935950756073</t>
+    <t xml:space="preserve">3.95960426330566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.92648959159851</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.94541239738464</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.04475784301758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.95487380027771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.93595099449158</t>
   </si>
   <si>
     <t xml:space="preserve">4.03056526184082</t>
@@ -134,7 +134,7 @@
     <t xml:space="preserve">3.96906614303589</t>
   </si>
   <si>
-    <t xml:space="preserve">3.97379636764526</t>
+    <t xml:space="preserve">3.97379660606384</t>
   </si>
   <si>
     <t xml:space="preserve">3.85079836845398</t>
@@ -149,10 +149,10 @@
     <t xml:space="preserve">3.59533977508545</t>
   </si>
   <si>
-    <t xml:space="preserve">3.72779965400696</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.81295251846313</t>
+    <t xml:space="preserve">3.72779989242554</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.81295275688171</t>
   </si>
   <si>
     <t xml:space="preserve">3.99271941184998</t>
@@ -161,13 +161,13 @@
     <t xml:space="preserve">4.00691175460815</t>
   </si>
   <si>
-    <t xml:space="preserve">4.01164245605469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.87918257713318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.7656455039978</t>
+    <t xml:space="preserve">4.01164197921753</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.8791823387146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.76564526557922</t>
   </si>
   <si>
     <t xml:space="preserve">3.78456830978394</t>
@@ -176,7 +176,7 @@
     <t xml:space="preserve">3.82714462280273</t>
   </si>
   <si>
-    <t xml:space="preserve">3.53857111930847</t>
+    <t xml:space="preserve">3.53857135772705</t>
   </si>
   <si>
     <t xml:space="preserve">3.57641696929932</t>
@@ -191,10 +191,10 @@
     <t xml:space="preserve">3.37299633026123</t>
   </si>
   <si>
-    <t xml:space="preserve">3.23107504844666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.13646101951599</t>
+    <t xml:space="preserve">3.23107528686523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.13646078109741</t>
   </si>
   <si>
     <t xml:space="preserve">3.50072574615479</t>
@@ -221,10 +221,10 @@
     <t xml:space="preserve">4.37117624282837</t>
   </si>
   <si>
-    <t xml:space="preserve">4.30967712402344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.43740606307983</t>
+    <t xml:space="preserve">4.30967664718628</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.43740653991699</t>
   </si>
   <si>
     <t xml:space="preserve">4.37590742111206</t>
@@ -236,13 +236,13 @@
     <t xml:space="preserve">4.52255916595459</t>
   </si>
   <si>
-    <t xml:space="preserve">4.61717319488525</t>
+    <t xml:space="preserve">4.61717367172241</t>
   </si>
   <si>
     <t xml:space="preserve">4.68340301513672</t>
   </si>
   <si>
-    <t xml:space="preserve">4.9293999671936</t>
+    <t xml:space="preserve">4.92940044403076</t>
   </si>
   <si>
     <t xml:space="preserve">5.27240037918091</t>
@@ -19109,7 +19109,7 @@
     </row>
     <row r="685">
       <c r="A685" s="1" t="n">
-        <v>45513.6344560185</v>
+        <v>45513.2916666667</v>
       </c>
       <c r="B685" t="n">
         <v>16982</v>

--- a/data/TKF.MI.xlsx
+++ b/data/TKF.MI.xlsx
@@ -19133,6 +19133,58 @@
         <v>9</v>
       </c>
     </row>
+    <row r="686">
+      <c r="A686" s="1" t="n">
+        <v>45516.2916666667</v>
+      </c>
+      <c r="B686" t="n">
+        <v>0</v>
+      </c>
+      <c r="C686" t="n">
+        <v>0.819999992847443</v>
+      </c>
+      <c r="D686" t="n">
+        <v>0.819999992847443</v>
+      </c>
+      <c r="E686" t="n">
+        <v>0.819999992847443</v>
+      </c>
+      <c r="F686" t="n">
+        <v>0.819999992847443</v>
+      </c>
+      <c r="G686" t="s">
+        <v>254</v>
+      </c>
+      <c r="H686" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="687">
+      <c r="A687" s="1" t="n">
+        <v>45517.4752662037</v>
+      </c>
+      <c r="B687" t="n">
+        <v>4240</v>
+      </c>
+      <c r="C687" t="n">
+        <v>0.839999973773956</v>
+      </c>
+      <c r="D687" t="n">
+        <v>0.839999973773956</v>
+      </c>
+      <c r="E687" t="n">
+        <v>0.839999973773956</v>
+      </c>
+      <c r="F687" t="n">
+        <v>0.839999973773956</v>
+      </c>
+      <c r="G687" t="s">
+        <v>289</v>
+      </c>
+      <c r="H687" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/TKF.MI.xlsx
+++ b/data/TKF.MI.xlsx
@@ -38,7 +38,7 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">4.11571741104126</t>
+    <t xml:space="preserve">4.11571788787842</t>
   </si>
   <si>
     <t xml:space="preserve">TKF.MI</t>
@@ -59,7 +59,7 @@
     <t xml:space="preserve">4.09679508209229</t>
   </si>
   <si>
-    <t xml:space="preserve">4.17721700668335</t>
+    <t xml:space="preserve">4.17721748352051</t>
   </si>
   <si>
     <t xml:space="preserve">4.25763893127441</t>
@@ -74,7 +74,7 @@
     <t xml:space="preserve">4.36644554138184</t>
   </si>
   <si>
-    <t xml:space="preserve">4.35698461532593</t>
+    <t xml:space="preserve">4.35698413848877</t>
   </si>
   <si>
     <t xml:space="preserve">4.40902185440063</t>
@@ -83,7 +83,7 @@
     <t xml:space="preserve">4.35225343704224</t>
   </si>
   <si>
-    <t xml:space="preserve">4.29075384140015</t>
+    <t xml:space="preserve">4.2907543182373</t>
   </si>
   <si>
     <t xml:space="preserve">4.24344730377197</t>
@@ -95,34 +95,34 @@
     <t xml:space="preserve">4.02583456039429</t>
   </si>
   <si>
-    <t xml:space="preserve">4.04002666473389</t>
+    <t xml:space="preserve">4.04002618789673</t>
   </si>
   <si>
     <t xml:space="preserve">4.05894947052002</t>
   </si>
   <si>
-    <t xml:space="preserve">3.92175889015198</t>
+    <t xml:space="preserve">3.9217586517334</t>
   </si>
   <si>
     <t xml:space="preserve">4.11098718643188</t>
   </si>
   <si>
-    <t xml:space="preserve">3.95960426330566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.92648959159851</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.94541239738464</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.04475784301758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.95487380027771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.93595099449158</t>
+    <t xml:space="preserve">3.95960474014282</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.92648983001709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.94541263580322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.04475736618042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.95487356185913</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.935950756073</t>
   </si>
   <si>
     <t xml:space="preserve">4.03056526184082</t>
@@ -134,7 +134,7 @@
     <t xml:space="preserve">3.96906614303589</t>
   </si>
   <si>
-    <t xml:space="preserve">3.97379660606384</t>
+    <t xml:space="preserve">3.97379636764526</t>
   </si>
   <si>
     <t xml:space="preserve">3.85079836845398</t>
@@ -149,10 +149,10 @@
     <t xml:space="preserve">3.59533977508545</t>
   </si>
   <si>
-    <t xml:space="preserve">3.72779989242554</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.81295275688171</t>
+    <t xml:space="preserve">3.72779965400696</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.81295251846313</t>
   </si>
   <si>
     <t xml:space="preserve">3.99271941184998</t>
@@ -161,13 +161,13 @@
     <t xml:space="preserve">4.00691175460815</t>
   </si>
   <si>
-    <t xml:space="preserve">4.01164197921753</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.8791823387146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.76564526557922</t>
+    <t xml:space="preserve">4.01164245605469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.87918257713318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.7656455039978</t>
   </si>
   <si>
     <t xml:space="preserve">3.78456830978394</t>
@@ -176,7 +176,7 @@
     <t xml:space="preserve">3.82714462280273</t>
   </si>
   <si>
-    <t xml:space="preserve">3.53857135772705</t>
+    <t xml:space="preserve">3.53857111930847</t>
   </si>
   <si>
     <t xml:space="preserve">3.57641696929932</t>
@@ -191,10 +191,10 @@
     <t xml:space="preserve">3.37299633026123</t>
   </si>
   <si>
-    <t xml:space="preserve">3.23107528686523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.13646078109741</t>
+    <t xml:space="preserve">3.23107504844666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.13646101951599</t>
   </si>
   <si>
     <t xml:space="preserve">3.50072574615479</t>
@@ -221,10 +221,10 @@
     <t xml:space="preserve">4.37117624282837</t>
   </si>
   <si>
-    <t xml:space="preserve">4.30967664718628</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.43740653991699</t>
+    <t xml:space="preserve">4.30967712402344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.43740606307983</t>
   </si>
   <si>
     <t xml:space="preserve">4.37590742111206</t>
@@ -236,13 +236,13 @@
     <t xml:space="preserve">4.52255916595459</t>
   </si>
   <si>
-    <t xml:space="preserve">4.61717367172241</t>
+    <t xml:space="preserve">4.61717319488525</t>
   </si>
   <si>
     <t xml:space="preserve">4.68340301513672</t>
   </si>
   <si>
-    <t xml:space="preserve">4.92940044403076</t>
+    <t xml:space="preserve">4.9293999671936</t>
   </si>
   <si>
     <t xml:space="preserve">5.27240037918091</t>
@@ -19161,7 +19161,7 @@
     </row>
     <row r="687">
       <c r="A687" s="1" t="n">
-        <v>45517.4752662037</v>
+        <v>45517.2916666667</v>
       </c>
       <c r="B687" t="n">
         <v>4240</v>
@@ -19182,6 +19182,32 @@
         <v>289</v>
       </c>
       <c r="H687" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="688">
+      <c r="A688" s="1" t="n">
+        <v>45518.5964930556</v>
+      </c>
+      <c r="B688" t="n">
+        <v>1650</v>
+      </c>
+      <c r="C688" t="n">
+        <v>0.837999999523163</v>
+      </c>
+      <c r="D688" t="n">
+        <v>0.837999999523163</v>
+      </c>
+      <c r="E688" t="n">
+        <v>0.837999999523163</v>
+      </c>
+      <c r="F688" t="n">
+        <v>0.837999999523163</v>
+      </c>
+      <c r="G688" t="s">
+        <v>314</v>
+      </c>
+      <c r="H688" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/TKF.MI.xlsx
+++ b/data/TKF.MI.xlsx
@@ -38,7 +38,7 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">4.11571788787842</t>
+    <t xml:space="preserve">4.11571741104126</t>
   </si>
   <si>
     <t xml:space="preserve">TKF.MI</t>
@@ -59,7 +59,7 @@
     <t xml:space="preserve">4.09679508209229</t>
   </si>
   <si>
-    <t xml:space="preserve">4.17721748352051</t>
+    <t xml:space="preserve">4.17721700668335</t>
   </si>
   <si>
     <t xml:space="preserve">4.25763893127441</t>
@@ -74,7 +74,7 @@
     <t xml:space="preserve">4.36644554138184</t>
   </si>
   <si>
-    <t xml:space="preserve">4.35698413848877</t>
+    <t xml:space="preserve">4.35698461532593</t>
   </si>
   <si>
     <t xml:space="preserve">4.40902185440063</t>
@@ -83,7 +83,7 @@
     <t xml:space="preserve">4.35225343704224</t>
   </si>
   <si>
-    <t xml:space="preserve">4.2907543182373</t>
+    <t xml:space="preserve">4.29075384140015</t>
   </si>
   <si>
     <t xml:space="preserve">4.24344730377197</t>
@@ -95,34 +95,34 @@
     <t xml:space="preserve">4.02583456039429</t>
   </si>
   <si>
-    <t xml:space="preserve">4.04002618789673</t>
+    <t xml:space="preserve">4.04002666473389</t>
   </si>
   <si>
     <t xml:space="preserve">4.05894947052002</t>
   </si>
   <si>
-    <t xml:space="preserve">3.9217586517334</t>
+    <t xml:space="preserve">3.92175889015198</t>
   </si>
   <si>
     <t xml:space="preserve">4.11098718643188</t>
   </si>
   <si>
-    <t xml:space="preserve">3.95960474014282</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.92648983001709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.94541263580322</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.04475736618042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.95487356185913</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.935950756073</t>
+    <t xml:space="preserve">3.95960426330566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.92648959159851</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.94541239738464</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.04475784301758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.95487380027771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.93595099449158</t>
   </si>
   <si>
     <t xml:space="preserve">4.03056526184082</t>
@@ -134,7 +134,7 @@
     <t xml:space="preserve">3.96906614303589</t>
   </si>
   <si>
-    <t xml:space="preserve">3.97379636764526</t>
+    <t xml:space="preserve">3.97379660606384</t>
   </si>
   <si>
     <t xml:space="preserve">3.85079836845398</t>
@@ -149,10 +149,10 @@
     <t xml:space="preserve">3.59533977508545</t>
   </si>
   <si>
-    <t xml:space="preserve">3.72779965400696</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.81295251846313</t>
+    <t xml:space="preserve">3.72779989242554</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.81295275688171</t>
   </si>
   <si>
     <t xml:space="preserve">3.99271941184998</t>
@@ -161,13 +161,13 @@
     <t xml:space="preserve">4.00691175460815</t>
   </si>
   <si>
-    <t xml:space="preserve">4.01164245605469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.87918257713318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.7656455039978</t>
+    <t xml:space="preserve">4.01164197921753</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.8791823387146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.76564526557922</t>
   </si>
   <si>
     <t xml:space="preserve">3.78456830978394</t>
@@ -176,7 +176,7 @@
     <t xml:space="preserve">3.82714462280273</t>
   </si>
   <si>
-    <t xml:space="preserve">3.53857111930847</t>
+    <t xml:space="preserve">3.53857135772705</t>
   </si>
   <si>
     <t xml:space="preserve">3.57641696929932</t>
@@ -191,10 +191,10 @@
     <t xml:space="preserve">3.37299633026123</t>
   </si>
   <si>
-    <t xml:space="preserve">3.23107504844666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.13646101951599</t>
+    <t xml:space="preserve">3.23107528686523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.13646078109741</t>
   </si>
   <si>
     <t xml:space="preserve">3.50072574615479</t>
@@ -221,10 +221,10 @@
     <t xml:space="preserve">4.37117624282837</t>
   </si>
   <si>
-    <t xml:space="preserve">4.30967712402344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.43740606307983</t>
+    <t xml:space="preserve">4.30967664718628</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.43740653991699</t>
   </si>
   <si>
     <t xml:space="preserve">4.37590742111206</t>
@@ -236,13 +236,13 @@
     <t xml:space="preserve">4.52255916595459</t>
   </si>
   <si>
-    <t xml:space="preserve">4.61717319488525</t>
+    <t xml:space="preserve">4.61717367172241</t>
   </si>
   <si>
     <t xml:space="preserve">4.68340301513672</t>
   </si>
   <si>
-    <t xml:space="preserve">4.9293999671936</t>
+    <t xml:space="preserve">4.92940044403076</t>
   </si>
   <si>
     <t xml:space="preserve">5.27240037918091</t>
@@ -19187,7 +19187,7 @@
     </row>
     <row r="688">
       <c r="A688" s="1" t="n">
-        <v>45518.5964930556</v>
+        <v>45518.2916666667</v>
       </c>
       <c r="B688" t="n">
         <v>1650</v>

--- a/data/TKF.MI.xlsx
+++ b/data/TKF.MI.xlsx
@@ -38,7 +38,7 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">4.11571741104126</t>
+    <t xml:space="preserve">4.11571788787842</t>
   </si>
   <si>
     <t xml:space="preserve">TKF.MI</t>
@@ -59,7 +59,7 @@
     <t xml:space="preserve">4.09679508209229</t>
   </si>
   <si>
-    <t xml:space="preserve">4.17721700668335</t>
+    <t xml:space="preserve">4.17721748352051</t>
   </si>
   <si>
     <t xml:space="preserve">4.25763893127441</t>
@@ -74,7 +74,7 @@
     <t xml:space="preserve">4.36644554138184</t>
   </si>
   <si>
-    <t xml:space="preserve">4.35698461532593</t>
+    <t xml:space="preserve">4.35698413848877</t>
   </si>
   <si>
     <t xml:space="preserve">4.40902185440063</t>
@@ -83,7 +83,7 @@
     <t xml:space="preserve">4.35225343704224</t>
   </si>
   <si>
-    <t xml:space="preserve">4.29075384140015</t>
+    <t xml:space="preserve">4.2907543182373</t>
   </si>
   <si>
     <t xml:space="preserve">4.24344730377197</t>
@@ -95,34 +95,34 @@
     <t xml:space="preserve">4.02583456039429</t>
   </si>
   <si>
-    <t xml:space="preserve">4.04002666473389</t>
+    <t xml:space="preserve">4.04002618789673</t>
   </si>
   <si>
     <t xml:space="preserve">4.05894947052002</t>
   </si>
   <si>
-    <t xml:space="preserve">3.92175889015198</t>
+    <t xml:space="preserve">3.9217586517334</t>
   </si>
   <si>
     <t xml:space="preserve">4.11098718643188</t>
   </si>
   <si>
-    <t xml:space="preserve">3.95960426330566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.92648959159851</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.94541239738464</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.04475784301758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.95487380027771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.93595099449158</t>
+    <t xml:space="preserve">3.95960474014282</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.92648983001709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.94541263580322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.04475736618042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.95487356185913</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.935950756073</t>
   </si>
   <si>
     <t xml:space="preserve">4.03056526184082</t>
@@ -134,7 +134,7 @@
     <t xml:space="preserve">3.96906614303589</t>
   </si>
   <si>
-    <t xml:space="preserve">3.97379660606384</t>
+    <t xml:space="preserve">3.97379636764526</t>
   </si>
   <si>
     <t xml:space="preserve">3.85079836845398</t>
@@ -149,10 +149,10 @@
     <t xml:space="preserve">3.59533977508545</t>
   </si>
   <si>
-    <t xml:space="preserve">3.72779989242554</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.81295275688171</t>
+    <t xml:space="preserve">3.72779965400696</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.81295251846313</t>
   </si>
   <si>
     <t xml:space="preserve">3.99271941184998</t>
@@ -161,13 +161,13 @@
     <t xml:space="preserve">4.00691175460815</t>
   </si>
   <si>
-    <t xml:space="preserve">4.01164197921753</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.8791823387146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.76564526557922</t>
+    <t xml:space="preserve">4.01164245605469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.87918257713318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.7656455039978</t>
   </si>
   <si>
     <t xml:space="preserve">3.78456830978394</t>
@@ -176,7 +176,7 @@
     <t xml:space="preserve">3.82714462280273</t>
   </si>
   <si>
-    <t xml:space="preserve">3.53857135772705</t>
+    <t xml:space="preserve">3.53857111930847</t>
   </si>
   <si>
     <t xml:space="preserve">3.57641696929932</t>
@@ -191,10 +191,10 @@
     <t xml:space="preserve">3.37299633026123</t>
   </si>
   <si>
-    <t xml:space="preserve">3.23107528686523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.13646078109741</t>
+    <t xml:space="preserve">3.23107504844666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.13646101951599</t>
   </si>
   <si>
     <t xml:space="preserve">3.50072574615479</t>
@@ -221,10 +221,10 @@
     <t xml:space="preserve">4.37117624282837</t>
   </si>
   <si>
-    <t xml:space="preserve">4.30967664718628</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.43740653991699</t>
+    <t xml:space="preserve">4.30967712402344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.43740606307983</t>
   </si>
   <si>
     <t xml:space="preserve">4.37590742111206</t>
@@ -236,13 +236,13 @@
     <t xml:space="preserve">4.52255916595459</t>
   </si>
   <si>
-    <t xml:space="preserve">4.61717367172241</t>
+    <t xml:space="preserve">4.61717319488525</t>
   </si>
   <si>
     <t xml:space="preserve">4.68340301513672</t>
   </si>
   <si>
-    <t xml:space="preserve">4.92940044403076</t>
+    <t xml:space="preserve">4.9293999671936</t>
   </si>
   <si>
     <t xml:space="preserve">5.27240037918091</t>

--- a/data/TKF.MI.xlsx
+++ b/data/TKF.MI.xlsx
@@ -19211,6 +19211,58 @@
         <v>9</v>
       </c>
     </row>
+    <row r="689">
+      <c r="A689" s="1" t="n">
+        <v>45520.2916666667</v>
+      </c>
+      <c r="B689" t="n">
+        <v>0</v>
+      </c>
+      <c r="C689" t="n">
+        <v>0.837999999523163</v>
+      </c>
+      <c r="D689" t="n">
+        <v>0.837999999523163</v>
+      </c>
+      <c r="E689" t="n">
+        <v>0.837999999523163</v>
+      </c>
+      <c r="F689" t="n">
+        <v>0.837999999523163</v>
+      </c>
+      <c r="G689" t="s">
+        <v>314</v>
+      </c>
+      <c r="H689" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="690">
+      <c r="A690" s="1" t="n">
+        <v>45523.4039930556</v>
+      </c>
+      <c r="B690" t="n">
+        <v>30474</v>
+      </c>
+      <c r="C690" t="n">
+        <v>0.832000017166138</v>
+      </c>
+      <c r="D690" t="n">
+        <v>0.819999992847443</v>
+      </c>
+      <c r="E690" t="n">
+        <v>0.832000017166138</v>
+      </c>
+      <c r="F690" t="n">
+        <v>0.819999992847443</v>
+      </c>
+      <c r="G690" t="s">
+        <v>254</v>
+      </c>
+      <c r="H690" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/TKF.MI.xlsx
+++ b/data/TKF.MI.xlsx
@@ -19239,7 +19239,7 @@
     </row>
     <row r="690">
       <c r="A690" s="1" t="n">
-        <v>45523.4039930556</v>
+        <v>45523.2916666667</v>
       </c>
       <c r="B690" t="n">
         <v>30474</v>
@@ -19260,6 +19260,32 @@
         <v>254</v>
       </c>
       <c r="H690" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="691">
+      <c r="A691" s="1" t="n">
+        <v>45524.6495601852</v>
+      </c>
+      <c r="B691" t="n">
+        <v>3467</v>
+      </c>
+      <c r="C691" t="n">
+        <v>0.829999983310699</v>
+      </c>
+      <c r="D691" t="n">
+        <v>0.822000026702881</v>
+      </c>
+      <c r="E691" t="n">
+        <v>0.829999983310699</v>
+      </c>
+      <c r="F691" t="n">
+        <v>0.825999975204468</v>
+      </c>
+      <c r="G691" t="s">
+        <v>296</v>
+      </c>
+      <c r="H691" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/TKF.MI.xlsx
+++ b/data/TKF.MI.xlsx
@@ -38,7 +38,7 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">4.11571788787842</t>
+    <t xml:space="preserve">4.11571741104126</t>
   </si>
   <si>
     <t xml:space="preserve">TKF.MI</t>
@@ -59,7 +59,7 @@
     <t xml:space="preserve">4.09679508209229</t>
   </si>
   <si>
-    <t xml:space="preserve">4.17721748352051</t>
+    <t xml:space="preserve">4.17721700668335</t>
   </si>
   <si>
     <t xml:space="preserve">4.25763893127441</t>
@@ -74,7 +74,7 @@
     <t xml:space="preserve">4.36644554138184</t>
   </si>
   <si>
-    <t xml:space="preserve">4.35698413848877</t>
+    <t xml:space="preserve">4.35698461532593</t>
   </si>
   <si>
     <t xml:space="preserve">4.40902185440063</t>
@@ -83,7 +83,7 @@
     <t xml:space="preserve">4.35225343704224</t>
   </si>
   <si>
-    <t xml:space="preserve">4.2907543182373</t>
+    <t xml:space="preserve">4.29075384140015</t>
   </si>
   <si>
     <t xml:space="preserve">4.24344730377197</t>
@@ -95,34 +95,34 @@
     <t xml:space="preserve">4.02583456039429</t>
   </si>
   <si>
-    <t xml:space="preserve">4.04002618789673</t>
+    <t xml:space="preserve">4.04002666473389</t>
   </si>
   <si>
     <t xml:space="preserve">4.05894947052002</t>
   </si>
   <si>
-    <t xml:space="preserve">3.9217586517334</t>
+    <t xml:space="preserve">3.92175889015198</t>
   </si>
   <si>
     <t xml:space="preserve">4.11098718643188</t>
   </si>
   <si>
-    <t xml:space="preserve">3.95960474014282</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.92648983001709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.94541263580322</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.04475736618042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.95487356185913</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.935950756073</t>
+    <t xml:space="preserve">3.95960426330566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.92648959159851</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.94541239738464</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.04475784301758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.95487380027771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.93595099449158</t>
   </si>
   <si>
     <t xml:space="preserve">4.03056526184082</t>
@@ -134,7 +134,7 @@
     <t xml:space="preserve">3.96906614303589</t>
   </si>
   <si>
-    <t xml:space="preserve">3.97379636764526</t>
+    <t xml:space="preserve">3.97379660606384</t>
   </si>
   <si>
     <t xml:space="preserve">3.85079836845398</t>
@@ -149,10 +149,10 @@
     <t xml:space="preserve">3.59533977508545</t>
   </si>
   <si>
-    <t xml:space="preserve">3.72779965400696</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.81295251846313</t>
+    <t xml:space="preserve">3.72779989242554</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.81295275688171</t>
   </si>
   <si>
     <t xml:space="preserve">3.99271941184998</t>
@@ -161,13 +161,13 @@
     <t xml:space="preserve">4.00691175460815</t>
   </si>
   <si>
-    <t xml:space="preserve">4.01164245605469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.87918257713318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.7656455039978</t>
+    <t xml:space="preserve">4.01164197921753</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.8791823387146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.76564526557922</t>
   </si>
   <si>
     <t xml:space="preserve">3.78456830978394</t>
@@ -176,7 +176,7 @@
     <t xml:space="preserve">3.82714462280273</t>
   </si>
   <si>
-    <t xml:space="preserve">3.53857111930847</t>
+    <t xml:space="preserve">3.53857135772705</t>
   </si>
   <si>
     <t xml:space="preserve">3.57641696929932</t>
@@ -191,10 +191,10 @@
     <t xml:space="preserve">3.37299633026123</t>
   </si>
   <si>
-    <t xml:space="preserve">3.23107504844666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.13646101951599</t>
+    <t xml:space="preserve">3.23107528686523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.13646078109741</t>
   </si>
   <si>
     <t xml:space="preserve">3.50072574615479</t>
@@ -221,10 +221,10 @@
     <t xml:space="preserve">4.37117624282837</t>
   </si>
   <si>
-    <t xml:space="preserve">4.30967712402344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.43740606307983</t>
+    <t xml:space="preserve">4.30967664718628</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.43740653991699</t>
   </si>
   <si>
     <t xml:space="preserve">4.37590742111206</t>
@@ -236,13 +236,13 @@
     <t xml:space="preserve">4.52255916595459</t>
   </si>
   <si>
-    <t xml:space="preserve">4.61717319488525</t>
+    <t xml:space="preserve">4.61717367172241</t>
   </si>
   <si>
     <t xml:space="preserve">4.68340301513672</t>
   </si>
   <si>
-    <t xml:space="preserve">4.9293999671936</t>
+    <t xml:space="preserve">4.92940044403076</t>
   </si>
   <si>
     <t xml:space="preserve">5.27240037918091</t>
@@ -19265,7 +19265,7 @@
     </row>
     <row r="691">
       <c r="A691" s="1" t="n">
-        <v>45524.6495601852</v>
+        <v>45524.2916666667</v>
       </c>
       <c r="B691" t="n">
         <v>3467</v>
@@ -19286,6 +19286,32 @@
         <v>296</v>
       </c>
       <c r="H691" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="692">
+      <c r="A692" s="1" t="n">
+        <v>45525.6493634259</v>
+      </c>
+      <c r="B692" t="n">
+        <v>33601</v>
+      </c>
+      <c r="C692" t="n">
+        <v>0.836000025272369</v>
+      </c>
+      <c r="D692" t="n">
+        <v>0.822000026702881</v>
+      </c>
+      <c r="E692" t="n">
+        <v>0.836000025272369</v>
+      </c>
+      <c r="F692" t="n">
+        <v>0.824000000953674</v>
+      </c>
+      <c r="G692" t="s">
+        <v>313</v>
+      </c>
+      <c r="H692" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/TKF.MI.xlsx
+++ b/data/TKF.MI.xlsx
@@ -19291,7 +19291,7 @@
     </row>
     <row r="692">
       <c r="A692" s="1" t="n">
-        <v>45525.6493634259</v>
+        <v>45525.2916666667</v>
       </c>
       <c r="B692" t="n">
         <v>33601</v>
@@ -19312,6 +19312,32 @@
         <v>313</v>
       </c>
       <c r="H692" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="693">
+      <c r="A693" s="1" t="n">
+        <v>45526.6493634259</v>
+      </c>
+      <c r="B693" t="n">
+        <v>7510</v>
+      </c>
+      <c r="C693" t="n">
+        <v>0.836000025272369</v>
+      </c>
+      <c r="D693" t="n">
+        <v>0.822000026702881</v>
+      </c>
+      <c r="E693" t="n">
+        <v>0.836000025272369</v>
+      </c>
+      <c r="F693" t="n">
+        <v>0.833999991416931</v>
+      </c>
+      <c r="G693" t="s">
+        <v>320</v>
+      </c>
+      <c r="H693" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/TKF.MI.xlsx
+++ b/data/TKF.MI.xlsx
@@ -19317,7 +19317,7 @@
     </row>
     <row r="693">
       <c r="A693" s="1" t="n">
-        <v>45526.6493634259</v>
+        <v>45526.2916666667</v>
       </c>
       <c r="B693" t="n">
         <v>7510</v>
@@ -19338,6 +19338,32 @@
         <v>320</v>
       </c>
       <c r="H693" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="694">
+      <c r="A694" s="1" t="n">
+        <v>45527.6494675926</v>
+      </c>
+      <c r="B694" t="n">
+        <v>79860</v>
+      </c>
+      <c r="C694" t="n">
+        <v>0.825999975204468</v>
+      </c>
+      <c r="D694" t="n">
+        <v>0.801999986171722</v>
+      </c>
+      <c r="E694" t="n">
+        <v>0.822000026702881</v>
+      </c>
+      <c r="F694" t="n">
+        <v>0.825999975204468</v>
+      </c>
+      <c r="G694" t="s">
+        <v>296</v>
+      </c>
+      <c r="H694" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/TKF.MI.xlsx
+++ b/data/TKF.MI.xlsx
@@ -19343,7 +19343,7 @@
     </row>
     <row r="694">
       <c r="A694" s="1" t="n">
-        <v>45527.6494675926</v>
+        <v>45527.2916666667</v>
       </c>
       <c r="B694" t="n">
         <v>79860</v>

--- a/data/TKF.MI.xlsx
+++ b/data/TKF.MI.xlsx
@@ -38,7 +38,7 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">4.11571741104126</t>
+    <t xml:space="preserve">4.11571788787842</t>
   </si>
   <si>
     <t xml:space="preserve">TKF.MI</t>
@@ -59,7 +59,7 @@
     <t xml:space="preserve">4.09679508209229</t>
   </si>
   <si>
-    <t xml:space="preserve">4.17721700668335</t>
+    <t xml:space="preserve">4.17721748352051</t>
   </si>
   <si>
     <t xml:space="preserve">4.25763893127441</t>
@@ -74,7 +74,7 @@
     <t xml:space="preserve">4.36644554138184</t>
   </si>
   <si>
-    <t xml:space="preserve">4.35698461532593</t>
+    <t xml:space="preserve">4.35698413848877</t>
   </si>
   <si>
     <t xml:space="preserve">4.40902185440063</t>
@@ -83,7 +83,7 @@
     <t xml:space="preserve">4.35225343704224</t>
   </si>
   <si>
-    <t xml:space="preserve">4.29075384140015</t>
+    <t xml:space="preserve">4.2907543182373</t>
   </si>
   <si>
     <t xml:space="preserve">4.24344730377197</t>
@@ -95,34 +95,34 @@
     <t xml:space="preserve">4.02583456039429</t>
   </si>
   <si>
-    <t xml:space="preserve">4.04002666473389</t>
+    <t xml:space="preserve">4.04002618789673</t>
   </si>
   <si>
     <t xml:space="preserve">4.05894947052002</t>
   </si>
   <si>
-    <t xml:space="preserve">3.92175889015198</t>
+    <t xml:space="preserve">3.9217586517334</t>
   </si>
   <si>
     <t xml:space="preserve">4.11098718643188</t>
   </si>
   <si>
-    <t xml:space="preserve">3.95960426330566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.92648959159851</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.94541239738464</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.04475784301758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.95487380027771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.93595099449158</t>
+    <t xml:space="preserve">3.95960474014282</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.92648983001709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.94541263580322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.04475736618042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.95487356185913</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.935950756073</t>
   </si>
   <si>
     <t xml:space="preserve">4.03056526184082</t>
@@ -134,7 +134,7 @@
     <t xml:space="preserve">3.96906614303589</t>
   </si>
   <si>
-    <t xml:space="preserve">3.97379660606384</t>
+    <t xml:space="preserve">3.97379636764526</t>
   </si>
   <si>
     <t xml:space="preserve">3.85079836845398</t>
@@ -149,10 +149,10 @@
     <t xml:space="preserve">3.59533977508545</t>
   </si>
   <si>
-    <t xml:space="preserve">3.72779989242554</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.81295275688171</t>
+    <t xml:space="preserve">3.72779965400696</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.81295251846313</t>
   </si>
   <si>
     <t xml:space="preserve">3.99271941184998</t>
@@ -161,13 +161,13 @@
     <t xml:space="preserve">4.00691175460815</t>
   </si>
   <si>
-    <t xml:space="preserve">4.01164197921753</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.8791823387146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.76564526557922</t>
+    <t xml:space="preserve">4.01164245605469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.87918257713318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.7656455039978</t>
   </si>
   <si>
     <t xml:space="preserve">3.78456830978394</t>
@@ -176,7 +176,7 @@
     <t xml:space="preserve">3.82714462280273</t>
   </si>
   <si>
-    <t xml:space="preserve">3.53857135772705</t>
+    <t xml:space="preserve">3.53857111930847</t>
   </si>
   <si>
     <t xml:space="preserve">3.57641696929932</t>
@@ -191,10 +191,10 @@
     <t xml:space="preserve">3.37299633026123</t>
   </si>
   <si>
-    <t xml:space="preserve">3.23107528686523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.13646078109741</t>
+    <t xml:space="preserve">3.23107504844666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.13646101951599</t>
   </si>
   <si>
     <t xml:space="preserve">3.50072574615479</t>
@@ -221,10 +221,10 @@
     <t xml:space="preserve">4.37117624282837</t>
   </si>
   <si>
-    <t xml:space="preserve">4.30967664718628</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.43740653991699</t>
+    <t xml:space="preserve">4.30967712402344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.43740606307983</t>
   </si>
   <si>
     <t xml:space="preserve">4.37590742111206</t>
@@ -236,13 +236,13 @@
     <t xml:space="preserve">4.52255916595459</t>
   </si>
   <si>
-    <t xml:space="preserve">4.61717367172241</t>
+    <t xml:space="preserve">4.61717319488525</t>
   </si>
   <si>
     <t xml:space="preserve">4.68340301513672</t>
   </si>
   <si>
-    <t xml:space="preserve">4.92940044403076</t>
+    <t xml:space="preserve">4.9293999671936</t>
   </si>
   <si>
     <t xml:space="preserve">5.27240037918091</t>
@@ -19367,6 +19367,58 @@
         <v>9</v>
       </c>
     </row>
+    <row r="695">
+      <c r="A695" s="1" t="n">
+        <v>45530.2916666667</v>
+      </c>
+      <c r="B695" t="n">
+        <v>0</v>
+      </c>
+      <c r="C695" t="n">
+        <v>0.825999975204468</v>
+      </c>
+      <c r="D695" t="n">
+        <v>0.825999975204468</v>
+      </c>
+      <c r="E695" t="n">
+        <v>0.825999975204468</v>
+      </c>
+      <c r="F695" t="n">
+        <v>0.825999975204468</v>
+      </c>
+      <c r="G695" t="s">
+        <v>296</v>
+      </c>
+      <c r="H695" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="696">
+      <c r="A696" s="1" t="n">
+        <v>45531.5729166667</v>
+      </c>
+      <c r="B696" t="n">
+        <v>2900</v>
+      </c>
+      <c r="C696" t="n">
+        <v>0.825999975204468</v>
+      </c>
+      <c r="D696" t="n">
+        <v>0.811999976634979</v>
+      </c>
+      <c r="E696" t="n">
+        <v>0.825999975204468</v>
+      </c>
+      <c r="F696" t="n">
+        <v>0.811999976634979</v>
+      </c>
+      <c r="G696" t="s">
+        <v>308</v>
+      </c>
+      <c r="H696" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/TKF.MI.xlsx
+++ b/data/TKF.MI.xlsx
@@ -19395,7 +19395,7 @@
     </row>
     <row r="696">
       <c r="A696" s="1" t="n">
-        <v>45531.5729166667</v>
+        <v>45531.2916666667</v>
       </c>
       <c r="B696" t="n">
         <v>2900</v>
@@ -19416,6 +19416,32 @@
         <v>308</v>
       </c>
       <c r="H696" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="697">
+      <c r="A697" s="1" t="n">
+        <v>45532.5122569444</v>
+      </c>
+      <c r="B697" t="n">
+        <v>10000</v>
+      </c>
+      <c r="C697" t="n">
+        <v>0.828000009059906</v>
+      </c>
+      <c r="D697" t="n">
+        <v>0.828000009059906</v>
+      </c>
+      <c r="E697" t="n">
+        <v>0.828000009059906</v>
+      </c>
+      <c r="F697" t="n">
+        <v>0.828000009059906</v>
+      </c>
+      <c r="G697" t="s">
+        <v>297</v>
+      </c>
+      <c r="H697" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/TKF.MI.xlsx
+++ b/data/TKF.MI.xlsx
@@ -38,7 +38,7 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">4.11571788787842</t>
+    <t xml:space="preserve">4.11571741104126</t>
   </si>
   <si>
     <t xml:space="preserve">TKF.MI</t>
@@ -59,7 +59,7 @@
     <t xml:space="preserve">4.09679508209229</t>
   </si>
   <si>
-    <t xml:space="preserve">4.17721748352051</t>
+    <t xml:space="preserve">4.17721700668335</t>
   </si>
   <si>
     <t xml:space="preserve">4.25763893127441</t>
@@ -74,7 +74,7 @@
     <t xml:space="preserve">4.36644554138184</t>
   </si>
   <si>
-    <t xml:space="preserve">4.35698413848877</t>
+    <t xml:space="preserve">4.35698461532593</t>
   </si>
   <si>
     <t xml:space="preserve">4.40902185440063</t>
@@ -83,7 +83,7 @@
     <t xml:space="preserve">4.35225343704224</t>
   </si>
   <si>
-    <t xml:space="preserve">4.2907543182373</t>
+    <t xml:space="preserve">4.29075384140015</t>
   </si>
   <si>
     <t xml:space="preserve">4.24344730377197</t>
@@ -95,34 +95,34 @@
     <t xml:space="preserve">4.02583456039429</t>
   </si>
   <si>
-    <t xml:space="preserve">4.04002618789673</t>
+    <t xml:space="preserve">4.04002666473389</t>
   </si>
   <si>
     <t xml:space="preserve">4.05894947052002</t>
   </si>
   <si>
-    <t xml:space="preserve">3.9217586517334</t>
+    <t xml:space="preserve">3.92175889015198</t>
   </si>
   <si>
     <t xml:space="preserve">4.11098718643188</t>
   </si>
   <si>
-    <t xml:space="preserve">3.95960474014282</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.92648983001709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.94541263580322</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.04475736618042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.95487356185913</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.935950756073</t>
+    <t xml:space="preserve">3.95960426330566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.92648959159851</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.94541239738464</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.04475784301758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.95487380027771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.93595099449158</t>
   </si>
   <si>
     <t xml:space="preserve">4.03056526184082</t>
@@ -134,7 +134,7 @@
     <t xml:space="preserve">3.96906614303589</t>
   </si>
   <si>
-    <t xml:space="preserve">3.97379636764526</t>
+    <t xml:space="preserve">3.97379660606384</t>
   </si>
   <si>
     <t xml:space="preserve">3.85079836845398</t>
@@ -149,10 +149,10 @@
     <t xml:space="preserve">3.59533977508545</t>
   </si>
   <si>
-    <t xml:space="preserve">3.72779965400696</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.81295251846313</t>
+    <t xml:space="preserve">3.72779989242554</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.81295275688171</t>
   </si>
   <si>
     <t xml:space="preserve">3.99271941184998</t>
@@ -161,13 +161,13 @@
     <t xml:space="preserve">4.00691175460815</t>
   </si>
   <si>
-    <t xml:space="preserve">4.01164245605469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.87918257713318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.7656455039978</t>
+    <t xml:space="preserve">4.01164197921753</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.8791823387146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.76564526557922</t>
   </si>
   <si>
     <t xml:space="preserve">3.78456830978394</t>
@@ -176,7 +176,7 @@
     <t xml:space="preserve">3.82714462280273</t>
   </si>
   <si>
-    <t xml:space="preserve">3.53857111930847</t>
+    <t xml:space="preserve">3.53857135772705</t>
   </si>
   <si>
     <t xml:space="preserve">3.57641696929932</t>
@@ -191,10 +191,10 @@
     <t xml:space="preserve">3.37299633026123</t>
   </si>
   <si>
-    <t xml:space="preserve">3.23107504844666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.13646101951599</t>
+    <t xml:space="preserve">3.23107528686523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.13646078109741</t>
   </si>
   <si>
     <t xml:space="preserve">3.50072574615479</t>
@@ -221,10 +221,10 @@
     <t xml:space="preserve">4.37117624282837</t>
   </si>
   <si>
-    <t xml:space="preserve">4.30967712402344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.43740606307983</t>
+    <t xml:space="preserve">4.30967664718628</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.43740653991699</t>
   </si>
   <si>
     <t xml:space="preserve">4.37590742111206</t>
@@ -236,13 +236,13 @@
     <t xml:space="preserve">4.52255916595459</t>
   </si>
   <si>
-    <t xml:space="preserve">4.61717319488525</t>
+    <t xml:space="preserve">4.61717367172241</t>
   </si>
   <si>
     <t xml:space="preserve">4.68340301513672</t>
   </si>
   <si>
-    <t xml:space="preserve">4.9293999671936</t>
+    <t xml:space="preserve">4.92940044403076</t>
   </si>
   <si>
     <t xml:space="preserve">5.27240037918091</t>
@@ -19421,7 +19421,7 @@
     </row>
     <row r="697">
       <c r="A697" s="1" t="n">
-        <v>45532.5122569444</v>
+        <v>45532.2916666667</v>
       </c>
       <c r="B697" t="n">
         <v>10000</v>
@@ -19442,6 +19442,32 @@
         <v>297</v>
       </c>
       <c r="H697" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="698">
+      <c r="A698" s="1" t="n">
+        <v>45533.6378935185</v>
+      </c>
+      <c r="B698" t="n">
+        <v>5550</v>
+      </c>
+      <c r="C698" t="n">
+        <v>0.829999983310699</v>
+      </c>
+      <c r="D698" t="n">
+        <v>0.819999992847443</v>
+      </c>
+      <c r="E698" t="n">
+        <v>0.828000009059906</v>
+      </c>
+      <c r="F698" t="n">
+        <v>0.819999992847443</v>
+      </c>
+      <c r="G698" t="s">
+        <v>254</v>
+      </c>
+      <c r="H698" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/TKF.MI.xlsx
+++ b/data/TKF.MI.xlsx
@@ -38,7 +38,7 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">4.11571741104126</t>
+    <t xml:space="preserve">4.11571788787842</t>
   </si>
   <si>
     <t xml:space="preserve">TKF.MI</t>
@@ -59,7 +59,7 @@
     <t xml:space="preserve">4.09679508209229</t>
   </si>
   <si>
-    <t xml:space="preserve">4.17721700668335</t>
+    <t xml:space="preserve">4.17721748352051</t>
   </si>
   <si>
     <t xml:space="preserve">4.25763893127441</t>
@@ -74,7 +74,7 @@
     <t xml:space="preserve">4.36644554138184</t>
   </si>
   <si>
-    <t xml:space="preserve">4.35698461532593</t>
+    <t xml:space="preserve">4.35698413848877</t>
   </si>
   <si>
     <t xml:space="preserve">4.40902185440063</t>
@@ -83,7 +83,7 @@
     <t xml:space="preserve">4.35225343704224</t>
   </si>
   <si>
-    <t xml:space="preserve">4.29075384140015</t>
+    <t xml:space="preserve">4.2907543182373</t>
   </si>
   <si>
     <t xml:space="preserve">4.24344730377197</t>
@@ -95,34 +95,34 @@
     <t xml:space="preserve">4.02583456039429</t>
   </si>
   <si>
-    <t xml:space="preserve">4.04002666473389</t>
+    <t xml:space="preserve">4.04002618789673</t>
   </si>
   <si>
     <t xml:space="preserve">4.05894947052002</t>
   </si>
   <si>
-    <t xml:space="preserve">3.92175889015198</t>
+    <t xml:space="preserve">3.9217586517334</t>
   </si>
   <si>
     <t xml:space="preserve">4.11098718643188</t>
   </si>
   <si>
-    <t xml:space="preserve">3.95960426330566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.92648959159851</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.94541239738464</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.04475784301758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.95487380027771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.93595099449158</t>
+    <t xml:space="preserve">3.95960474014282</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.92648983001709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.94541263580322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.04475736618042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.95487356185913</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.935950756073</t>
   </si>
   <si>
     <t xml:space="preserve">4.03056526184082</t>
@@ -134,7 +134,7 @@
     <t xml:space="preserve">3.96906614303589</t>
   </si>
   <si>
-    <t xml:space="preserve">3.97379660606384</t>
+    <t xml:space="preserve">3.97379636764526</t>
   </si>
   <si>
     <t xml:space="preserve">3.85079836845398</t>
@@ -149,10 +149,10 @@
     <t xml:space="preserve">3.59533977508545</t>
   </si>
   <si>
-    <t xml:space="preserve">3.72779989242554</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.81295275688171</t>
+    <t xml:space="preserve">3.72779965400696</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.81295251846313</t>
   </si>
   <si>
     <t xml:space="preserve">3.99271941184998</t>
@@ -161,13 +161,13 @@
     <t xml:space="preserve">4.00691175460815</t>
   </si>
   <si>
-    <t xml:space="preserve">4.01164197921753</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.8791823387146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.76564526557922</t>
+    <t xml:space="preserve">4.01164245605469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.87918257713318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.7656455039978</t>
   </si>
   <si>
     <t xml:space="preserve">3.78456830978394</t>
@@ -176,7 +176,7 @@
     <t xml:space="preserve">3.82714462280273</t>
   </si>
   <si>
-    <t xml:space="preserve">3.53857135772705</t>
+    <t xml:space="preserve">3.53857111930847</t>
   </si>
   <si>
     <t xml:space="preserve">3.57641696929932</t>
@@ -191,10 +191,10 @@
     <t xml:space="preserve">3.37299633026123</t>
   </si>
   <si>
-    <t xml:space="preserve">3.23107528686523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.13646078109741</t>
+    <t xml:space="preserve">3.23107504844666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.13646101951599</t>
   </si>
   <si>
     <t xml:space="preserve">3.50072574615479</t>
@@ -221,10 +221,10 @@
     <t xml:space="preserve">4.37117624282837</t>
   </si>
   <si>
-    <t xml:space="preserve">4.30967664718628</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.43740653991699</t>
+    <t xml:space="preserve">4.30967712402344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.43740606307983</t>
   </si>
   <si>
     <t xml:space="preserve">4.37590742111206</t>
@@ -236,13 +236,13 @@
     <t xml:space="preserve">4.52255916595459</t>
   </si>
   <si>
-    <t xml:space="preserve">4.61717367172241</t>
+    <t xml:space="preserve">4.61717319488525</t>
   </si>
   <si>
     <t xml:space="preserve">4.68340301513672</t>
   </si>
   <si>
-    <t xml:space="preserve">4.92940044403076</t>
+    <t xml:space="preserve">4.9293999671936</t>
   </si>
   <si>
     <t xml:space="preserve">5.27240037918091</t>
@@ -991,7 +991,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="yyyy-mm-dd hh:mm:ss"/>
+    <numFmt numFmtId="166" formatCode="yyyy/mm/dd hh:mm:ss"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -1029,7 +1029,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -19447,7 +19447,7 @@
     </row>
     <row r="698">
       <c r="A698" s="1" t="n">
-        <v>45533.6378935185</v>
+        <v>45533.2916666667</v>
       </c>
       <c r="B698" t="n">
         <v>5550</v>
@@ -19468,6 +19468,32 @@
         <v>254</v>
       </c>
       <c r="H698" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="699">
+      <c r="A699" s="1" t="n">
+        <v>45534.6384143519</v>
+      </c>
+      <c r="B699" t="n">
+        <v>19203</v>
+      </c>
+      <c r="C699" t="n">
+        <v>0.839999973773956</v>
+      </c>
+      <c r="D699" t="n">
+        <v>0.824000000953674</v>
+      </c>
+      <c r="E699" t="n">
+        <v>0.832000017166138</v>
+      </c>
+      <c r="F699" t="n">
+        <v>0.839999973773956</v>
+      </c>
+      <c r="G699" t="s">
+        <v>289</v>
+      </c>
+      <c r="H699" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/TKF.MI.xlsx
+++ b/data/TKF.MI.xlsx
@@ -19473,7 +19473,7 @@
     </row>
     <row r="699">
       <c r="A699" s="1" t="n">
-        <v>45534.6384143519</v>
+        <v>45534.2916666667</v>
       </c>
       <c r="B699" t="n">
         <v>19203</v>
@@ -19494,6 +19494,32 @@
         <v>289</v>
       </c>
       <c r="H699" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="700">
+      <c r="A700" s="1" t="n">
+        <v>45537.4725231481</v>
+      </c>
+      <c r="B700" t="n">
+        <v>3007</v>
+      </c>
+      <c r="C700" t="n">
+        <v>0.833999991416931</v>
+      </c>
+      <c r="D700" t="n">
+        <v>0.833999991416931</v>
+      </c>
+      <c r="E700" t="n">
+        <v>0.833999991416931</v>
+      </c>
+      <c r="F700" t="n">
+        <v>0.833999991416931</v>
+      </c>
+      <c r="G700" t="s">
+        <v>320</v>
+      </c>
+      <c r="H700" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/TKF.MI.xlsx
+++ b/data/TKF.MI.xlsx
@@ -38,7 +38,7 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">4.11571788787842</t>
+    <t xml:space="preserve">4.11571741104126</t>
   </si>
   <si>
     <t xml:space="preserve">TKF.MI</t>
@@ -59,7 +59,7 @@
     <t xml:space="preserve">4.09679508209229</t>
   </si>
   <si>
-    <t xml:space="preserve">4.17721748352051</t>
+    <t xml:space="preserve">4.17721700668335</t>
   </si>
   <si>
     <t xml:space="preserve">4.25763893127441</t>
@@ -74,7 +74,7 @@
     <t xml:space="preserve">4.36644554138184</t>
   </si>
   <si>
-    <t xml:space="preserve">4.35698413848877</t>
+    <t xml:space="preserve">4.35698461532593</t>
   </si>
   <si>
     <t xml:space="preserve">4.40902185440063</t>
@@ -83,7 +83,7 @@
     <t xml:space="preserve">4.35225343704224</t>
   </si>
   <si>
-    <t xml:space="preserve">4.2907543182373</t>
+    <t xml:space="preserve">4.29075384140015</t>
   </si>
   <si>
     <t xml:space="preserve">4.24344730377197</t>
@@ -95,34 +95,34 @@
     <t xml:space="preserve">4.02583456039429</t>
   </si>
   <si>
-    <t xml:space="preserve">4.04002618789673</t>
+    <t xml:space="preserve">4.04002666473389</t>
   </si>
   <si>
     <t xml:space="preserve">4.05894947052002</t>
   </si>
   <si>
-    <t xml:space="preserve">3.9217586517334</t>
+    <t xml:space="preserve">3.92175889015198</t>
   </si>
   <si>
     <t xml:space="preserve">4.11098718643188</t>
   </si>
   <si>
-    <t xml:space="preserve">3.95960474014282</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.92648983001709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.94541263580322</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.04475736618042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.95487356185913</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.935950756073</t>
+    <t xml:space="preserve">3.95960426330566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.92648959159851</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.94541239738464</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.04475784301758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.95487380027771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.93595099449158</t>
   </si>
   <si>
     <t xml:space="preserve">4.03056526184082</t>
@@ -134,7 +134,7 @@
     <t xml:space="preserve">3.96906614303589</t>
   </si>
   <si>
-    <t xml:space="preserve">3.97379636764526</t>
+    <t xml:space="preserve">3.97379660606384</t>
   </si>
   <si>
     <t xml:space="preserve">3.85079836845398</t>
@@ -149,10 +149,10 @@
     <t xml:space="preserve">3.59533977508545</t>
   </si>
   <si>
-    <t xml:space="preserve">3.72779965400696</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.81295251846313</t>
+    <t xml:space="preserve">3.72779989242554</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.81295275688171</t>
   </si>
   <si>
     <t xml:space="preserve">3.99271941184998</t>
@@ -161,13 +161,13 @@
     <t xml:space="preserve">4.00691175460815</t>
   </si>
   <si>
-    <t xml:space="preserve">4.01164245605469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.87918257713318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.7656455039978</t>
+    <t xml:space="preserve">4.01164197921753</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.8791823387146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.76564526557922</t>
   </si>
   <si>
     <t xml:space="preserve">3.78456830978394</t>
@@ -176,7 +176,7 @@
     <t xml:space="preserve">3.82714462280273</t>
   </si>
   <si>
-    <t xml:space="preserve">3.53857111930847</t>
+    <t xml:space="preserve">3.53857135772705</t>
   </si>
   <si>
     <t xml:space="preserve">3.57641696929932</t>
@@ -191,10 +191,10 @@
     <t xml:space="preserve">3.37299633026123</t>
   </si>
   <si>
-    <t xml:space="preserve">3.23107504844666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.13646101951599</t>
+    <t xml:space="preserve">3.23107528686523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.13646078109741</t>
   </si>
   <si>
     <t xml:space="preserve">3.50072574615479</t>
@@ -221,10 +221,10 @@
     <t xml:space="preserve">4.37117624282837</t>
   </si>
   <si>
-    <t xml:space="preserve">4.30967712402344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.43740606307983</t>
+    <t xml:space="preserve">4.30967664718628</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.43740653991699</t>
   </si>
   <si>
     <t xml:space="preserve">4.37590742111206</t>
@@ -236,13 +236,13 @@
     <t xml:space="preserve">4.52255916595459</t>
   </si>
   <si>
-    <t xml:space="preserve">4.61717319488525</t>
+    <t xml:space="preserve">4.61717367172241</t>
   </si>
   <si>
     <t xml:space="preserve">4.68340301513672</t>
   </si>
   <si>
-    <t xml:space="preserve">4.9293999671936</t>
+    <t xml:space="preserve">4.92940044403076</t>
   </si>
   <si>
     <t xml:space="preserve">5.27240037918091</t>
@@ -19499,7 +19499,7 @@
     </row>
     <row r="700">
       <c r="A700" s="1" t="n">
-        <v>45537.4725231481</v>
+        <v>45537.2916666667</v>
       </c>
       <c r="B700" t="n">
         <v>3007</v>
@@ -19520,6 +19520,32 @@
         <v>320</v>
       </c>
       <c r="H700" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="701">
+      <c r="A701" s="1" t="n">
+        <v>45538.6319675926</v>
+      </c>
+      <c r="B701" t="n">
+        <v>87578</v>
+      </c>
+      <c r="C701" t="n">
+        <v>0.850000023841858</v>
+      </c>
+      <c r="D701" t="n">
+        <v>0.829999983310699</v>
+      </c>
+      <c r="E701" t="n">
+        <v>0.84799998998642</v>
+      </c>
+      <c r="F701" t="n">
+        <v>0.832000017166138</v>
+      </c>
+      <c r="G701" t="s">
+        <v>304</v>
+      </c>
+      <c r="H701" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/TKF.MI.xlsx
+++ b/data/TKF.MI.xlsx
@@ -38,7 +38,7 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">4.11571741104126</t>
+    <t xml:space="preserve">4.11571788787842</t>
   </si>
   <si>
     <t xml:space="preserve">TKF.MI</t>
@@ -59,7 +59,7 @@
     <t xml:space="preserve">4.09679508209229</t>
   </si>
   <si>
-    <t xml:space="preserve">4.17721700668335</t>
+    <t xml:space="preserve">4.17721748352051</t>
   </si>
   <si>
     <t xml:space="preserve">4.25763893127441</t>
@@ -74,7 +74,7 @@
     <t xml:space="preserve">4.36644554138184</t>
   </si>
   <si>
-    <t xml:space="preserve">4.35698461532593</t>
+    <t xml:space="preserve">4.35698413848877</t>
   </si>
   <si>
     <t xml:space="preserve">4.40902185440063</t>
@@ -83,7 +83,7 @@
     <t xml:space="preserve">4.35225343704224</t>
   </si>
   <si>
-    <t xml:space="preserve">4.29075384140015</t>
+    <t xml:space="preserve">4.2907543182373</t>
   </si>
   <si>
     <t xml:space="preserve">4.24344730377197</t>
@@ -95,34 +95,34 @@
     <t xml:space="preserve">4.02583456039429</t>
   </si>
   <si>
-    <t xml:space="preserve">4.04002666473389</t>
+    <t xml:space="preserve">4.04002618789673</t>
   </si>
   <si>
     <t xml:space="preserve">4.05894947052002</t>
   </si>
   <si>
-    <t xml:space="preserve">3.92175889015198</t>
+    <t xml:space="preserve">3.9217586517334</t>
   </si>
   <si>
     <t xml:space="preserve">4.11098718643188</t>
   </si>
   <si>
-    <t xml:space="preserve">3.95960426330566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.92648959159851</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.94541239738464</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.04475784301758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.95487380027771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.93595099449158</t>
+    <t xml:space="preserve">3.95960474014282</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.92648983001709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.94541263580322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.04475736618042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.95487356185913</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.935950756073</t>
   </si>
   <si>
     <t xml:space="preserve">4.03056526184082</t>
@@ -134,7 +134,7 @@
     <t xml:space="preserve">3.96906614303589</t>
   </si>
   <si>
-    <t xml:space="preserve">3.97379660606384</t>
+    <t xml:space="preserve">3.97379636764526</t>
   </si>
   <si>
     <t xml:space="preserve">3.85079836845398</t>
@@ -149,10 +149,10 @@
     <t xml:space="preserve">3.59533977508545</t>
   </si>
   <si>
-    <t xml:space="preserve">3.72779989242554</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.81295275688171</t>
+    <t xml:space="preserve">3.72779965400696</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.81295251846313</t>
   </si>
   <si>
     <t xml:space="preserve">3.99271941184998</t>
@@ -161,13 +161,13 @@
     <t xml:space="preserve">4.00691175460815</t>
   </si>
   <si>
-    <t xml:space="preserve">4.01164197921753</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.8791823387146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.76564526557922</t>
+    <t xml:space="preserve">4.01164245605469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.87918257713318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.7656455039978</t>
   </si>
   <si>
     <t xml:space="preserve">3.78456830978394</t>
@@ -176,7 +176,7 @@
     <t xml:space="preserve">3.82714462280273</t>
   </si>
   <si>
-    <t xml:space="preserve">3.53857135772705</t>
+    <t xml:space="preserve">3.53857111930847</t>
   </si>
   <si>
     <t xml:space="preserve">3.57641696929932</t>
@@ -191,10 +191,10 @@
     <t xml:space="preserve">3.37299633026123</t>
   </si>
   <si>
-    <t xml:space="preserve">3.23107528686523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.13646078109741</t>
+    <t xml:space="preserve">3.23107504844666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.13646101951599</t>
   </si>
   <si>
     <t xml:space="preserve">3.50072574615479</t>
@@ -221,10 +221,10 @@
     <t xml:space="preserve">4.37117624282837</t>
   </si>
   <si>
-    <t xml:space="preserve">4.30967664718628</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.43740653991699</t>
+    <t xml:space="preserve">4.30967712402344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.43740606307983</t>
   </si>
   <si>
     <t xml:space="preserve">4.37590742111206</t>
@@ -236,13 +236,13 @@
     <t xml:space="preserve">4.52255916595459</t>
   </si>
   <si>
-    <t xml:space="preserve">4.61717367172241</t>
+    <t xml:space="preserve">4.61717319488525</t>
   </si>
   <si>
     <t xml:space="preserve">4.68340301513672</t>
   </si>
   <si>
-    <t xml:space="preserve">4.92940044403076</t>
+    <t xml:space="preserve">4.9293999671936</t>
   </si>
   <si>
     <t xml:space="preserve">5.27240037918091</t>
@@ -19525,7 +19525,7 @@
     </row>
     <row r="701">
       <c r="A701" s="1" t="n">
-        <v>45538.6319675926</v>
+        <v>45538.2916666667</v>
       </c>
       <c r="B701" t="n">
         <v>87578</v>
@@ -19546,6 +19546,32 @@
         <v>304</v>
       </c>
       <c r="H701" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="702">
+      <c r="A702" s="1" t="n">
+        <v>45539.4286226852</v>
+      </c>
+      <c r="B702" t="n">
+        <v>6400</v>
+      </c>
+      <c r="C702" t="n">
+        <v>0.832000017166138</v>
+      </c>
+      <c r="D702" t="n">
+        <v>0.832000017166138</v>
+      </c>
+      <c r="E702" t="n">
+        <v>0.832000017166138</v>
+      </c>
+      <c r="F702" t="n">
+        <v>0.832000017166138</v>
+      </c>
+      <c r="G702" t="s">
+        <v>304</v>
+      </c>
+      <c r="H702" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/TKF.MI.xlsx
+++ b/data/TKF.MI.xlsx
@@ -38,7 +38,7 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">4.11571788787842</t>
+    <t xml:space="preserve">4.11571741104126</t>
   </si>
   <si>
     <t xml:space="preserve">TKF.MI</t>
@@ -59,7 +59,7 @@
     <t xml:space="preserve">4.09679508209229</t>
   </si>
   <si>
-    <t xml:space="preserve">4.17721748352051</t>
+    <t xml:space="preserve">4.17721700668335</t>
   </si>
   <si>
     <t xml:space="preserve">4.25763893127441</t>
@@ -74,7 +74,7 @@
     <t xml:space="preserve">4.36644554138184</t>
   </si>
   <si>
-    <t xml:space="preserve">4.35698413848877</t>
+    <t xml:space="preserve">4.35698461532593</t>
   </si>
   <si>
     <t xml:space="preserve">4.40902185440063</t>
@@ -83,7 +83,7 @@
     <t xml:space="preserve">4.35225343704224</t>
   </si>
   <si>
-    <t xml:space="preserve">4.2907543182373</t>
+    <t xml:space="preserve">4.29075384140015</t>
   </si>
   <si>
     <t xml:space="preserve">4.24344730377197</t>
@@ -95,34 +95,34 @@
     <t xml:space="preserve">4.02583456039429</t>
   </si>
   <si>
-    <t xml:space="preserve">4.04002618789673</t>
+    <t xml:space="preserve">4.04002666473389</t>
   </si>
   <si>
     <t xml:space="preserve">4.05894947052002</t>
   </si>
   <si>
-    <t xml:space="preserve">3.9217586517334</t>
+    <t xml:space="preserve">3.92175889015198</t>
   </si>
   <si>
     <t xml:space="preserve">4.11098718643188</t>
   </si>
   <si>
-    <t xml:space="preserve">3.95960474014282</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.92648983001709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.94541263580322</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.04475736618042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.95487356185913</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.935950756073</t>
+    <t xml:space="preserve">3.95960426330566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.92648959159851</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.94541239738464</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.04475784301758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.95487380027771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.93595099449158</t>
   </si>
   <si>
     <t xml:space="preserve">4.03056526184082</t>
@@ -134,7 +134,7 @@
     <t xml:space="preserve">3.96906614303589</t>
   </si>
   <si>
-    <t xml:space="preserve">3.97379636764526</t>
+    <t xml:space="preserve">3.97379660606384</t>
   </si>
   <si>
     <t xml:space="preserve">3.85079836845398</t>
@@ -149,10 +149,10 @@
     <t xml:space="preserve">3.59533977508545</t>
   </si>
   <si>
-    <t xml:space="preserve">3.72779965400696</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.81295251846313</t>
+    <t xml:space="preserve">3.72779989242554</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.81295275688171</t>
   </si>
   <si>
     <t xml:space="preserve">3.99271941184998</t>
@@ -161,13 +161,13 @@
     <t xml:space="preserve">4.00691175460815</t>
   </si>
   <si>
-    <t xml:space="preserve">4.01164245605469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.87918257713318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.7656455039978</t>
+    <t xml:space="preserve">4.01164197921753</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.8791823387146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.76564526557922</t>
   </si>
   <si>
     <t xml:space="preserve">3.78456830978394</t>
@@ -176,7 +176,7 @@
     <t xml:space="preserve">3.82714462280273</t>
   </si>
   <si>
-    <t xml:space="preserve">3.53857111930847</t>
+    <t xml:space="preserve">3.53857135772705</t>
   </si>
   <si>
     <t xml:space="preserve">3.57641696929932</t>
@@ -191,10 +191,10 @@
     <t xml:space="preserve">3.37299633026123</t>
   </si>
   <si>
-    <t xml:space="preserve">3.23107504844666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.13646101951599</t>
+    <t xml:space="preserve">3.23107528686523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.13646078109741</t>
   </si>
   <si>
     <t xml:space="preserve">3.50072574615479</t>
@@ -221,10 +221,10 @@
     <t xml:space="preserve">4.37117624282837</t>
   </si>
   <si>
-    <t xml:space="preserve">4.30967712402344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.43740606307983</t>
+    <t xml:space="preserve">4.30967664718628</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.43740653991699</t>
   </si>
   <si>
     <t xml:space="preserve">4.37590742111206</t>
@@ -236,13 +236,13 @@
     <t xml:space="preserve">4.52255916595459</t>
   </si>
   <si>
-    <t xml:space="preserve">4.61717319488525</t>
+    <t xml:space="preserve">4.61717367172241</t>
   </si>
   <si>
     <t xml:space="preserve">4.68340301513672</t>
   </si>
   <si>
-    <t xml:space="preserve">4.9293999671936</t>
+    <t xml:space="preserve">4.92940044403076</t>
   </si>
   <si>
     <t xml:space="preserve">5.27240037918091</t>
@@ -19551,25 +19551,25 @@
     </row>
     <row r="702">
       <c r="A702" s="1" t="n">
-        <v>45539.4286226852</v>
+        <v>45540.6382291667</v>
       </c>
       <c r="B702" t="n">
-        <v>6400</v>
+        <v>50155</v>
       </c>
       <c r="C702" t="n">
-        <v>0.832000017166138</v>
+        <v>0.84799998998642</v>
       </c>
       <c r="D702" t="n">
-        <v>0.832000017166138</v>
+        <v>0.811999976634979</v>
       </c>
       <c r="E702" t="n">
-        <v>0.832000017166138</v>
+        <v>0.829999983310699</v>
       </c>
       <c r="F702" t="n">
-        <v>0.832000017166138</v>
+        <v>0.839999973773956</v>
       </c>
       <c r="G702" t="s">
-        <v>304</v>
+        <v>289</v>
       </c>
       <c r="H702" t="s">
         <v>9</v>

--- a/data/TKF.MI.xlsx
+++ b/data/TKF.MI.xlsx
@@ -19551,7 +19551,7 @@
     </row>
     <row r="702">
       <c r="A702" s="1" t="n">
-        <v>45540.6382291667</v>
+        <v>45540.2916666667</v>
       </c>
       <c r="B702" t="n">
         <v>50155</v>
@@ -19572,6 +19572,32 @@
         <v>289</v>
       </c>
       <c r="H702" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="703">
+      <c r="A703" s="1" t="n">
+        <v>45541.6493634259</v>
+      </c>
+      <c r="B703" t="n">
+        <v>29678</v>
+      </c>
+      <c r="C703" t="n">
+        <v>0.832000017166138</v>
+      </c>
+      <c r="D703" t="n">
+        <v>0.811999976634979</v>
+      </c>
+      <c r="E703" t="n">
+        <v>0.822000026702881</v>
+      </c>
+      <c r="F703" t="n">
+        <v>0.815999984741211</v>
+      </c>
+      <c r="G703" t="s">
+        <v>306</v>
+      </c>
+      <c r="H703" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/TKF.MI.xlsx
+++ b/data/TKF.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="324">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="325">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -984,6 +984,9 @@
   </si>
   <si>
     <t xml:space="preserve">0.846000015735626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.892000019550323</t>
   </si>
 </sst>
 </file>
@@ -19577,7 +19580,7 @@
     </row>
     <row r="703">
       <c r="A703" s="1" t="n">
-        <v>45541.6493634259</v>
+        <v>45541.2916666667</v>
       </c>
       <c r="B703" t="n">
         <v>29678</v>
@@ -19598,6 +19601,32 @@
         <v>306</v>
       </c>
       <c r="H703" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="704">
+      <c r="A704" s="1" t="n">
+        <v>45544.649375</v>
+      </c>
+      <c r="B704" t="n">
+        <v>748763</v>
+      </c>
+      <c r="C704" t="n">
+        <v>0.892000019550323</v>
+      </c>
+      <c r="D704" t="n">
+        <v>0.839999973773956</v>
+      </c>
+      <c r="E704" t="n">
+        <v>0.839999973773956</v>
+      </c>
+      <c r="F704" t="n">
+        <v>0.892000019550323</v>
+      </c>
+      <c r="G704" t="s">
+        <v>324</v>
+      </c>
+      <c r="H704" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/TKF.MI.xlsx
+++ b/data/TKF.MI.xlsx
@@ -38,7 +38,7 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">4.11571741104126</t>
+    <t xml:space="preserve">4.11571788787842</t>
   </si>
   <si>
     <t xml:space="preserve">TKF.MI</t>
@@ -59,7 +59,7 @@
     <t xml:space="preserve">4.09679508209229</t>
   </si>
   <si>
-    <t xml:space="preserve">4.17721700668335</t>
+    <t xml:space="preserve">4.17721748352051</t>
   </si>
   <si>
     <t xml:space="preserve">4.25763893127441</t>
@@ -74,7 +74,7 @@
     <t xml:space="preserve">4.36644554138184</t>
   </si>
   <si>
-    <t xml:space="preserve">4.35698461532593</t>
+    <t xml:space="preserve">4.35698413848877</t>
   </si>
   <si>
     <t xml:space="preserve">4.40902185440063</t>
@@ -83,7 +83,7 @@
     <t xml:space="preserve">4.35225343704224</t>
   </si>
   <si>
-    <t xml:space="preserve">4.29075384140015</t>
+    <t xml:space="preserve">4.2907543182373</t>
   </si>
   <si>
     <t xml:space="preserve">4.24344730377197</t>
@@ -95,34 +95,34 @@
     <t xml:space="preserve">4.02583456039429</t>
   </si>
   <si>
-    <t xml:space="preserve">4.04002666473389</t>
+    <t xml:space="preserve">4.04002618789673</t>
   </si>
   <si>
     <t xml:space="preserve">4.05894947052002</t>
   </si>
   <si>
-    <t xml:space="preserve">3.92175889015198</t>
+    <t xml:space="preserve">3.9217586517334</t>
   </si>
   <si>
     <t xml:space="preserve">4.11098718643188</t>
   </si>
   <si>
-    <t xml:space="preserve">3.95960426330566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.92648959159851</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.94541239738464</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.04475784301758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.95487380027771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.93595099449158</t>
+    <t xml:space="preserve">3.95960474014282</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.92648983001709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.94541263580322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.04475736618042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.95487356185913</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.935950756073</t>
   </si>
   <si>
     <t xml:space="preserve">4.03056526184082</t>
@@ -134,7 +134,7 @@
     <t xml:space="preserve">3.96906614303589</t>
   </si>
   <si>
-    <t xml:space="preserve">3.97379660606384</t>
+    <t xml:space="preserve">3.97379636764526</t>
   </si>
   <si>
     <t xml:space="preserve">3.85079836845398</t>
@@ -149,10 +149,10 @@
     <t xml:space="preserve">3.59533977508545</t>
   </si>
   <si>
-    <t xml:space="preserve">3.72779989242554</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.81295275688171</t>
+    <t xml:space="preserve">3.72779965400696</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.81295251846313</t>
   </si>
   <si>
     <t xml:space="preserve">3.99271941184998</t>
@@ -161,13 +161,13 @@
     <t xml:space="preserve">4.00691175460815</t>
   </si>
   <si>
-    <t xml:space="preserve">4.01164197921753</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.8791823387146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.76564526557922</t>
+    <t xml:space="preserve">4.01164245605469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.87918257713318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.7656455039978</t>
   </si>
   <si>
     <t xml:space="preserve">3.78456830978394</t>
@@ -176,7 +176,7 @@
     <t xml:space="preserve">3.82714462280273</t>
   </si>
   <si>
-    <t xml:space="preserve">3.53857135772705</t>
+    <t xml:space="preserve">3.53857111930847</t>
   </si>
   <si>
     <t xml:space="preserve">3.57641696929932</t>
@@ -191,10 +191,10 @@
     <t xml:space="preserve">3.37299633026123</t>
   </si>
   <si>
-    <t xml:space="preserve">3.23107528686523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.13646078109741</t>
+    <t xml:space="preserve">3.23107504844666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.13646101951599</t>
   </si>
   <si>
     <t xml:space="preserve">3.50072574615479</t>
@@ -221,10 +221,10 @@
     <t xml:space="preserve">4.37117624282837</t>
   </si>
   <si>
-    <t xml:space="preserve">4.30967664718628</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.43740653991699</t>
+    <t xml:space="preserve">4.30967712402344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.43740606307983</t>
   </si>
   <si>
     <t xml:space="preserve">4.37590742111206</t>
@@ -236,13 +236,13 @@
     <t xml:space="preserve">4.52255916595459</t>
   </si>
   <si>
-    <t xml:space="preserve">4.61717367172241</t>
+    <t xml:space="preserve">4.61717319488525</t>
   </si>
   <si>
     <t xml:space="preserve">4.68340301513672</t>
   </si>
   <si>
-    <t xml:space="preserve">4.92940044403076</t>
+    <t xml:space="preserve">4.9293999671936</t>
   </si>
   <si>
     <t xml:space="preserve">5.27240037918091</t>
@@ -19606,7 +19606,7 @@
     </row>
     <row r="704">
       <c r="A704" s="1" t="n">
-        <v>45544.649375</v>
+        <v>45544.2916666667</v>
       </c>
       <c r="B704" t="n">
         <v>748763</v>
@@ -19627,6 +19627,32 @@
         <v>324</v>
       </c>
       <c r="H704" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="705">
+      <c r="A705" s="1" t="n">
+        <v>45545.6457291667</v>
+      </c>
+      <c r="B705" t="n">
+        <v>293131</v>
+      </c>
+      <c r="C705" t="n">
+        <v>0.892000019550323</v>
+      </c>
+      <c r="D705" t="n">
+        <v>0.889999985694885</v>
+      </c>
+      <c r="E705" t="n">
+        <v>0.892000019550323</v>
+      </c>
+      <c r="F705" t="n">
+        <v>0.889999985694885</v>
+      </c>
+      <c r="G705" t="s">
+        <v>267</v>
+      </c>
+      <c r="H705" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/TKF.MI.xlsx
+++ b/data/TKF.MI.xlsx
@@ -19632,7 +19632,7 @@
     </row>
     <row r="705">
       <c r="A705" s="1" t="n">
-        <v>45545.6457291667</v>
+        <v>45545.2916666667</v>
       </c>
       <c r="B705" t="n">
         <v>293131</v>
@@ -19653,6 +19653,32 @@
         <v>267</v>
       </c>
       <c r="H705" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="706">
+      <c r="A706" s="1" t="n">
+        <v>45546.6414467593</v>
+      </c>
+      <c r="B706" t="n">
+        <v>228900</v>
+      </c>
+      <c r="C706" t="n">
+        <v>0.892000019550323</v>
+      </c>
+      <c r="D706" t="n">
+        <v>0.892000019550323</v>
+      </c>
+      <c r="E706" t="n">
+        <v>0.892000019550323</v>
+      </c>
+      <c r="F706" t="n">
+        <v>0.892000019550323</v>
+      </c>
+      <c r="G706" t="s">
+        <v>324</v>
+      </c>
+      <c r="H706" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/TKF.MI.xlsx
+++ b/data/TKF.MI.xlsx
@@ -19658,7 +19658,7 @@
     </row>
     <row r="706">
       <c r="A706" s="1" t="n">
-        <v>45546.6414467593</v>
+        <v>45546.2916666667</v>
       </c>
       <c r="B706" t="n">
         <v>228900</v>
@@ -19679,6 +19679,32 @@
         <v>324</v>
       </c>
       <c r="H706" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="707">
+      <c r="A707" s="1" t="n">
+        <v>45547.6401157407</v>
+      </c>
+      <c r="B707" t="n">
+        <v>49380</v>
+      </c>
+      <c r="C707" t="n">
+        <v>0.892000019550323</v>
+      </c>
+      <c r="D707" t="n">
+        <v>0.892000019550323</v>
+      </c>
+      <c r="E707" t="n">
+        <v>0.892000019550323</v>
+      </c>
+      <c r="F707" t="n">
+        <v>0.892000019550323</v>
+      </c>
+      <c r="G707" t="s">
+        <v>324</v>
+      </c>
+      <c r="H707" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/TKF.MI.xlsx
+++ b/data/TKF.MI.xlsx
@@ -38,7 +38,7 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">4.11571788787842</t>
+    <t xml:space="preserve">4.11571741104126</t>
   </si>
   <si>
     <t xml:space="preserve">TKF.MI</t>
@@ -59,7 +59,7 @@
     <t xml:space="preserve">4.09679508209229</t>
   </si>
   <si>
-    <t xml:space="preserve">4.17721748352051</t>
+    <t xml:space="preserve">4.17721700668335</t>
   </si>
   <si>
     <t xml:space="preserve">4.25763893127441</t>
@@ -74,7 +74,7 @@
     <t xml:space="preserve">4.36644554138184</t>
   </si>
   <si>
-    <t xml:space="preserve">4.35698413848877</t>
+    <t xml:space="preserve">4.35698461532593</t>
   </si>
   <si>
     <t xml:space="preserve">4.40902185440063</t>
@@ -83,7 +83,7 @@
     <t xml:space="preserve">4.35225343704224</t>
   </si>
   <si>
-    <t xml:space="preserve">4.2907543182373</t>
+    <t xml:space="preserve">4.29075384140015</t>
   </si>
   <si>
     <t xml:space="preserve">4.24344730377197</t>
@@ -95,34 +95,34 @@
     <t xml:space="preserve">4.02583456039429</t>
   </si>
   <si>
-    <t xml:space="preserve">4.04002618789673</t>
+    <t xml:space="preserve">4.04002666473389</t>
   </si>
   <si>
     <t xml:space="preserve">4.05894947052002</t>
   </si>
   <si>
-    <t xml:space="preserve">3.9217586517334</t>
+    <t xml:space="preserve">3.92175889015198</t>
   </si>
   <si>
     <t xml:space="preserve">4.11098718643188</t>
   </si>
   <si>
-    <t xml:space="preserve">3.95960474014282</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.92648983001709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.94541263580322</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.04475736618042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.95487356185913</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.935950756073</t>
+    <t xml:space="preserve">3.95960426330566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.92648959159851</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.94541239738464</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.04475784301758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.95487380027771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.93595099449158</t>
   </si>
   <si>
     <t xml:space="preserve">4.03056526184082</t>
@@ -134,7 +134,7 @@
     <t xml:space="preserve">3.96906614303589</t>
   </si>
   <si>
-    <t xml:space="preserve">3.97379636764526</t>
+    <t xml:space="preserve">3.97379660606384</t>
   </si>
   <si>
     <t xml:space="preserve">3.85079836845398</t>
@@ -149,10 +149,10 @@
     <t xml:space="preserve">3.59533977508545</t>
   </si>
   <si>
-    <t xml:space="preserve">3.72779965400696</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.81295251846313</t>
+    <t xml:space="preserve">3.72779989242554</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.81295275688171</t>
   </si>
   <si>
     <t xml:space="preserve">3.99271941184998</t>
@@ -161,13 +161,13 @@
     <t xml:space="preserve">4.00691175460815</t>
   </si>
   <si>
-    <t xml:space="preserve">4.01164245605469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.87918257713318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.7656455039978</t>
+    <t xml:space="preserve">4.01164197921753</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.8791823387146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.76564526557922</t>
   </si>
   <si>
     <t xml:space="preserve">3.78456830978394</t>
@@ -176,7 +176,7 @@
     <t xml:space="preserve">3.82714462280273</t>
   </si>
   <si>
-    <t xml:space="preserve">3.53857111930847</t>
+    <t xml:space="preserve">3.53857135772705</t>
   </si>
   <si>
     <t xml:space="preserve">3.57641696929932</t>
@@ -191,10 +191,10 @@
     <t xml:space="preserve">3.37299633026123</t>
   </si>
   <si>
-    <t xml:space="preserve">3.23107504844666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.13646101951599</t>
+    <t xml:space="preserve">3.23107528686523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.13646078109741</t>
   </si>
   <si>
     <t xml:space="preserve">3.50072574615479</t>
@@ -221,10 +221,10 @@
     <t xml:space="preserve">4.37117624282837</t>
   </si>
   <si>
-    <t xml:space="preserve">4.30967712402344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.43740606307983</t>
+    <t xml:space="preserve">4.30967664718628</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.43740653991699</t>
   </si>
   <si>
     <t xml:space="preserve">4.37590742111206</t>
@@ -236,13 +236,13 @@
     <t xml:space="preserve">4.52255916595459</t>
   </si>
   <si>
-    <t xml:space="preserve">4.61717319488525</t>
+    <t xml:space="preserve">4.61717367172241</t>
   </si>
   <si>
     <t xml:space="preserve">4.68340301513672</t>
   </si>
   <si>
-    <t xml:space="preserve">4.9293999671936</t>
+    <t xml:space="preserve">4.92940044403076</t>
   </si>
   <si>
     <t xml:space="preserve">5.27240037918091</t>
@@ -19684,7 +19684,7 @@
     </row>
     <row r="707">
       <c r="A707" s="1" t="n">
-        <v>45547.6401157407</v>
+        <v>45547.2916666667</v>
       </c>
       <c r="B707" t="n">
         <v>49380</v>
@@ -19705,6 +19705,32 @@
         <v>324</v>
       </c>
       <c r="H707" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="708">
+      <c r="A708" s="1" t="n">
+        <v>45548.64375</v>
+      </c>
+      <c r="B708" t="n">
+        <v>251070</v>
+      </c>
+      <c r="C708" t="n">
+        <v>0.893999993801117</v>
+      </c>
+      <c r="D708" t="n">
+        <v>0.892000019550323</v>
+      </c>
+      <c r="E708" t="n">
+        <v>0.892000019550323</v>
+      </c>
+      <c r="F708" t="n">
+        <v>0.892000019550323</v>
+      </c>
+      <c r="G708" t="s">
+        <v>324</v>
+      </c>
+      <c r="H708" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/TKF.MI.xlsx
+++ b/data/TKF.MI.xlsx
@@ -38,7 +38,7 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">4.11571741104126</t>
+    <t xml:space="preserve">4.11571788787842</t>
   </si>
   <si>
     <t xml:space="preserve">TKF.MI</t>
@@ -59,7 +59,7 @@
     <t xml:space="preserve">4.09679508209229</t>
   </si>
   <si>
-    <t xml:space="preserve">4.17721700668335</t>
+    <t xml:space="preserve">4.17721748352051</t>
   </si>
   <si>
     <t xml:space="preserve">4.25763893127441</t>
@@ -74,7 +74,7 @@
     <t xml:space="preserve">4.36644554138184</t>
   </si>
   <si>
-    <t xml:space="preserve">4.35698461532593</t>
+    <t xml:space="preserve">4.35698413848877</t>
   </si>
   <si>
     <t xml:space="preserve">4.40902185440063</t>
@@ -83,7 +83,7 @@
     <t xml:space="preserve">4.35225343704224</t>
   </si>
   <si>
-    <t xml:space="preserve">4.29075384140015</t>
+    <t xml:space="preserve">4.2907543182373</t>
   </si>
   <si>
     <t xml:space="preserve">4.24344730377197</t>
@@ -95,34 +95,34 @@
     <t xml:space="preserve">4.02583456039429</t>
   </si>
   <si>
-    <t xml:space="preserve">4.04002666473389</t>
+    <t xml:space="preserve">4.04002618789673</t>
   </si>
   <si>
     <t xml:space="preserve">4.05894947052002</t>
   </si>
   <si>
-    <t xml:space="preserve">3.92175889015198</t>
+    <t xml:space="preserve">3.9217586517334</t>
   </si>
   <si>
     <t xml:space="preserve">4.11098718643188</t>
   </si>
   <si>
-    <t xml:space="preserve">3.95960426330566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.92648959159851</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.94541239738464</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.04475784301758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.95487380027771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.93595099449158</t>
+    <t xml:space="preserve">3.95960474014282</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.92648983001709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.94541263580322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.04475736618042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.95487356185913</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.935950756073</t>
   </si>
   <si>
     <t xml:space="preserve">4.03056526184082</t>
@@ -134,7 +134,7 @@
     <t xml:space="preserve">3.96906614303589</t>
   </si>
   <si>
-    <t xml:space="preserve">3.97379660606384</t>
+    <t xml:space="preserve">3.97379636764526</t>
   </si>
   <si>
     <t xml:space="preserve">3.85079836845398</t>
@@ -149,10 +149,10 @@
     <t xml:space="preserve">3.59533977508545</t>
   </si>
   <si>
-    <t xml:space="preserve">3.72779989242554</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.81295275688171</t>
+    <t xml:space="preserve">3.72779965400696</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.81295251846313</t>
   </si>
   <si>
     <t xml:space="preserve">3.99271941184998</t>
@@ -161,13 +161,13 @@
     <t xml:space="preserve">4.00691175460815</t>
   </si>
   <si>
-    <t xml:space="preserve">4.01164197921753</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.8791823387146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.76564526557922</t>
+    <t xml:space="preserve">4.01164245605469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.87918257713318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.7656455039978</t>
   </si>
   <si>
     <t xml:space="preserve">3.78456830978394</t>
@@ -176,7 +176,7 @@
     <t xml:space="preserve">3.82714462280273</t>
   </si>
   <si>
-    <t xml:space="preserve">3.53857135772705</t>
+    <t xml:space="preserve">3.53857111930847</t>
   </si>
   <si>
     <t xml:space="preserve">3.57641696929932</t>
@@ -191,10 +191,10 @@
     <t xml:space="preserve">3.37299633026123</t>
   </si>
   <si>
-    <t xml:space="preserve">3.23107528686523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.13646078109741</t>
+    <t xml:space="preserve">3.23107504844666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.13646101951599</t>
   </si>
   <si>
     <t xml:space="preserve">3.50072574615479</t>
@@ -221,10 +221,10 @@
     <t xml:space="preserve">4.37117624282837</t>
   </si>
   <si>
-    <t xml:space="preserve">4.30967664718628</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.43740653991699</t>
+    <t xml:space="preserve">4.30967712402344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.43740606307983</t>
   </si>
   <si>
     <t xml:space="preserve">4.37590742111206</t>
@@ -236,13 +236,13 @@
     <t xml:space="preserve">4.52255916595459</t>
   </si>
   <si>
-    <t xml:space="preserve">4.61717367172241</t>
+    <t xml:space="preserve">4.61717319488525</t>
   </si>
   <si>
     <t xml:space="preserve">4.68340301513672</t>
   </si>
   <si>
-    <t xml:space="preserve">4.92940044403076</t>
+    <t xml:space="preserve">4.9293999671936</t>
   </si>
   <si>
     <t xml:space="preserve">5.27240037918091</t>
@@ -19710,7 +19710,7 @@
     </row>
     <row r="708">
       <c r="A708" s="1" t="n">
-        <v>45548.64375</v>
+        <v>45548.2916666667</v>
       </c>
       <c r="B708" t="n">
         <v>251070</v>
@@ -19731,6 +19731,32 @@
         <v>324</v>
       </c>
       <c r="H708" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="709">
+      <c r="A709" s="1" t="n">
+        <v>45551.642349537</v>
+      </c>
+      <c r="B709" t="n">
+        <v>67870</v>
+      </c>
+      <c r="C709" t="n">
+        <v>0.892000019550323</v>
+      </c>
+      <c r="D709" t="n">
+        <v>0.892000019550323</v>
+      </c>
+      <c r="E709" t="n">
+        <v>0.892000019550323</v>
+      </c>
+      <c r="F709" t="n">
+        <v>0.892000019550323</v>
+      </c>
+      <c r="G709" t="s">
+        <v>324</v>
+      </c>
+      <c r="H709" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/TKF.MI.xlsx
+++ b/data/TKF.MI.xlsx
@@ -19736,7 +19736,7 @@
     </row>
     <row r="709">
       <c r="A709" s="1" t="n">
-        <v>45551.642349537</v>
+        <v>45551.2916666667</v>
       </c>
       <c r="B709" t="n">
         <v>67870</v>
@@ -19757,6 +19757,32 @@
         <v>324</v>
       </c>
       <c r="H709" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="710">
+      <c r="A710" s="1" t="n">
+        <v>45552.6441319444</v>
+      </c>
+      <c r="B710" t="n">
+        <v>368690</v>
+      </c>
+      <c r="C710" t="n">
+        <v>0.892000019550323</v>
+      </c>
+      <c r="D710" t="n">
+        <v>0.892000019550323</v>
+      </c>
+      <c r="E710" t="n">
+        <v>0.892000019550323</v>
+      </c>
+      <c r="F710" t="n">
+        <v>0.892000019550323</v>
+      </c>
+      <c r="G710" t="s">
+        <v>324</v>
+      </c>
+      <c r="H710" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/TKF.MI.xlsx
+++ b/data/TKF.MI.xlsx
@@ -19762,7 +19762,7 @@
     </row>
     <row r="710">
       <c r="A710" s="1" t="n">
-        <v>45552.6441319444</v>
+        <v>45552.2916666667</v>
       </c>
       <c r="B710" t="n">
         <v>368690</v>

--- a/data/TKF.MI.xlsx
+++ b/data/TKF.MI.xlsx
@@ -38,7 +38,7 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">4.11571788787842</t>
+    <t xml:space="preserve">4.11571741104126</t>
   </si>
   <si>
     <t xml:space="preserve">TKF.MI</t>
@@ -59,7 +59,7 @@
     <t xml:space="preserve">4.09679508209229</t>
   </si>
   <si>
-    <t xml:space="preserve">4.17721748352051</t>
+    <t xml:space="preserve">4.17721700668335</t>
   </si>
   <si>
     <t xml:space="preserve">4.25763893127441</t>
@@ -74,7 +74,7 @@
     <t xml:space="preserve">4.36644554138184</t>
   </si>
   <si>
-    <t xml:space="preserve">4.35698413848877</t>
+    <t xml:space="preserve">4.35698461532593</t>
   </si>
   <si>
     <t xml:space="preserve">4.40902185440063</t>
@@ -83,7 +83,7 @@
     <t xml:space="preserve">4.35225343704224</t>
   </si>
   <si>
-    <t xml:space="preserve">4.2907543182373</t>
+    <t xml:space="preserve">4.29075384140015</t>
   </si>
   <si>
     <t xml:space="preserve">4.24344730377197</t>
@@ -95,34 +95,34 @@
     <t xml:space="preserve">4.02583456039429</t>
   </si>
   <si>
-    <t xml:space="preserve">4.04002618789673</t>
+    <t xml:space="preserve">4.04002666473389</t>
   </si>
   <si>
     <t xml:space="preserve">4.05894947052002</t>
   </si>
   <si>
-    <t xml:space="preserve">3.9217586517334</t>
+    <t xml:space="preserve">3.92175889015198</t>
   </si>
   <si>
     <t xml:space="preserve">4.11098718643188</t>
   </si>
   <si>
-    <t xml:space="preserve">3.95960474014282</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.92648983001709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.94541263580322</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.04475736618042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.95487356185913</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.935950756073</t>
+    <t xml:space="preserve">3.95960426330566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.92648959159851</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.94541239738464</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.04475784301758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.95487380027771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.93595099449158</t>
   </si>
   <si>
     <t xml:space="preserve">4.03056526184082</t>
@@ -134,7 +134,7 @@
     <t xml:space="preserve">3.96906614303589</t>
   </si>
   <si>
-    <t xml:space="preserve">3.97379636764526</t>
+    <t xml:space="preserve">3.97379660606384</t>
   </si>
   <si>
     <t xml:space="preserve">3.85079836845398</t>
@@ -149,10 +149,10 @@
     <t xml:space="preserve">3.59533977508545</t>
   </si>
   <si>
-    <t xml:space="preserve">3.72779965400696</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.81295251846313</t>
+    <t xml:space="preserve">3.72779989242554</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.81295275688171</t>
   </si>
   <si>
     <t xml:space="preserve">3.99271941184998</t>
@@ -161,13 +161,13 @@
     <t xml:space="preserve">4.00691175460815</t>
   </si>
   <si>
-    <t xml:space="preserve">4.01164245605469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.87918257713318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.7656455039978</t>
+    <t xml:space="preserve">4.01164197921753</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.8791823387146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.76564526557922</t>
   </si>
   <si>
     <t xml:space="preserve">3.78456830978394</t>
@@ -176,7 +176,7 @@
     <t xml:space="preserve">3.82714462280273</t>
   </si>
   <si>
-    <t xml:space="preserve">3.53857111930847</t>
+    <t xml:space="preserve">3.53857135772705</t>
   </si>
   <si>
     <t xml:space="preserve">3.57641696929932</t>
@@ -191,10 +191,10 @@
     <t xml:space="preserve">3.37299633026123</t>
   </si>
   <si>
-    <t xml:space="preserve">3.23107504844666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.13646101951599</t>
+    <t xml:space="preserve">3.23107528686523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.13646078109741</t>
   </si>
   <si>
     <t xml:space="preserve">3.50072574615479</t>
@@ -221,10 +221,10 @@
     <t xml:space="preserve">4.37117624282837</t>
   </si>
   <si>
-    <t xml:space="preserve">4.30967712402344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.43740606307983</t>
+    <t xml:space="preserve">4.30967664718628</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.43740653991699</t>
   </si>
   <si>
     <t xml:space="preserve">4.37590742111206</t>
@@ -236,13 +236,13 @@
     <t xml:space="preserve">4.52255916595459</t>
   </si>
   <si>
-    <t xml:space="preserve">4.61717319488525</t>
+    <t xml:space="preserve">4.61717367172241</t>
   </si>
   <si>
     <t xml:space="preserve">4.68340301513672</t>
   </si>
   <si>
-    <t xml:space="preserve">4.9293999671936</t>
+    <t xml:space="preserve">4.92940044403076</t>
   </si>
   <si>
     <t xml:space="preserve">5.27240037918091</t>
